--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="23325" windowHeight="9840" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="招商信用卡(掌上生活)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="123">
   <si>
     <t xml:space="preserve"> 账单日</t>
   </si>
@@ -355,6 +355,12 @@
   </si>
   <si>
     <t>2020.04.07~2020.07.07</t>
+  </si>
+  <si>
+    <t>期限(先息后本)</t>
+  </si>
+  <si>
+    <t>2020.06.06~2020.08.06</t>
   </si>
   <si>
     <t>2020.02.06;
@@ -402,10 +408,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -423,23 +429,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,67 +477,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,10 +499,62 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,7 +566,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,6 +611,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -617,19 +635,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,151 +797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,17 +834,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -835,16 +842,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,24 +873,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,6 +890,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -904,10 +922,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -916,19 +934,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -937,116 +955,116 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1065,51 +1083,48 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1124,9 +1139,6 @@
     </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1519,9 +1531,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.875" customWidth="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
     <col min="6" max="10" width="9.375"/>
@@ -1529,234 +1541,234 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="6">
+      <c r="A2" s="1">
         <v>2016</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="1">
         <v>10000</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="6">
+      <c r="A3" s="1">
         <v>2018</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="1">
         <v>4000</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>2019.06</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>7.8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="1">
         <v>50000</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>7.9</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="1">
         <v>35000</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="6">
+      <c r="A9" s="1">
         <v>7.27</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="1">
         <v>10000</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:3">
-      <c r="B10" s="6">
+      <c r="B10" s="1">
         <v>10000</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:3">
-      <c r="B11" s="6">
+      <c r="B11" s="1">
         <v>5000</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="6">
+      <c r="A12" s="1">
         <v>7.28</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="1">
         <v>5000</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="6">
+      <c r="A13" s="1">
         <v>7.31</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="1">
         <v>10000</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>8.5</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="1">
         <v>10000</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="6">
+      <c r="A15" s="1">
         <v>8.14</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="1">
         <v>5000</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="6">
+      <c r="A16" s="1">
         <v>9.8</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="1">
         <v>14000</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="6">
+      <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="1">
         <v>4000</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="1">
         <v>4000</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:17">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="1">
         <v>10000</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="25">
         <v>43925</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="25">
         <v>43955</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="25">
         <v>43986</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="25">
         <v>44016</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="25">
         <v>44047</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="25">
         <v>44078</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="25">
         <v>44108</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="25">
         <v>44139</v>
       </c>
-      <c r="M19" s="27">
+      <c r="M19" s="25">
         <v>44169</v>
       </c>
-      <c r="N19" s="27">
+      <c r="N19" s="25">
         <v>44200</v>
       </c>
-      <c r="O19" s="27">
+      <c r="O19" s="25">
         <v>44231</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P19" s="25">
         <v>44259</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="25">
         <v>44290</v>
       </c>
     </row>
     <row r="20" ht="39" customHeight="1" spans="3:5">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E20">
@@ -1764,7 +1776,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:2">
-      <c r="B21" s="29">
+      <c r="B21" s="27">
         <f>SUM(B2:B20)</f>
         <v>216000</v>
       </c>
@@ -1790,128 +1802,128 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="23" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="16384" width="14.625" style="6" customWidth="1"/>
+    <col min="1" max="16384" width="14.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="1">
         <v>18000</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="5:10">
-      <c r="E3" s="9">
+      <c r="E3" s="2">
         <v>180</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="2">
         <v>223.2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="1">
         <v>223.2</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="1">
         <v>208.8</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="1">
         <v>223.2</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="1">
         <v>18216</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A5" s="6" t="s">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-    </row>
-    <row r="6" s="6" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A6" s="6" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="1">
         <v>5000</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" customHeight="1" spans="5:7">
-      <c r="E7" s="9">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="5:7">
+      <c r="E7" s="2">
         <v>50</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="2">
         <v>62</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="1">
         <v>5062</v>
       </c>
     </row>
@@ -1944,116 +1956,116 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="28" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="14.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="89.625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="14.625" style="6" customWidth="1"/>
+    <col min="1" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="14.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="1">
         <v>2000</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="1">
         <v>10000</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:3">
-      <c r="B5" s="6">
+      <c r="B5" s="1">
         <v>6000</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>43586</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:3">
-      <c r="B6" s="6">
+      <c r="B6" s="1">
         <v>15000</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="1">
         <v>10000</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="1">
         <v>8000</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="1">
         <v>2500</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="1">
         <v>2000</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:2">
-      <c r="B12" s="6">
+      <c r="B12" s="1">
         <f>SUM(B2:B11)</f>
         <v>75500</v>
       </c>
@@ -2075,72 +2087,72 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="25" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="15.625" style="6" customWidth="1"/>
+    <col min="1" max="16384" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="1">
         <v>20000</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="1">
         <v>18000</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="1">
         <v>5000</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="1">
         <v>20000</v>
       </c>
     </row>
@@ -2161,72 +2173,72 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="25" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="15.625" style="6" customWidth="1"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="1">
         <v>10000</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="1">
         <v>3349.09</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="1">
         <v>20000</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="1">
         <v>18432.25</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="1">
         <v>5000</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="1">
         <v>5031.5</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A5" s="6" t="s">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="1">
         <v>11000</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="1">
         <v>11050.05</v>
       </c>
     </row>
@@ -2255,61 +2267,61 @@
     <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A1" s="6">
+    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="35" customHeight="1" spans="2:9">
-      <c r="B2" s="21">
+    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="2:9">
+      <c r="B2" s="20">
         <v>43912</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="1">
         <v>10000</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="21">
         <v>43927</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <v>43957</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>43988</v>
       </c>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="51" customHeight="1" spans="6:9">
-      <c r="F3" s="18">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="6:9">
+      <c r="F3" s="15">
         <v>48</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="2">
         <v>96</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="23">
         <v>10099.2</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2328,817 +2340,868 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="19.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="28.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="34.6833333333333" style="6" customWidth="1"/>
-    <col min="8" max="8" width="32.475" style="6" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="34.9083333333333" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="6" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="6" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="11.75" style="6" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="6" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="6" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6833333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.475" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.9083333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.25" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="52" customHeight="1" spans="1:2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1"/>
     <row r="3" ht="40" customHeight="1" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" ht="35" customHeight="1" spans="2:8">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="1">
         <v>10000</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="31" customHeight="1" spans="6:8">
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>3395.2</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="31" customHeight="1" spans="2:8">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A8" s="6">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" ht="37" customHeight="1" spans="2:8">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="1">
         <v>30000</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" ht="24" customHeight="1" spans="6:8">
-      <c r="F10" s="11">
+      <c r="F10" s="3">
         <v>324</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>372</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>30360</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="28" customHeight="1" spans="2:8">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A12" s="6">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="13" ht="24" customHeight="1" spans="2:8">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="1">
         <v>20000</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" ht="72" customHeight="1" spans="6:8">
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>6824</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="2">
         <v>6828.19</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="45" customHeight="1" spans="2:8">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" s="6" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A16" s="6">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A16" s="1">
         <v>4</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:8">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="1">
         <v>20000</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" ht="99" customHeight="1" spans="6:8">
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="24" customHeight="1" spans="2:8">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" s="6" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A20" s="6">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A20" s="1">
         <v>5</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21" ht="35" customHeight="1" spans="2:17">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="1">
         <v>20000</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="O21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" ht="51" customHeight="1" spans="6:17">
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="2">
         <v>1667.67</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="2">
         <v>1819.21</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="2">
         <v>1816.11</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="5">
         <v>1785.28</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="17">
         <v>1667.67</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="1">
         <v>1667.67</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="1">
         <v>1667.67</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="1">
         <v>1667.67</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="1">
         <v>1667.67</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="1">
         <v>1667.67</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="38" customHeight="1" spans="2:8">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" s="6" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A24" s="6">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A24" s="1">
         <v>6</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" ht="35" customHeight="1" spans="2:12">
-      <c r="B25" s="6" t="s">
+    <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="2:12">
+      <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="1">
         <v>11000</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" ht="31" customHeight="1" spans="6:12">
-      <c r="F26" s="9">
+    <row r="26" s="1" customFormat="1" ht="31" customHeight="1" spans="6:12">
+      <c r="F26" s="2">
         <v>1883.4</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="2">
         <v>1907.86</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="2">
         <v>1895.09</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="5">
         <v>1870.74</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="18">
         <v>1883.4</v>
       </c>
     </row>
     <row r="27" ht="36" customHeight="1"/>
-    <row r="28" s="6" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A28" s="6">
+    <row r="28" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A28" s="1">
         <v>7</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" s="6" customFormat="1" ht="35" customHeight="1" spans="2:12">
-      <c r="B29" s="6" t="s">
+    <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="2:12">
+      <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="1">
         <v>20000</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="1" ht="92" customHeight="1" spans="6:12">
-      <c r="F30" s="18" t="s">
+    <row r="30" s="1" customFormat="1" ht="92" customHeight="1" spans="6:12">
+      <c r="F30" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="2">
         <v>248</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="2">
         <v>232</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="2">
         <v>248</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="5">
         <v>240</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="18">
         <v>20248</v>
       </c>
     </row>
-    <row r="31" s="6" customFormat="1" ht="30" customHeight="1" spans="6:7">
-      <c r="F31" s="19"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" s="6" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A32" s="6">
+    <row r="31" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
+      <c r="F31" s="16"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A32" s="1">
         <v>8</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" s="6" customFormat="1" ht="30" customHeight="1" spans="2:11">
-      <c r="B33" s="6" t="s">
+      <c r="L32" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:12">
+      <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="1">
         <v>40000</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="15">
         <v>464</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="2">
         <v>464</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="2">
         <v>496</v>
       </c>
-      <c r="K33" s="20">
+      <c r="K33" s="5">
         <v>480</v>
       </c>
-    </row>
-    <row r="34" s="6" customFormat="1" ht="30" customHeight="1" spans="6:7">
-      <c r="F34" s="19"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" s="6" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A35" s="6">
+      <c r="L33" s="18">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
+      <c r="F34" s="16"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
+      <c r="A35" s="1">
         <v>9</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="9" t="s">
+      <c r="F35" s="16"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" s="6" customFormat="1" ht="30" customHeight="1" spans="2:11">
-      <c r="B36" s="6" t="s">
+    <row r="36" s="1" customFormat="1" ht="30" customHeight="1" spans="2:11">
+      <c r="B36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="1">
         <v>5000</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="19"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="9">
+      <c r="F36" s="16"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2">
         <v>54</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="2">
         <v>62</v>
       </c>
-      <c r="K36" s="20">
+      <c r="K36" s="5">
         <v>5060</v>
       </c>
     </row>
-    <row r="37" s="6" customFormat="1" ht="30" customHeight="1" spans="6:7">
-      <c r="F37" s="19"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" s="6" customFormat="1" ht="30" customHeight="1" spans="2:11">
-      <c r="B38" s="6" t="s">
+    <row r="37" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
+      <c r="F37" s="16"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="30" customHeight="1" spans="2:12">
+      <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="11"/>
-      <c r="J38" s="9" t="s">
+      <c r="F38" s="16"/>
+      <c r="G38" s="3"/>
+      <c r="J38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K38" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" s="6" customFormat="1" ht="30" customHeight="1" spans="2:11">
-      <c r="B39" s="6" t="s">
+      <c r="L38" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="30" customHeight="1" spans="2:12">
+      <c r="B39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="1">
         <v>6000</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="19"/>
-      <c r="G39" s="11"/>
-      <c r="J39" s="9">
+      <c r="F39" s="16"/>
+      <c r="G39" s="3"/>
+      <c r="J39" s="2">
         <v>74</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K39" s="5">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" s="6" customFormat="1" ht="30" customHeight="1" spans="6:10">
-      <c r="F40" s="19"/>
-      <c r="G40" s="11"/>
-      <c r="J40" s="11"/>
-    </row>
-    <row r="41" s="6" customFormat="1" ht="30" customHeight="1" spans="2:13">
-      <c r="B41" s="6" t="s">
+      <c r="L39" s="18">
+        <v>74.4</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="30" customHeight="1" spans="6:10">
+      <c r="F40" s="16"/>
+      <c r="G40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
+      <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F41" s="19"/>
-      <c r="G41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="6" t="s">
+      <c r="F41" s="16"/>
+      <c r="G41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M41" s="6" t="s">
+      <c r="M41" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" s="6" customFormat="1" ht="30" customHeight="1" spans="2:13">
-      <c r="B42" s="6" t="s">
+    <row r="42" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
+      <c r="B42" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="1">
         <v>3000</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="20">
+      <c r="F42" s="16"/>
+      <c r="G42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="5">
         <v>1029.4</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="18">
+        <v>1021</v>
+      </c>
+      <c r="M42" s="1">
         <v>1000</v>
       </c>
-      <c r="M42" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" s="6" customFormat="1" ht="30" customHeight="1" spans="6:10">
-      <c r="F43" s="19"/>
-      <c r="G43" s="11"/>
-      <c r="J43" s="11"/>
-    </row>
-    <row r="44" ht="50" customHeight="1" spans="7:10">
-      <c r="G44" s="18" t="s">
+    </row>
+    <row r="43" s="1" customFormat="1" ht="30" customHeight="1" spans="6:11">
+      <c r="F43" s="16"/>
+      <c r="G43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="19"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="30" customHeight="1" spans="3:12">
+      <c r="C44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="F44" s="16"/>
+      <c r="G44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="30" customHeight="1" spans="3:12">
+      <c r="C45" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J44" s="18" t="s">
+      <c r="F45" s="16"/>
+      <c r="G45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="30" customHeight="1" spans="6:10">
+      <c r="F46" s="16"/>
+      <c r="G46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" ht="50" customHeight="1" spans="7:10">
+      <c r="G47" s="15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="45" ht="25" customHeight="1"/>
-    <row r="46" ht="25" customHeight="1" spans="2:3">
-      <c r="B46" s="6">
+      <c r="H47" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" ht="25" customHeight="1"/>
+    <row r="49" ht="25" customHeight="1" spans="2:3">
+      <c r="B49" s="1">
         <v>4.21</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C49" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="47" ht="25" customHeight="1"/>
-    <row r="48" ht="25" customHeight="1"/>
-    <row r="49" ht="25" customHeight="1"/>
     <row r="50" ht="25" customHeight="1"/>
     <row r="51" ht="25" customHeight="1"/>
     <row r="52" ht="25" customHeight="1"/>
@@ -3153,6 +3216,9 @@
     <row r="61" ht="25" customHeight="1"/>
     <row r="62" ht="25" customHeight="1"/>
     <row r="63" ht="25" customHeight="1"/>
+    <row r="64" ht="25" customHeight="1"/>
+    <row r="65" ht="25" customHeight="1"/>
+    <row r="66" ht="25" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
     <mergeCell ref="B1:I1"/>
@@ -3233,10 +3299,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3259,7 +3325,7 @@
         <v>10000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -3318,7 +3384,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1">
         <f>SUM(B2:B9)</f>
@@ -3331,7 +3397,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B12" s="1">
         <v>11000</v>
@@ -3402,7 +3468,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B19" s="1">
         <f>SUM(B12:B18)</f>
@@ -3429,7 +3495,7 @@
     </row>
     <row r="22" ht="22" customHeight="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B22" s="1">
         <f>SUM(B21)</f>
@@ -3443,7 +3509,7 @@
     <row r="23" ht="22" customHeight="1"/>
     <row r="24" ht="22" customHeight="1" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B24" s="1">
         <v>8662.63</v>
@@ -3454,7 +3520,7 @@
     </row>
     <row r="25" ht="22" customHeight="1" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B25" s="1">
         <v>10206.13</v>
@@ -3465,7 +3531,7 @@
     </row>
     <row r="26" ht="22" customHeight="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B26" s="1">
         <v>6841.6</v>

--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="126">
   <si>
     <t xml:space="preserve"> 账单日</t>
   </si>
@@ -360,7 +360,16 @@
     <t>期限(先息后本)</t>
   </si>
   <si>
+    <t>2020.05.07</t>
+  </si>
+  <si>
     <t>2020.06.06~2020.08.06</t>
+  </si>
+  <si>
+    <t>2020.06.09</t>
+  </si>
+  <si>
+    <t>2020.06.09-2020.12.06</t>
   </si>
   <si>
     <t>2020.02.06;
@@ -407,11 +416,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -544,8 +553,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,9 +568,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,13 +620,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,31 +794,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,132 +813,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,149 +931,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1120,6 +1129,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1526,7 +1538,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1724,43 +1736,43 @@
       <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="26">
         <v>43925</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="26">
         <v>43955</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="26">
         <v>43986</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="26">
         <v>44016</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="26">
         <v>44047</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="26">
         <v>44078</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="26">
         <v>44108</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="26">
         <v>44139</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="26">
         <v>44169</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="26">
         <v>44200</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="26">
         <v>44231</v>
       </c>
-      <c r="P19" s="25">
+      <c r="P19" s="26">
         <v>44259</v>
       </c>
-      <c r="Q19" s="25">
+      <c r="Q19" s="26">
         <v>44290</v>
       </c>
     </row>
@@ -1768,7 +1780,7 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E20">
@@ -1776,7 +1788,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:2">
-      <c r="B21" s="27">
+      <c r="B21" s="28">
         <f>SUM(B2:B20)</f>
         <v>216000</v>
       </c>
@@ -2006,7 +2018,7 @@
       <c r="B5" s="1">
         <v>6000</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="25">
         <v>43586</v>
       </c>
     </row>
@@ -2288,7 +2300,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="2:9">
-      <c r="B2" s="20">
+      <c r="B2" s="21">
         <v>43912</v>
       </c>
       <c r="C2" s="1">
@@ -2300,13 +2312,13 @@
       <c r="E2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="22">
         <v>43927</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="22">
         <v>43957</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="23">
         <v>43988</v>
       </c>
       <c r="I2" s="3"/>
@@ -2318,7 +2330,7 @@
       <c r="G3" s="2">
         <v>96</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="24">
         <v>10099.2</v>
       </c>
       <c r="I3" s="3"/>
@@ -2340,10 +2352,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q66"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2408,7 +2420,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="2:8">
+    <row r="5" ht="35" customHeight="1" spans="2:9">
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2430,8 +2442,9 @@
       <c r="H5" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" ht="31" customHeight="1" spans="6:8">
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" ht="31" customHeight="1" spans="6:9">
       <c r="F6" s="6" t="s">
         <v>71</v>
       </c>
@@ -2441,6 +2454,7 @@
       <c r="H6" s="8">
         <v>3395.2</v>
       </c>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" customFormat="1" ht="31" customHeight="1" spans="2:8">
       <c r="B7" s="1"/>
@@ -2471,7 +2485,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" ht="37" customHeight="1" spans="2:8">
+    <row r="9" ht="37" customHeight="1" spans="2:9">
       <c r="B9" s="1" t="s">
         <v>73</v>
       </c>
@@ -2493,8 +2507,9 @@
       <c r="H9" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="6:8">
+      <c r="I9" s="17"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="6:9">
       <c r="F10" s="3">
         <v>324</v>
       </c>
@@ -2504,6 +2519,7 @@
       <c r="H10" s="7">
         <v>30360</v>
       </c>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" customFormat="1" ht="28" customHeight="1" spans="2:8">
       <c r="B11" s="1"/>
@@ -2534,7 +2550,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" ht="24" customHeight="1" spans="2:8">
+    <row r="13" ht="24" customHeight="1" spans="2:9">
       <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
@@ -2556,8 +2572,9 @@
       <c r="H13" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" ht="72" customHeight="1" spans="6:8">
+      <c r="I13" s="17"/>
+    </row>
+    <row r="14" ht="72" customHeight="1" spans="6:9">
       <c r="F14" s="6">
         <v>6824</v>
       </c>
@@ -2567,6 +2584,7 @@
       <c r="H14" s="2">
         <v>6828.19</v>
       </c>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" customFormat="1" ht="45" customHeight="1" spans="2:8">
       <c r="B15" s="1"/>
@@ -2597,7 +2615,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1" spans="2:8">
+    <row r="17" ht="30" customHeight="1" spans="2:9">
       <c r="B17" s="1" t="s">
         <v>78</v>
       </c>
@@ -2619,8 +2637,9 @@
       <c r="H17" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" ht="99" customHeight="1" spans="6:8">
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" ht="99" customHeight="1" spans="6:9">
       <c r="F18" s="11" t="s">
         <v>81</v>
       </c>
@@ -2630,6 +2649,7 @@
       <c r="H18" s="12" t="s">
         <v>83</v>
       </c>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" customFormat="1" ht="24" customHeight="1" spans="2:8">
       <c r="B19" s="1"/>
@@ -2688,10 +2708,10 @@
       <c r="J21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="18" t="s">
         <v>87</v>
       </c>
       <c r="M21" s="1" t="s">
@@ -2726,14 +2746,14 @@
       <c r="J22" s="2">
         <v>1816.11</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="18">
         <v>1785.28</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="18">
         <v>1667.67</v>
       </c>
-      <c r="M22" s="1">
-        <v>1667.67</v>
+      <c r="M22" s="5">
+        <v>1754.27</v>
       </c>
       <c r="N22" s="1">
         <v>1667.67</v>
@@ -2777,7 +2797,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="2:12">
+    <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="2:13">
       <c r="B25" s="1" t="s">
         <v>29</v>
       </c>
@@ -2802,14 +2822,15 @@
       <c r="J25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="31" customHeight="1" spans="6:12">
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="31" customHeight="1" spans="6:13">
       <c r="F26" s="2">
         <v>1883.4</v>
       </c>
@@ -2822,12 +2843,13 @@
       <c r="J26" s="2">
         <v>1895.09</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="18">
         <v>1870.74</v>
       </c>
       <c r="L26" s="18">
         <v>1883.4</v>
       </c>
+      <c r="M26" s="17"/>
     </row>
     <row r="27" ht="36" customHeight="1"/>
     <row r="28" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
@@ -2850,7 +2872,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="2:12">
+    <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="2:13">
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
@@ -2875,14 +2897,15 @@
       <c r="J29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="92" customHeight="1" spans="6:12">
+      <c r="M29" s="17"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="92" customHeight="1" spans="6:13">
       <c r="F30" s="15" t="s">
         <v>100</v>
       </c>
@@ -2895,18 +2918,19 @@
       <c r="J30" s="2">
         <v>248</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="18">
         <v>240</v>
       </c>
       <c r="L30" s="18">
         <v>20248</v>
       </c>
+      <c r="M30" s="17"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
       <c r="F31" s="16"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
+    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -2931,14 +2955,17 @@
       <c r="J32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:12">
+      <c r="M32" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -2960,18 +2987,21 @@
       <c r="J33" s="2">
         <v>496</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="18">
         <v>480</v>
       </c>
       <c r="L33" s="18">
         <v>496</v>
+      </c>
+      <c r="M33" s="5">
+        <v>480</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
       <c r="F34" s="16"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
+    <row r="35" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -2995,11 +3025,12 @@
       <c r="J35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="30" customHeight="1" spans="2:11">
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="30" customHeight="1" spans="2:12">
       <c r="B36" s="1" t="s">
         <v>103</v>
       </c>
@@ -3020,15 +3051,16 @@
       <c r="J36" s="2">
         <v>62</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="18">
         <v>5060</v>
       </c>
+      <c r="L36" s="17"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
       <c r="F37" s="16"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="30" customHeight="1" spans="2:12">
+    <row r="38" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
@@ -3046,14 +3078,17 @@
       <c r="J38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="30" customHeight="1" spans="2:12">
+      <c r="M38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
       <c r="B39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3071,11 +3106,14 @@
       <c r="J39" s="2">
         <v>74</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="18">
         <v>72</v>
       </c>
       <c r="L39" s="18">
         <v>74.4</v>
+      </c>
+      <c r="M39" s="5">
+        <v>72</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="30" customHeight="1" spans="6:10">
@@ -3099,10 +3137,10 @@
       <c r="F41" s="16"/>
       <c r="G41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" s="18" t="s">
         <v>87</v>
       </c>
       <c r="M41" s="1" t="s">
@@ -3125,23 +3163,26 @@
       <c r="F42" s="16"/>
       <c r="G42" s="3"/>
       <c r="J42" s="3"/>
-      <c r="K42" s="5">
+      <c r="K42" s="18">
         <v>1029.4</v>
       </c>
       <c r="L42" s="18">
         <v>1021</v>
       </c>
-      <c r="M42" s="1">
-        <v>1000</v>
+      <c r="M42" s="19">
+        <v>1010.5</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="30" customHeight="1" spans="6:11">
       <c r="F43" s="16"/>
       <c r="G43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="19"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="30" customHeight="1" spans="3:12">
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>59</v>
       </c>
@@ -3154,12 +3195,18 @@
       <c r="F44" s="16"/>
       <c r="G44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="1" t="s">
+      <c r="K44" s="3"/>
+      <c r="L44" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="30" customHeight="1" spans="3:12">
+      <c r="M44" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
+      <c r="B45" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C45" s="1">
         <v>10000</v>
       </c>
@@ -3167,44 +3214,95 @@
         <v>27</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="3"/>
       <c r="J45" s="3"/>
-      <c r="K45" s="19"/>
+      <c r="K45" s="3"/>
       <c r="L45" s="18">
         <v>120</v>
       </c>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="30" customHeight="1" spans="6:10">
+      <c r="M45" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="30" customHeight="1" spans="6:12">
       <c r="F46" s="16"/>
       <c r="G46" s="3"/>
       <c r="J46" s="3"/>
-    </row>
-    <row r="47" ht="50" customHeight="1" spans="7:10">
-      <c r="G47" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H47" s="15" t="s">
+      <c r="K46" s="3"/>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
+      <c r="B48" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J47" s="15" t="s">
+      <c r="C48" s="1">
+        <v>25000</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="48" ht="25" customHeight="1"/>
-    <row r="49" ht="25" customHeight="1" spans="2:3">
-      <c r="B49" s="1">
+      <c r="F48" s="16"/>
+      <c r="G48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="30" customHeight="1" spans="6:10">
+      <c r="F49" s="16"/>
+      <c r="G49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" ht="50" customHeight="1" spans="7:10">
+      <c r="G50" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" ht="25" customHeight="1"/>
+    <row r="52" ht="25" customHeight="1" spans="2:3">
+      <c r="B52" s="1">
         <v>4.21</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C52" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="50" ht="25" customHeight="1"/>
-    <row r="51" ht="25" customHeight="1"/>
-    <row r="52" ht="25" customHeight="1"/>
     <row r="53" ht="25" customHeight="1"/>
     <row r="54" ht="25" customHeight="1"/>
     <row r="55" ht="25" customHeight="1"/>
@@ -3219,6 +3317,9 @@
     <row r="64" ht="25" customHeight="1"/>
     <row r="65" ht="25" customHeight="1"/>
     <row r="66" ht="25" customHeight="1"/>
+    <row r="67" ht="25" customHeight="1"/>
+    <row r="68" ht="25" customHeight="1"/>
+    <row r="69" ht="25" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
     <mergeCell ref="B1:I1"/>
@@ -3299,10 +3400,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3325,7 +3426,7 @@
         <v>10000</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -3384,7 +3485,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B10" s="1">
         <f>SUM(B2:B9)</f>
@@ -3397,7 +3498,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B12" s="1">
         <v>11000</v>
@@ -3468,7 +3569,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B19" s="1">
         <f>SUM(B12:B18)</f>
@@ -3495,7 +3596,7 @@
     </row>
     <row r="22" ht="22" customHeight="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B22" s="1">
         <f>SUM(B21)</f>
@@ -3509,7 +3610,7 @@
     <row r="23" ht="22" customHeight="1"/>
     <row r="24" ht="22" customHeight="1" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B24" s="1">
         <v>8662.63</v>
@@ -3520,7 +3621,7 @@
     </row>
     <row r="25" ht="22" customHeight="1" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B25" s="1">
         <v>10206.13</v>
@@ -3531,7 +3632,7 @@
     </row>
     <row r="26" ht="22" customHeight="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B26" s="1">
         <v>6841.6</v>

--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="23325" windowHeight="9210" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="招商信用卡(掌上生活)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="126">
   <si>
     <t xml:space="preserve"> 账单日</t>
   </si>
@@ -416,11 +416,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -553,9 +553,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,8 +567,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,6 +632,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -644,12 +662,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -674,31 +716,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,24 +782,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -746,6 +794,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -758,61 +812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,10 +931,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,137 +943,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1131,10 +1131,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1736,43 +1733,43 @@
       <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="25">
         <v>43925</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="25">
         <v>43955</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="25">
         <v>43986</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="25">
         <v>44016</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="25">
         <v>44047</v>
       </c>
-      <c r="J19" s="26">
+      <c r="J19" s="25">
         <v>44078</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="25">
         <v>44108</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="25">
         <v>44139</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="25">
         <v>44169</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N19" s="25">
         <v>44200</v>
       </c>
-      <c r="O19" s="26">
+      <c r="O19" s="25">
         <v>44231</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="25">
         <v>44259</v>
       </c>
-      <c r="Q19" s="26">
+      <c r="Q19" s="25">
         <v>44290</v>
       </c>
     </row>
@@ -1780,7 +1777,7 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E20">
@@ -1788,7 +1785,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:2">
-      <c r="B21" s="28">
+      <c r="B21" s="27">
         <f>SUM(B2:B20)</f>
         <v>216000</v>
       </c>
@@ -2018,7 +2015,7 @@
       <c r="B5" s="1">
         <v>6000</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>43586</v>
       </c>
     </row>
@@ -2300,7 +2297,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="2:9">
-      <c r="B2" s="21">
+      <c r="B2" s="20">
         <v>43912</v>
       </c>
       <c r="C2" s="1">
@@ -2312,13 +2309,13 @@
       <c r="E2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="21">
         <v>43927</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <v>43957</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>43988</v>
       </c>
       <c r="I2" s="3"/>
@@ -2330,7 +2327,7 @@
       <c r="G3" s="2">
         <v>96</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="23">
         <v>10099.2</v>
       </c>
       <c r="I3" s="3"/>
@@ -2354,8 +2351,8 @@
   <sheetPr/>
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2714,10 +2711,10 @@
       <c r="L21" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="5" t="s">
         <v>89</v>
       </c>
       <c r="O21" s="1" t="s">
@@ -2752,11 +2749,11 @@
       <c r="L22" s="18">
         <v>1667.67</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="2">
         <v>1754.27</v>
       </c>
-      <c r="N22" s="1">
-        <v>1667.67</v>
+      <c r="N22" s="5">
+        <v>1736.87</v>
       </c>
       <c r="O22" s="1">
         <v>1667.67</v>
@@ -2930,7 +2927,7 @@
       <c r="F31" s="16"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:13">
+    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -2961,11 +2958,14 @@
       <c r="L32" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
+      <c r="N32" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:14">
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -2993,8 +2993,11 @@
       <c r="L33" s="18">
         <v>496</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M33" s="2">
         <v>480</v>
+      </c>
+      <c r="N33" s="5">
+        <v>496</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
@@ -3060,7 +3063,7 @@
       <c r="F37" s="16"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
+    <row r="38" s="1" customFormat="1" ht="30" customHeight="1" spans="2:14">
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
@@ -3084,11 +3087,14 @@
       <c r="L38" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
+      <c r="N38" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="30" customHeight="1" spans="2:14">
       <c r="B39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3112,8 +3118,11 @@
       <c r="L39" s="18">
         <v>74.4</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="2">
         <v>72</v>
+      </c>
+      <c r="N39" s="5">
+        <v>74.4</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="30" customHeight="1" spans="6:10">
@@ -3143,7 +3152,7 @@
       <c r="L41" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="17" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3179,7 +3188,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
+    <row r="44" s="1" customFormat="1" ht="30" customHeight="1" spans="2:14">
       <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
@@ -3199,11 +3208,14 @@
       <c r="L44" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
+      <c r="N44" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="30" customHeight="1" spans="2:14">
       <c r="B45" s="1" t="s">
         <v>110</v>
       </c>
@@ -3223,8 +3235,11 @@
       <c r="L45" s="18">
         <v>120</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="2">
         <v>120</v>
+      </c>
+      <c r="N45" s="5">
+        <v>10124</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="30" customHeight="1" spans="6:12">
@@ -3232,9 +3247,9 @@
       <c r="G46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
-      <c r="L46" s="20"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="30" customHeight="1" spans="2:14">
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
@@ -3251,12 +3266,15 @@
       <c r="G47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="1" t="s">
+      <c r="L47" s="3"/>
+      <c r="M47" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
+      <c r="N47" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="30" customHeight="1" spans="2:14">
       <c r="B48" s="1" t="s">
         <v>112</v>
       </c>
@@ -3273,9 +3291,12 @@
       <c r="G48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="5">
+      <c r="L48" s="3"/>
+      <c r="M48" s="2">
         <v>270</v>
+      </c>
+      <c r="N48" s="5">
+        <v>310</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="30" customHeight="1" spans="6:10">

--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9210" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="招商信用卡(掌上生活)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="126">
   <si>
     <t xml:space="preserve"> 账单日</t>
   </si>
@@ -416,10 +416,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -432,7 +432,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,7 +440,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,19 +491,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,14 +522,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,51 +553,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,6 +566,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -632,187 +632,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,17 +826,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,6 +840,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,6 +898,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -890,39 +923,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -931,145 +931,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2351,8 +2351,10 @@
   <sheetPr/>
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B31" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2714,10 +2716,10 @@
       <c r="M21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="5" t="s">
         <v>90</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -2752,11 +2754,11 @@
       <c r="M22" s="2">
         <v>1754.27</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="2">
         <v>1736.87</v>
       </c>
-      <c r="O22" s="1">
-        <v>1667.67</v>
+      <c r="O22" s="5">
+        <v>1721.23</v>
       </c>
       <c r="P22" s="1">
         <v>1667.67</v>
@@ -2927,7 +2929,7 @@
       <c r="F31" s="16"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:14">
+    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -2961,11 +2963,14 @@
       <c r="M32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="N32" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:14">
+      <c r="O32" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:15">
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -2996,7 +3001,10 @@
       <c r="M33" s="2">
         <v>480</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="2">
+        <v>496</v>
+      </c>
+      <c r="O33" s="5">
         <v>496</v>
       </c>
     </row>
@@ -3063,7 +3071,7 @@
       <c r="F37" s="16"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="30" customHeight="1" spans="2:14">
+    <row r="38" s="1" customFormat="1" ht="30" customHeight="1" spans="2:15">
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
@@ -3090,11 +3098,14 @@
       <c r="M38" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="30" customHeight="1" spans="2:14">
+      <c r="O38" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="30" customHeight="1" spans="2:15">
       <c r="B39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3121,8 +3132,11 @@
       <c r="M39" s="2">
         <v>72</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="2">
         <v>74.4</v>
+      </c>
+      <c r="O39" s="5">
+        <v>6074.4</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="30" customHeight="1" spans="6:10">
@@ -3188,7 +3202,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="30" customHeight="1" spans="2:14">
+    <row r="44" s="1" customFormat="1" ht="30" customHeight="1" spans="2:15">
       <c r="B44" s="1" t="s">
         <v>7</v>
       </c>
@@ -3211,11 +3225,12 @@
       <c r="M44" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N44" s="5" t="s">
+      <c r="N44" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="30" customHeight="1" spans="2:14">
+      <c r="O44" s="17"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="30" customHeight="1" spans="2:15">
       <c r="B45" s="1" t="s">
         <v>110</v>
       </c>
@@ -3238,9 +3253,10 @@
       <c r="M45" s="2">
         <v>120</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="2">
         <v>10124</v>
       </c>
+      <c r="O45" s="17"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="30" customHeight="1" spans="6:12">
       <c r="F46" s="16"/>
@@ -3249,7 +3265,7 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="30" customHeight="1" spans="2:14">
+    <row r="47" s="1" customFormat="1" ht="30" customHeight="1" spans="2:15">
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
@@ -3270,11 +3286,14 @@
       <c r="M47" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="30" customHeight="1" spans="2:14">
+      <c r="O47" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="30" customHeight="1" spans="2:15">
       <c r="B48" s="1" t="s">
         <v>112</v>
       </c>
@@ -3295,7 +3314,10 @@
       <c r="M48" s="2">
         <v>270</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48" s="2">
+        <v>310</v>
+      </c>
+      <c r="O48" s="5">
         <v>310</v>
       </c>
     </row>
@@ -3304,7 +3326,7 @@
       <c r="G49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" ht="50" customHeight="1" spans="7:10">
+    <row r="50" ht="50" customHeight="1" spans="7:15">
       <c r="G50" s="15" t="s">
         <v>114</v>
       </c>
@@ -3313,6 +3335,9 @@
       </c>
       <c r="J50" s="15" t="s">
         <v>116</v>
+      </c>
+      <c r="O50" s="5">
+        <v>8601.63</v>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1"/>

--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="招商信用卡(掌上生活)" sheetId="1" r:id="rId1"/>
@@ -12,17 +12,17 @@
     <sheet name="工伤账单" sheetId="5" r:id="rId3"/>
     <sheet name="私人债务" sheetId="6" r:id="rId4"/>
     <sheet name="支付宝借款记录" sheetId="7" r:id="rId5"/>
-    <sheet name="京东金条" sheetId="9" r:id="rId6"/>
-    <sheet name="王星" sheetId="10" r:id="rId7"/>
+    <sheet name="京东金条" sheetId="9" state="hidden" r:id="rId6"/>
+    <sheet name="王星" sheetId="10" state="hidden" r:id="rId7"/>
     <sheet name="方召军账单" sheetId="3" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
+    <sheet name="建行快贷" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="117">
   <si>
     <t xml:space="preserve"> 账单日</t>
   </si>
@@ -141,25 +141,19 @@
     <t>周威</t>
   </si>
   <si>
-    <t>王郁</t>
-  </si>
-  <si>
-    <t>2016年底家里开店子</t>
+    <t>2020.10.5还款2000</t>
+  </si>
+  <si>
+    <t>王宝霞</t>
   </si>
   <si>
     <t>2019年7月,西安开店子</t>
   </si>
   <si>
-    <t>王宝霞</t>
-  </si>
-  <si>
     <t>胡小芳</t>
   </si>
   <si>
     <t>王曾凯</t>
-  </si>
-  <si>
-    <t>来荣新</t>
   </si>
   <si>
     <t>李芳</t>
@@ -372,6 +366,12 @@
     <t>2020.06.09-2020.12.06</t>
   </si>
   <si>
+    <t>2020.09.07</t>
+  </si>
+  <si>
+    <t>2020.10.06-2020.12.06</t>
+  </si>
+  <si>
     <t>2020.02.06;
 2046.31+1998.93+248+464=4757.24</t>
   </si>
@@ -382,33 +382,6 @@
   <si>
     <t>2020.04.06
 1816.11+1895.09+248+496+62+74=4591.2</t>
-  </si>
-  <si>
-    <t>剩余</t>
-  </si>
-  <si>
-    <t>债务人</t>
-  </si>
-  <si>
-    <t>王星</t>
-  </si>
-  <si>
-    <t>总计</t>
-  </si>
-  <si>
-    <t>京东金融</t>
-  </si>
-  <si>
-    <t>总结</t>
-  </si>
-  <si>
-    <t>招商信用卡</t>
-  </si>
-  <si>
-    <t>中信信用卡</t>
-  </si>
-  <si>
-    <t>支付宝花呗</t>
   </si>
 </sst>
 </file>
@@ -416,11 +389,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -432,7 +405,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,6 +453,37 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,14 +504,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,53 +532,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,37 +547,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -590,43 +575,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,19 +635,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,7 +677,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,19 +731,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,13 +755,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,110 +771,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -826,11 +781,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,8 +824,39 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,9 +878,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,17 +902,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,13 +944,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,10 +966,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,201 +978,216 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1146,8 +1196,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1535,7 +1585,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1733,43 +1783,43 @@
       <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="30">
         <v>43925</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="30">
         <v>43955</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="30">
         <v>43986</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="30">
         <v>44016</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="30">
         <v>44047</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="30">
         <v>44078</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19" s="30">
         <v>44108</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="30">
         <v>44139</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="30">
         <v>44169</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="30">
         <v>44200</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19" s="30">
         <v>44231</v>
       </c>
-      <c r="P19" s="25">
+      <c r="P19" s="30">
         <v>44259</v>
       </c>
-      <c r="Q19" s="25">
+      <c r="Q19" s="30">
         <v>44290</v>
       </c>
     </row>
@@ -1777,7 +1827,7 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E20">
@@ -1785,7 +1835,7 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:2">
-      <c r="B21" s="27">
+      <c r="B21" s="32">
         <f>SUM(B2:B20)</f>
         <v>216000</v>
       </c>
@@ -1844,10 +1894,10 @@
       <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1864,10 +1914,10 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="5:10">
-      <c r="E3" s="2">
+      <c r="E3" s="13">
         <v>180</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="13">
         <v>223.2</v>
       </c>
       <c r="G3" s="1">
@@ -1899,8 +1949,8 @@
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -1915,10 +1965,10 @@
       <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1926,10 +1976,10 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="5:7">
-      <c r="E7" s="2">
+      <c r="E7" s="13">
         <v>50</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="13">
         <v>62</v>
       </c>
       <c r="G7" s="1">
@@ -1957,13 +2007,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="28" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="28" customHeight="1" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="89.625" style="1" customWidth="1"/>
@@ -1992,91 +2042,59 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
+    <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="1">
-        <v>10000</v>
+        <v>8000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1">
         <v>10000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B5" s="1">
-        <v>6000</v>
-      </c>
-      <c r="C5" s="24">
-        <v>43586</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B6" s="1">
-        <v>15000</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:2">
       <c r="B8" s="1">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="2:2">
-      <c r="B12" s="1">
-        <f>SUM(B2:B11)</f>
-        <v>75500</v>
+        <f>SUM(B2:B7)</f>
+        <v>40000</v>
       </c>
     </row>
   </sheetData>
@@ -2091,7 +2109,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="25" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -2104,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -2112,10 +2130,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1">
         <v>20000</v>
@@ -2123,10 +2141,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1">
         <v>10000</v>
@@ -2137,7 +2155,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1">
         <v>18000</v>
@@ -2148,7 +2166,7 @@
         <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="1">
         <v>5000</v>
@@ -2156,10 +2174,10 @@
     </row>
     <row r="6" customHeight="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1">
         <v>20000</v>
@@ -2192,21 +2210,21 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1">
         <v>10000</v>
@@ -2217,7 +2235,7 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1">
         <v>20000</v>
@@ -2228,7 +2246,7 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1">
         <v>5000</v>
@@ -2242,7 +2260,7 @@
         <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>11000</v>
@@ -2284,53 +2302,53 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="2:9">
-      <c r="B2" s="20">
+      <c r="B2" s="25">
         <v>43912</v>
       </c>
       <c r="C2" s="1">
         <v>10000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="21">
+        <v>62</v>
+      </c>
+      <c r="F2" s="26">
         <v>43927</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="26">
         <v>43957</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="27">
         <v>43988</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="6:9">
-      <c r="F3" s="15">
+      <c r="F3" s="16">
         <v>48</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="13">
         <v>96</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="28">
         <v>10099.2</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2349,12 +2367,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B31" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O50" sqref="O50"/>
+      <selection pane="topRight" activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2381,281 +2399,318 @@
   <sheetData>
     <row r="1" ht="52" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1"/>
+    <row r="3" ht="40" customHeight="1" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" ht="30" customHeight="1"/>
-    <row r="3" ht="40" customHeight="1" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" ht="33" customHeight="1" spans="1:6">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" ht="33" customHeight="1" spans="1:9">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" ht="35" customHeight="1" spans="2:9">
+      <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" ht="31" customHeight="1" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" ht="35" customHeight="1" spans="2:9">
-      <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" ht="31" customHeight="1" spans="6:9">
-      <c r="F6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>3395.2</v>
       </c>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" customFormat="1" ht="31" customHeight="1" spans="2:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" customFormat="1" ht="31" customHeight="1" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:9">
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" ht="37" customHeight="1" spans="2:9">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="5">
+        <v>30000</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="1">
-        <v>30000</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="6:9">
-      <c r="F10" s="3">
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="2:9">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5">
         <v>324</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>372</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>30360</v>
       </c>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" customFormat="1" ht="28" customHeight="1" spans="2:8">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" customFormat="1" ht="28" customHeight="1" spans="2:9">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:9">
       <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="F12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" ht="24" customHeight="1" spans="2:9">
-      <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="5">
         <v>20000</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="E13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" ht="72" customHeight="1" spans="6:9">
-      <c r="F14" s="6">
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" ht="72" customHeight="1" spans="2:9">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
         <v>6824</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="5">
         <v>6828.19</v>
       </c>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" customFormat="1" ht="45" customHeight="1" spans="2:8">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" customFormat="1" ht="45" customHeight="1" spans="2:9">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:9">
       <c r="A16" s="1">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="F16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:9">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" ht="99" customHeight="1" spans="2:9">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" ht="99" customHeight="1" spans="6:9">
-      <c r="F18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="17"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" customFormat="1" ht="24" customHeight="1" spans="2:8">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -2667,101 +2722,101 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" ht="35" customHeight="1" spans="2:17">
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1">
         <v>20000</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="M21" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="18" t="s">
+      <c r="N21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="O21" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="P21" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="Q21" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" ht="51" customHeight="1" spans="6:17">
       <c r="F22" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="2">
+        <v>91</v>
+      </c>
+      <c r="G22" s="13">
         <v>1667.67</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="H22" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="13">
         <v>1819.21</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="13">
         <v>1816.11</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="22">
         <v>1785.28</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="22">
         <v>1667.67</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="13">
         <v>1754.27</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="13">
         <v>1736.87</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="13">
         <v>1721.23</v>
       </c>
-      <c r="P22" s="1">
-        <v>1667.67</v>
+      <c r="P22" s="23">
+        <v>1702.94</v>
       </c>
       <c r="Q22" s="1">
         <v>1667.67</v>
@@ -2772,164 +2827,203 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
       <c r="A24" s="1">
         <v>6</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="2:13">
+      <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="5">
+        <v>11000</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="31" customHeight="1" spans="2:13">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
+        <v>1883.4</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="2:13">
-      <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="1">
-        <v>11000</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="31" customHeight="1" spans="6:13">
-      <c r="F26" s="2">
+      <c r="H26" s="5">
+        <v>1907.86</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5">
+        <v>1895.09</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1870.74</v>
+      </c>
+      <c r="L26" s="5">
         <v>1883.4</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1907.86</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1895.09</v>
-      </c>
-      <c r="K26" s="18">
-        <v>1870.74</v>
-      </c>
-      <c r="L26" s="18">
-        <v>1883.4</v>
-      </c>
-      <c r="M26" s="17"/>
-    </row>
-    <row r="27" ht="36" customHeight="1"/>
-    <row r="28" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" ht="36" customHeight="1" spans="2:13">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="19"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
       <c r="A28" s="1">
         <v>7</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="19"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="2:13">
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M29" s="19"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="92" customHeight="1" spans="2:13">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="2:13">
-      <c r="B29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="M29" s="17"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="92" customHeight="1" spans="6:13">
-      <c r="F30" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="G30" s="9">
         <v>248</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="9">
         <v>232</v>
       </c>
-      <c r="J30" s="2">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9">
         <v>248</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="9">
         <v>240</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="9">
         <v>20248</v>
       </c>
-      <c r="M30" s="17"/>
+      <c r="M30" s="21"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
-      <c r="F31" s="16"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:15">
+      <c r="F31" s="15"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:16">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -2937,40 +3031,43 @@
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="18" t="s">
+      <c r="K32" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L32" s="18" t="s">
+      <c r="L32" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N32" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="O32" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="P32" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="O32" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:15">
+    </row>
+    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -2981,321 +3078,395 @@
         <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="15">
+        <v>100</v>
+      </c>
+      <c r="G33" s="16">
         <v>464</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="13">
         <v>464</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="13">
         <v>496</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="22">
         <v>480</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="22">
         <v>496</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="13">
         <v>480</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="13">
         <v>496</v>
       </c>
-      <c r="O33" s="5">
+      <c r="O33" s="13">
         <v>496</v>
       </c>
+      <c r="P33" s="23">
+        <v>480</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
-      <c r="F34" s="16"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="F34" s="15"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="30" customHeight="1" spans="1:16">
       <c r="A35" s="1">
         <v>9</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="16"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="18" t="s">
+      <c r="K35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L35" s="17"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="30" customHeight="1" spans="2:12">
-      <c r="B36" s="1" t="s">
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="18"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+      <c r="B36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5">
+        <v>54</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5">
+        <v>62</v>
+      </c>
+      <c r="K36" s="5">
+        <v>5060</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="19"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="19"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P38" s="19"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+      <c r="B39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="2">
-        <v>54</v>
-      </c>
-      <c r="J36" s="2">
-        <v>62</v>
-      </c>
-      <c r="K36" s="18">
-        <v>5060</v>
-      </c>
-      <c r="L36" s="17"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
-      <c r="F37" s="16"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="30" customHeight="1" spans="2:15">
-      <c r="B38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="3"/>
-      <c r="J38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="L38" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="30" customHeight="1" spans="2:15">
-      <c r="B39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="1">
-        <v>6000</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="3"/>
-      <c r="J39" s="2">
+      <c r="F39" s="7"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5">
         <v>74</v>
       </c>
-      <c r="K39" s="18">
+      <c r="K39" s="5">
         <v>72</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L39" s="5">
         <v>74.4</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="5">
         <v>72</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="5">
         <v>74.4</v>
       </c>
       <c r="O39" s="5">
         <v>6074.4</v>
       </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="30" customHeight="1" spans="6:10">
-      <c r="F40" s="16"/>
-      <c r="G40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
-      <c r="B41" s="1" t="s">
+      <c r="P39" s="19"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="19"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+      <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="C41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="19"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+      <c r="B42" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="L41" s="18" t="s">
+      <c r="F42" s="7"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5">
+        <v>1029.4</v>
+      </c>
+      <c r="L42" s="5">
+        <v>1021</v>
+      </c>
+      <c r="M42" s="6">
+        <v>1010.5</v>
+      </c>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="19"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="19"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N44" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M41" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="30" customHeight="1" spans="2:13">
-      <c r="B42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="O44" s="5"/>
+      <c r="P44" s="19"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+      <c r="B45" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="18">
-        <v>1029.4</v>
-      </c>
-      <c r="L42" s="18">
-        <v>1021</v>
-      </c>
-      <c r="M42" s="19">
-        <v>1010.5</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="30" customHeight="1" spans="6:11">
-      <c r="F43" s="16"/>
-      <c r="G43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="30" customHeight="1" spans="2:15">
-      <c r="B44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="C45" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O44" s="17"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="30" customHeight="1" spans="2:15">
-      <c r="B45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="18">
+      <c r="F45" s="10"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9">
         <v>120</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="9">
         <v>120</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45" s="9">
         <v>10124</v>
       </c>
-      <c r="O45" s="17"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="21"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="30" customHeight="1" spans="6:12">
-      <c r="F46" s="16"/>
-      <c r="G46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="30" customHeight="1" spans="2:15">
+      <c r="F46" s="15"/>
+      <c r="G46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="2" t="s">
+      <c r="F47" s="15"/>
+      <c r="G47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="O47" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="P47" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="O47" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="30" customHeight="1" spans="2:15">
+    </row>
+    <row r="48" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
       <c r="B48" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1">
         <v>25000</v>
@@ -3304,54 +3475,118 @@
         <v>27</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="13">
+        <v>270</v>
+      </c>
+      <c r="N48" s="13">
+        <v>310</v>
+      </c>
+      <c r="O48" s="13">
+        <v>310</v>
+      </c>
+      <c r="P48" s="23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="30" customHeight="1" spans="6:16">
+      <c r="F49" s="15"/>
+      <c r="G49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+      <c r="B50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+      <c r="B51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="2">
-        <v>270</v>
-      </c>
-      <c r="N48" s="2">
-        <v>310</v>
-      </c>
-      <c r="O48" s="5">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="30" customHeight="1" spans="6:10">
-      <c r="F49" s="16"/>
-      <c r="G49" s="3"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" ht="50" customHeight="1" spans="7:15">
-      <c r="G50" s="15" t="s">
+      <c r="F51" s="15"/>
+      <c r="G51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="23">
+        <v>2730.55</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="30" customHeight="1" spans="6:10">
+      <c r="F52" s="15"/>
+      <c r="G52" s="11"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" ht="50" customHeight="1" spans="7:16">
+      <c r="G53" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H53" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="J50" s="15" t="s">
+      <c r="J53" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="O50" s="5">
+      <c r="O53" s="13">
         <v>8601.63</v>
       </c>
-    </row>
-    <row r="51" ht="25" customHeight="1"/>
-    <row r="52" ht="25" customHeight="1" spans="2:3">
-      <c r="B52" s="1">
+      <c r="P53" s="23">
+        <v>5213.49</v>
+      </c>
+    </row>
+    <row r="54" ht="25" customHeight="1"/>
+    <row r="55" ht="25" customHeight="1" spans="2:3">
+      <c r="B55" s="1">
         <v>4.21</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C55" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="53" ht="25" customHeight="1"/>
-    <row r="54" ht="25" customHeight="1"/>
-    <row r="55" ht="25" customHeight="1"/>
     <row r="56" ht="25" customHeight="1"/>
     <row r="57" ht="25" customHeight="1"/>
     <row r="58" ht="25" customHeight="1"/>
@@ -3366,6 +3601,9 @@
     <row r="67" ht="25" customHeight="1"/>
     <row r="68" ht="25" customHeight="1"/>
     <row r="69" ht="25" customHeight="1"/>
+    <row r="70" ht="25" customHeight="1"/>
+    <row r="71" ht="25" customHeight="1"/>
+    <row r="72" ht="25" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
     <mergeCell ref="B1:I1"/>
@@ -3422,277 +3660,17 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="2">
-        <v>13000</v>
-      </c>
-      <c r="C2" s="2">
-        <v>13202.8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="1">
-        <v>6000</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="1">
-        <v>5000</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="2">
-        <v>2500</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2529</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="1">
-        <v>40000</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="2">
-        <v>18000</v>
-      </c>
-      <c r="C9" s="2">
-        <v>18208.8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="1">
-        <f>SUM(B2:B9)</f>
-        <v>114500</v>
-      </c>
-      <c r="C10" s="5">
-        <f>SUM(C2:C9)</f>
-        <v>33940.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11000</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="1">
-        <v>20000</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="1">
-        <v>3000</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="1">
-        <v>2000</v>
-      </c>
-      <c r="C15" s="2">
-        <v>2019.6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C16" s="2">
-        <v>18519.55</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1">
-        <v>12000</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4012.6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C18" s="2">
-        <v>834.83</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" s="1">
-        <f>SUM(B12:B18)</f>
-        <v>73000</v>
-      </c>
-      <c r="C19" s="5">
-        <f>SUM(C15:C18)</f>
-        <v>25386.58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1">
-        <v>12603.78</v>
-      </c>
-      <c r="C21" s="2">
-        <v>12603.78</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" ht="22" customHeight="1" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="1">
-        <f>SUM(B21)</f>
-        <v>12603.78</v>
-      </c>
-      <c r="C22" s="5">
-        <f>SUM(C21)</f>
-        <v>12603.78</v>
-      </c>
-    </row>
-    <row r="23" ht="22" customHeight="1"/>
-    <row r="24" ht="22" customHeight="1" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="1">
-        <v>8662.63</v>
-      </c>
-      <c r="C24" s="1">
-        <v>8662.63</v>
-      </c>
-    </row>
-    <row r="25" ht="22" customHeight="1" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" s="1">
-        <v>10206.13</v>
-      </c>
-      <c r="C25" s="1">
-        <v>10206.13</v>
-      </c>
-    </row>
-    <row r="26" ht="22" customHeight="1" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="1">
-        <v>6841.6</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6841.6</v>
-      </c>
-    </row>
-    <row r="27" ht="42" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A12:A18"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -4,25 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="招商信用卡(掌上生活)" sheetId="1" r:id="rId1"/>
     <sheet name="周高攀" sheetId="4" r:id="rId2"/>
     <sheet name="工伤账单" sheetId="5" r:id="rId3"/>
     <sheet name="私人债务" sheetId="6" r:id="rId4"/>
-    <sheet name="支付宝借款记录" sheetId="7" r:id="rId5"/>
-    <sheet name="京东金条" sheetId="9" state="hidden" r:id="rId6"/>
-    <sheet name="王星" sheetId="10" state="hidden" r:id="rId7"/>
-    <sheet name="方召军账单" sheetId="3" r:id="rId8"/>
-    <sheet name="建行快贷" sheetId="11" r:id="rId9"/>
+    <sheet name="京东金条" sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="王星" sheetId="10" state="hidden" r:id="rId6"/>
+    <sheet name="方召军账单" sheetId="3" r:id="rId7"/>
+    <sheet name="建行快贷" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="121">
   <si>
     <t xml:space="preserve"> 账单日</t>
   </si>
@@ -84,18 +83,27 @@
     <t>还信用卡</t>
   </si>
   <si>
+    <t>2020.11.11</t>
+  </si>
+  <si>
+    <t>工伤赔款</t>
+  </si>
+  <si>
+    <t>2020.05.10</t>
+  </si>
+  <si>
+    <t>建设银行快贷，工程付款</t>
+  </si>
+  <si>
+    <t>2020.06.27</t>
+  </si>
+  <si>
+    <t>借款金额</t>
+  </si>
+  <si>
     <t>来源</t>
   </si>
   <si>
-    <t>还款方式(等额)</t>
-  </si>
-  <si>
-    <t>2020.04.04--2021.01.04</t>
-  </si>
-  <si>
-    <t>借款金额</t>
-  </si>
-  <si>
     <t>付款方式</t>
   </si>
   <si>
@@ -165,85 +173,79 @@
     <t>还款人</t>
   </si>
   <si>
+    <t>剩余金额(2019.12.20至)</t>
+  </si>
+  <si>
+    <t>2019.08.05</t>
+  </si>
+  <si>
+    <t>周高雄</t>
+  </si>
+  <si>
+    <t>2019.11.06</t>
+  </si>
+  <si>
+    <t>2019.12.01</t>
+  </si>
+  <si>
+    <t>方召军</t>
+  </si>
+  <si>
+    <t>借支</t>
+  </si>
+  <si>
+    <t>来源方</t>
+  </si>
+  <si>
+    <t>期限</t>
+  </si>
+  <si>
+    <t>还款方法(3个月先息后本)</t>
+  </si>
+  <si>
+    <t>支付宝</t>
+  </si>
+  <si>
+    <t>2020/03/22 --- 2020/06/06</t>
+  </si>
+  <si>
+    <t>欠方总</t>
+  </si>
+  <si>
+    <t>6123+(11000-10663.41详见表格14G)+(20000-17238.10详见账单5)-1869.63(2019.12.05号我提前还的京东)=7351.86-357.24=6994.62+1500=8494.62+1522.93=10017.55+2408.8+3000=15426.35</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>填充为已还账目</t>
+  </si>
+  <si>
+    <t>还款方法(3个月等额)</t>
+  </si>
+  <si>
+    <t>2019.10.21</t>
+  </si>
+  <si>
+    <t>2019.10.21 --- 2020.01.06</t>
+  </si>
+  <si>
+    <t>3331.2+64</t>
+  </si>
+  <si>
+    <t>3395.20+80.02</t>
+  </si>
+  <si>
+    <t>2019.09.09</t>
+  </si>
+  <si>
+    <t>2019.09.09 --- 2019.12.06</t>
+  </si>
+  <si>
+    <t>2019.10.06</t>
+  </si>
+  <si>
     <t>2019.10.07</t>
-  </si>
-  <si>
-    <t>方召军</t>
-  </si>
-  <si>
-    <t>2019.10.21</t>
-  </si>
-  <si>
-    <t>周高攀+胡正东</t>
-  </si>
-  <si>
-    <t>2019.12.08</t>
-  </si>
-  <si>
-    <t>剩余金额(2019.12.20至)</t>
-  </si>
-  <si>
-    <t>2019.08.05</t>
-  </si>
-  <si>
-    <t>周高雄</t>
-  </si>
-  <si>
-    <t>2019.11.06</t>
-  </si>
-  <si>
-    <t>2019.12.01</t>
-  </si>
-  <si>
-    <t>借支</t>
-  </si>
-  <si>
-    <t>来源方</t>
-  </si>
-  <si>
-    <t>期限</t>
-  </si>
-  <si>
-    <t>还款方法(3个月先息后本)</t>
-  </si>
-  <si>
-    <t>支付宝</t>
-  </si>
-  <si>
-    <t>2020/03/22 --- 2020/06/06</t>
-  </si>
-  <si>
-    <t>欠方总</t>
-  </si>
-  <si>
-    <t>6123+(11000-10663.41详见表格14G)+(20000-17238.10详见账单5)-1869.63(2019.12.05号我提前还的京东)=7351.86-357.24=6994.62+1500=8494.62+1522.93=10017.55+2408.8+3000=15426.35</t>
-  </si>
-  <si>
-    <t>项目</t>
-  </si>
-  <si>
-    <t>填充为已还账目</t>
-  </si>
-  <si>
-    <t>还款方法(3个月等额)</t>
-  </si>
-  <si>
-    <t>2019.10.21 --- 2020.01.06</t>
-  </si>
-  <si>
-    <t>3331.2+64</t>
-  </si>
-  <si>
-    <t>3395.20+80.02</t>
-  </si>
-  <si>
-    <t>2019.09.09</t>
-  </si>
-  <si>
-    <t>2019.09.09 --- 2019.12.06</t>
-  </si>
-  <si>
-    <t>2019.10.06</t>
   </si>
   <si>
     <t>2019.10.07 --- 2020.01.06</t>
@@ -320,6 +322,9 @@
     <t>还款方法(6个月先息后本)</t>
   </si>
   <si>
+    <t>2019.12.08</t>
+  </si>
+  <si>
     <t>2019.12.08 --- 2020.06.06</t>
   </si>
   <si>
@@ -370,6 +375,12 @@
   </si>
   <si>
     <t>2020.10.06-2020.12.06</t>
+  </si>
+  <si>
+    <t>2020.10.09</t>
+  </si>
+  <si>
+    <t>2020.11.06~2021.01.06</t>
   </si>
   <si>
     <t>2020.02.06;
@@ -391,9 +402,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -405,73 +416,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -487,24 +437,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,7 +482,62 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,6 +548,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -587,7 +598,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,25 +676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,13 +694,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,103 +736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,6 +755,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,32 +873,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -902,11 +887,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,17 +920,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,6 +954,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -966,145 +977,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,12 +1189,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1199,11 +1210,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1582,10 +1593,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1770,7 +1781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:17">
+    <row r="19" s="30" customFormat="1" customHeight="1" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1778,73 +1789,120 @@
         <v>10000</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+    </row>
+    <row r="20" s="30" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B20" s="1">
+        <v>18000</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="30">
-        <v>43925</v>
-      </c>
-      <c r="F19" s="30">
-        <v>43955</v>
-      </c>
-      <c r="G19" s="30">
-        <v>43986</v>
-      </c>
-      <c r="H19" s="30">
-        <v>44016</v>
-      </c>
-      <c r="I19" s="30">
-        <v>44047</v>
-      </c>
-      <c r="J19" s="30">
-        <v>44078</v>
-      </c>
-      <c r="K19" s="30">
-        <v>44108</v>
-      </c>
-      <c r="L19" s="30">
-        <v>44139</v>
-      </c>
-      <c r="M19" s="30">
-        <v>44169</v>
-      </c>
-      <c r="N19" s="30">
-        <v>44200</v>
-      </c>
-      <c r="O19" s="30">
-        <v>44231</v>
-      </c>
-      <c r="P19" s="30">
-        <v>44259</v>
-      </c>
-      <c r="Q19" s="30">
-        <v>44290</v>
-      </c>
-    </row>
-    <row r="20" ht="39" customHeight="1" spans="3:5">
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="31" t="s">
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+    </row>
+    <row r="21" s="30" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E20">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="2:2">
-      <c r="B21" s="32">
-        <f>SUM(B2:B20)</f>
-        <v>216000</v>
+      <c r="B21" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+    </row>
+    <row r="22" s="30" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+    </row>
+    <row r="23" s="30" customFormat="1" customHeight="1" spans="1:17">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:2">
+      <c r="B24" s="32">
+        <f>SUM(B2:B22)</f>
+        <v>274000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1856,7 +1914,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="23" customHeight="1" outlineLevelRow="6"/>
@@ -1869,48 +1927,48 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <v>18000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="5:10">
@@ -1938,41 +1996,41 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>5000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="5:7">
@@ -2022,7 +2080,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -2033,40 +2091,40 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>2000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1">
         <v>8000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1">
         <v>10000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1">
         <v>8000</v>
@@ -2074,7 +2132,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1">
         <v>10000</v>
@@ -2082,13 +2140,13 @@
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1">
         <v>2000</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:2">
@@ -2104,92 +2162,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="25" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="16384" width="15.625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="1">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1">
-        <v>20000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D5"/>
@@ -2210,21 +2182,21 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1">
         <v>10000</v>
@@ -2235,7 +2207,7 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1">
         <v>20000</v>
@@ -2246,7 +2218,7 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1">
         <v>5000</v>
@@ -2257,10 +2229,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1">
         <v>11000</v>
@@ -2275,7 +2247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q3"/>
@@ -2302,16 +2274,16 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="2:9">
@@ -2322,10 +2294,10 @@
         <v>10000</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="F2" s="26">
         <v>43927</v>
@@ -2364,15 +2336,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q72"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B31" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B37" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="S53" sqref="S53"/>
+      <selection pane="topRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2399,22 +2371,22 @@
   <sheetData>
     <row r="1" ht="52" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1"/>
     <row r="3" ht="40" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2431,16 +2403,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2448,25 +2420,25 @@
     </row>
     <row r="5" ht="35" customHeight="1" spans="2:9">
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5">
         <v>10000</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I5" s="19"/>
     </row>
@@ -2504,16 +2476,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2527,7 +2499,7 @@
         <v>30000</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>72</v>
@@ -2536,10 +2508,10 @@
         <v>73</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I9" s="19"/>
     </row>
@@ -2577,16 +2549,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2594,25 +2566,25 @@
     </row>
     <row r="13" ht="24" customHeight="1" spans="2:9">
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5">
         <v>20000</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I13" s="19"/>
     </row>
@@ -2625,7 +2597,7 @@
         <v>6824</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="5">
         <v>6828.19</v>
@@ -2650,16 +2622,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="F16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2667,25 +2639,25 @@
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:9">
       <c r="B17" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="5">
         <v>20000</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>73</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I17" s="19"/>
     </row>
@@ -2695,13 +2667,13 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I18" s="21"/>
     </row>
@@ -2722,77 +2694,77 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" ht="35" customHeight="1" spans="2:17">
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1">
         <v>20000</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="P21" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="P21" s="13" t="s">
         <v>90</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="22" ht="51" customHeight="1" spans="6:17">
       <c r="F22" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" s="13">
         <v>1667.67</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I22" s="13">
         <v>1819.21</v>
@@ -2815,11 +2787,11 @@
       <c r="O22" s="13">
         <v>1721.23</v>
       </c>
-      <c r="P22" s="23">
+      <c r="P22" s="13">
         <v>1702.94</v>
       </c>
-      <c r="Q22" s="1">
-        <v>1667.67</v>
+      <c r="Q22" s="24">
+        <v>1683.19</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="38" customHeight="1" spans="2:8">
@@ -2839,16 +2811,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2860,35 +2832,35 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="2:13">
       <c r="B25" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5">
         <v>11000</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M25" s="19"/>
     </row>
@@ -2901,7 +2873,7 @@
         <v>1883.4</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H26" s="5">
         <v>1907.86</v>
@@ -2940,16 +2912,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="F28" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2961,35 +2933,35 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="2:13">
       <c r="B29" s="4" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C29" s="5">
         <v>20000</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M29" s="19"/>
     </row>
@@ -2999,7 +2971,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G30" s="9">
         <v>248</v>
@@ -3023,7 +2995,7 @@
       <c r="F31" s="15"/>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:16">
+    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:17">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -3031,43 +3003,46 @@
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="P32" s="23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+      <c r="P32" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q32" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -3075,10 +3050,10 @@
         <v>40000</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G33" s="16">
         <v>464</v>
@@ -3104,15 +3079,18 @@
       <c r="O33" s="13">
         <v>496</v>
       </c>
-      <c r="P33" s="23">
+      <c r="P33" s="13">
         <v>480</v>
+      </c>
+      <c r="Q33" s="24">
+        <v>496</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
       <c r="F34" s="15"/>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="30" customHeight="1" spans="1:16">
+    <row r="35" s="1" customFormat="1" ht="31" customHeight="1" spans="1:16">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -3120,25 +3098,25 @@
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -3146,18 +3124,18 @@
       <c r="O35" s="3"/>
       <c r="P35" s="18"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+    <row r="36" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
       <c r="B36" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C36" s="5">
         <v>5000</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="5"/>
@@ -3177,7 +3155,7 @@
       <c r="O36" s="5"/>
       <c r="P36" s="19"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+    <row r="37" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -3194,55 +3172,55 @@
       <c r="O37" s="5"/>
       <c r="P37" s="19"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+    <row r="38" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
       <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="E38" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P38" s="19"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+    <row r="39" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
       <c r="B39" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C39" s="5">
         <v>6000</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="5"/>
@@ -3268,7 +3246,7 @@
       </c>
       <c r="P39" s="19"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+    <row r="40" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -3285,18 +3263,18 @@
       <c r="O40" s="5"/>
       <c r="P40" s="19"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+    <row r="41" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
       <c r="B41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="E41" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="5"/>
@@ -3304,30 +3282,30 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="19"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+    <row r="42" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
       <c r="B42" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C42" s="5">
         <v>3000</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="5"/>
@@ -3347,7 +3325,7 @@
       <c r="O42" s="5"/>
       <c r="P42" s="19"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+    <row r="43" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -3364,18 +3342,18 @@
       <c r="O43" s="5"/>
       <c r="P43" s="19"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+    <row r="44" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
       <c r="B44" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="E44" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="5"/>
@@ -3384,29 +3362,29 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O44" s="5"/>
       <c r="P44" s="19"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+    <row r="45" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
       <c r="B45" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C45" s="9">
         <v>10000</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="9"/>
@@ -3433,18 +3411,18 @@
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+    <row r="47" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="11"/>
@@ -3452,30 +3430,33 @@
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O47" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="P47" s="23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+      <c r="P47" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q47" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
       <c r="B48" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C48" s="1">
         <v>25000</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="11"/>
@@ -3491,8 +3472,11 @@
       <c r="O48" s="13">
         <v>310</v>
       </c>
-      <c r="P48" s="23">
+      <c r="P48" s="13">
         <v>300</v>
+      </c>
+      <c r="Q48" s="24">
+        <v>310</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="30" customHeight="1" spans="6:16">
@@ -3501,95 +3485,165 @@
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
       <c r="L49" s="11"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
       <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="30" customHeight="1" spans="2:16">
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q50" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
       <c r="B51" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C51" s="1">
         <v>8000</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="23">
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="13">
         <v>2730.55</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="30" customHeight="1" spans="6:10">
+      <c r="Q51" s="24">
+        <v>2730.55</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="30" customHeight="1" spans="6:17">
       <c r="F52" s="15"/>
       <c r="G52" s="11"/>
       <c r="J52" s="11"/>
-    </row>
-    <row r="53" ht="50" customHeight="1" spans="7:16">
-      <c r="G53" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="J53" s="16" t="s">
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
+      <c r="B53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
+      <c r="B54" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O53" s="13">
+      <c r="C54" s="1">
+        <v>35100</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="24">
+        <v>1193.98</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="30" customHeight="1" spans="6:10">
+      <c r="F55" s="15"/>
+      <c r="G55" s="11"/>
+      <c r="J55" s="11"/>
+    </row>
+    <row r="56" ht="50" customHeight="1" spans="7:17">
+      <c r="G56" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="O56" s="13">
         <v>8601.63</v>
       </c>
-      <c r="P53" s="23">
+      <c r="P56" s="13">
         <v>5213.49</v>
       </c>
-    </row>
-    <row r="54" ht="25" customHeight="1"/>
-    <row r="55" ht="25" customHeight="1" spans="2:3">
-      <c r="B55" s="1">
+      <c r="Q56" s="24">
+        <v>6413.72</v>
+      </c>
+    </row>
+    <row r="57" ht="25" customHeight="1"/>
+    <row r="58" ht="25" customHeight="1" spans="2:3">
+      <c r="B58" s="1">
         <v>4.21</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C58" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="56" ht="25" customHeight="1"/>
-    <row r="57" ht="25" customHeight="1"/>
-    <row r="58" ht="25" customHeight="1"/>
     <row r="59" ht="25" customHeight="1"/>
     <row r="60" ht="25" customHeight="1"/>
     <row r="61" ht="25" customHeight="1"/>
@@ -3604,6 +3658,9 @@
     <row r="70" ht="25" customHeight="1"/>
     <row r="71" ht="25" customHeight="1"/>
     <row r="72" ht="25" customHeight="1"/>
+    <row r="73" ht="25" customHeight="1"/>
+    <row r="74" ht="25" customHeight="1"/>
+    <row r="75" ht="25" customHeight="1"/>
   </sheetData>
   <mergeCells count="45">
     <mergeCell ref="B1:I1"/>
@@ -3657,13 +3714,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="招商信用卡(掌上生活)" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,13 @@
     <sheet name="京东金条" sheetId="9" state="hidden" r:id="rId5"/>
     <sheet name="王星" sheetId="10" state="hidden" r:id="rId6"/>
     <sheet name="方召军账单" sheetId="3" r:id="rId7"/>
-    <sheet name="建行快贷" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="124">
   <si>
     <t xml:space="preserve"> 账单日</t>
   </si>
@@ -59,6 +58,9 @@
     <t>嫂子看病</t>
   </si>
   <si>
+    <t>2019年大明宫开店</t>
+  </si>
+  <si>
     <t>7.8晚上</t>
   </si>
   <si>
@@ -86,10 +88,17 @@
     <t>2020.11.11</t>
   </si>
   <si>
+    <t>2019年大明宫开店
+工伤</t>
+  </si>
+  <si>
     <t>工伤赔款</t>
   </si>
   <si>
     <t>2020.05.10</t>
+  </si>
+  <si>
+    <t>2020年和周青军包活</t>
   </si>
   <si>
     <t>建设银行快贷，工程付款</t>
@@ -400,11 +409,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -416,14 +425,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,14 +440,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,6 +467,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -482,17 +500,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,9 +522,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,8 +552,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,14 +565,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -598,13 +607,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,13 +745,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,156 +787,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -872,17 +881,144 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top style="thick">
+        <color theme="5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="5"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,9 +1040,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,6 +1054,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,11 +1084,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,21 +1120,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -977,10 +1128,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -989,137 +1140,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,32 +1340,74 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1593,316 +1786,355 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="10" width="9.375"/>
-    <col min="11" max="17" width="10.375"/>
+    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="11" width="9.375"/>
+    <col min="12" max="18" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1">
         <v>2016</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>10000</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>4000</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="1">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="29">
         <v>2019.06</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="30">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="1">
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="32">
         <v>7.8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33">
         <v>50000</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="32">
+        <v>7.9</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33">
+        <v>35000</v>
+      </c>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="32">
+        <v>7.27</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33">
+        <v>5000</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="32">
+        <v>7.28</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="32">
+        <v>7.31</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="32">
+        <v>8.5</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="32">
+        <v>8.14</v>
+      </c>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="34"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="32">
+        <v>9.8</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33">
+        <v>14000</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="32">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33">
+        <v>4000</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33">
+        <v>4000</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" s="28" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A19" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36">
         <v>10000</v>
       </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="1">
-        <v>7.27</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:3">
-      <c r="B10" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="2:3">
-      <c r="B11" s="1">
-        <v>5000</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="1">
-        <v>7.28</v>
-      </c>
-      <c r="B12" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="1">
-        <v>7.31</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="1">
-        <v>8.14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="1">
-        <v>9.8</v>
-      </c>
-      <c r="B16" s="1">
-        <v>14000</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D19" s="37" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="1">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" s="30" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-    </row>
-    <row r="20" s="30" customFormat="1" customHeight="1" spans="1:17">
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+    </row>
+    <row r="20" s="28" customFormat="1" ht="38" customHeight="1" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="1">
+        <v>21</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1">
         <v>18000</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-    </row>
-    <row r="21" s="30" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+    </row>
+    <row r="21" s="28" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A21" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="41">
         <v>20000</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-    </row>
-    <row r="22" s="30" customFormat="1" customHeight="1" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="D21" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+    </row>
+    <row r="22" s="28" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A22" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44">
         <v>20000</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-    </row>
-    <row r="23" s="30" customFormat="1" customHeight="1" spans="1:17">
+      <c r="D22" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+    </row>
+    <row r="23" s="28" customFormat="1" customHeight="1" spans="1:18">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-    </row>
-    <row r="24" customHeight="1" spans="2:2">
-      <c r="B24" s="32">
-        <f>SUM(B2:B22)</f>
+      <c r="D23" s="1"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+    </row>
+    <row r="24" customHeight="1" spans="3:3">
+      <c r="C24" s="46">
+        <f>SUM(C2:C22)</f>
         <v>274000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B19"/>
+    <mergeCell ref="B21:B22"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1927,48 +2159,48 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>18000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="5:10">
@@ -1996,41 +2228,41 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+        <v>31</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
         <v>5000</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="5:7">
@@ -2068,7 +2300,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="28" customHeight="1" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -2080,7 +2312,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -2091,40 +2323,40 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
         <v>2000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1">
         <v>8000</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1">
         <v>10000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1">
         <v>8000</v>
@@ -2132,7 +2364,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1">
         <v>10000</v>
@@ -2140,13 +2372,13 @@
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1">
         <v>2000</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:2">
@@ -2182,21 +2414,21 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1">
         <v>10000</v>
@@ -2207,7 +2439,7 @@
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1">
         <v>20000</v>
@@ -2218,7 +2450,7 @@
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1">
         <v>5000</v>
@@ -2229,10 +2461,10 @@
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1">
         <v>11000</v>
@@ -2274,38 +2506,38 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="2:9">
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>43912</v>
       </c>
       <c r="C2" s="1">
         <v>10000</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="26">
+        <v>64</v>
+      </c>
+      <c r="F2" s="25">
         <v>43927</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <v>43957</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="26">
         <v>43988</v>
       </c>
       <c r="I2" s="11"/>
@@ -2317,7 +2549,7 @@
       <c r="G3" s="13">
         <v>96</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="27">
         <v>10099.2</v>
       </c>
       <c r="I3" s="11"/>
@@ -2341,10 +2573,10 @@
   <sheetPr/>
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B37" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B43" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G62" sqref="G62"/>
+      <selection pane="topRight" activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2371,22 +2603,22 @@
   <sheetData>
     <row r="1" ht="52" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1"/>
     <row r="3" ht="40" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2403,16 +2635,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2420,25 +2652,25 @@
     </row>
     <row r="5" ht="35" customHeight="1" spans="2:9">
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" s="5">
         <v>10000</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I5" s="19"/>
     </row>
@@ -2448,10 +2680,10 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H6" s="6">
         <v>3395.2</v>
@@ -2476,16 +2708,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2493,25 +2725,25 @@
     </row>
     <row r="9" ht="37" customHeight="1" spans="2:9">
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" s="5">
         <v>30000</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I9" s="19"/>
     </row>
@@ -2549,16 +2781,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2566,25 +2798,25 @@
     </row>
     <row r="13" ht="24" customHeight="1" spans="2:9">
       <c r="B13" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C13" s="5">
         <v>20000</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" s="19"/>
     </row>
@@ -2597,7 +2829,7 @@
         <v>6824</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H14" s="5">
         <v>6828.19</v>
@@ -2622,16 +2854,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2639,25 +2871,25 @@
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:9">
       <c r="B17" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C17" s="5">
         <v>20000</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I17" s="19"/>
     </row>
@@ -2667,13 +2899,13 @@
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I18" s="21"/>
     </row>
@@ -2694,77 +2926,77 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" ht="35" customHeight="1" spans="2:17">
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1">
         <v>20000</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q21" s="24" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" ht="51" customHeight="1" spans="6:17">
       <c r="F22" s="14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G22" s="13">
         <v>1667.67</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I22" s="13">
         <v>1819.21</v>
@@ -2790,7 +3022,7 @@
       <c r="P22" s="13">
         <v>1702.94</v>
       </c>
-      <c r="Q22" s="24">
+      <c r="Q22" s="23">
         <v>1683.19</v>
       </c>
     </row>
@@ -2811,16 +3043,16 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -2832,35 +3064,35 @@
     </row>
     <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="2:13">
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C25" s="5">
         <v>11000</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M25" s="19"/>
     </row>
@@ -2873,7 +3105,7 @@
         <v>1883.4</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H26" s="5">
         <v>1907.86</v>
@@ -2912,16 +3144,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -2933,35 +3165,35 @@
     </row>
     <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="2:13">
       <c r="B29" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C29" s="5">
         <v>20000</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M29" s="19"/>
     </row>
@@ -2971,7 +3203,7 @@
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G30" s="9">
         <v>248</v>
@@ -3003,43 +3235,43 @@
         <v>7</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K32" s="22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L32" s="22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q32" s="24" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
@@ -3050,10 +3282,10 @@
         <v>40000</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G33" s="16">
         <v>464</v>
@@ -3082,7 +3314,7 @@
       <c r="P33" s="13">
         <v>480</v>
       </c>
-      <c r="Q33" s="24">
+      <c r="Q33" s="23">
         <v>496</v>
       </c>
     </row>
@@ -3098,25 +3330,25 @@
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -3126,16 +3358,16 @@
     </row>
     <row r="36" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
       <c r="B36" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C36" s="5">
         <v>5000</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="5"/>
@@ -3177,50 +3409,50 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P38" s="19"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
       <c r="B39" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C39" s="5">
         <v>6000</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="5"/>
@@ -3268,13 +3500,13 @@
         <v>7</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="5"/>
@@ -3282,13 +3514,13 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
@@ -3296,16 +3528,16 @@
     </row>
     <row r="42" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
       <c r="B42" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C42" s="5">
         <v>3000</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="5"/>
@@ -3347,13 +3579,13 @@
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="5"/>
@@ -3362,29 +3594,29 @@
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O44" s="5"/>
       <c r="P44" s="19"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
       <c r="B45" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C45" s="9">
         <v>10000</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="9"/>
@@ -3416,13 +3648,13 @@
         <v>7</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="11"/>
@@ -3430,33 +3662,33 @@
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O47" s="13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P47" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q47" s="24" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="Q47" s="23" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
       <c r="B48" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C48" s="1">
         <v>25000</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="11"/>
@@ -3475,7 +3707,7 @@
       <c r="P48" s="13">
         <v>300</v>
       </c>
-      <c r="Q48" s="24">
+      <c r="Q48" s="23">
         <v>310</v>
       </c>
     </row>
@@ -3495,13 +3727,13 @@
         <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F50" s="15"/>
       <c r="G50" s="11"/>
@@ -3512,24 +3744,24 @@
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q50" s="24" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="Q50" s="23" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
       <c r="B51" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C51" s="1">
         <v>8000</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F51" s="15"/>
       <c r="G51" s="11"/>
@@ -3542,7 +3774,7 @@
       <c r="P51" s="13">
         <v>2730.55</v>
       </c>
-      <c r="Q51" s="24">
+      <c r="Q51" s="23">
         <v>2730.55</v>
       </c>
     </row>
@@ -3555,21 +3787,21 @@
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F53" s="15"/>
       <c r="G53" s="11"/>
@@ -3579,23 +3811,23 @@
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="24" t="s">
-        <v>91</v>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="23" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
       <c r="B54" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C54" s="1">
         <v>35100</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="11"/>
@@ -3605,8 +3837,8 @@
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="24">
+      <c r="P54" s="11"/>
+      <c r="Q54" s="23">
         <v>1193.98</v>
       </c>
     </row>
@@ -3617,13 +3849,13 @@
     </row>
     <row r="56" ht="50" customHeight="1" spans="7:17">
       <c r="G56" s="16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O56" s="13">
         <v>8601.63</v>
@@ -3631,7 +3863,7 @@
       <c r="P56" s="13">
         <v>5213.49</v>
       </c>
-      <c r="Q56" s="24">
+      <c r="Q56" s="23">
         <v>6413.72</v>
       </c>
     </row>
@@ -3712,23 +3944,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="125">
   <si>
     <t xml:space="preserve"> 账单日</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>期限（先息后本）</t>
+  </si>
+  <si>
+    <t>2020.12.06</t>
   </si>
   <si>
     <t>2020.01.08---2021.01.06</t>
@@ -411,8 +414,8 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
@@ -425,14 +428,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,8 +465,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,10 +494,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -499,14 +542,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -535,40 +570,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,13 +580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="3" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,13 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,31 +622,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +676,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,13 +712,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,31 +760,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,67 +778,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,6 +1020,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1038,13 +1050,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,17 +1074,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,36 +1117,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1128,10 +1125,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1140,208 +1137,205 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1368,9 +1362,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1838,199 +1829,199 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="29">
+      <c r="A4" s="28">
         <v>2019.06</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="29">
         <v>10000</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>7.8</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12">
         <v>50000</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12">
         <v>10000</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>7.9</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12">
         <v>35000</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12">
         <v>10000</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>7.27</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12">
         <v>10000</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33">
+      <c r="A10" s="31"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12">
         <v>10000</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="32" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33">
+      <c r="A11" s="31"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12">
         <v>5000</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>7.28</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12">
         <v>5000</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>7.31</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12">
         <v>10000</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>8.5</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12">
         <v>10000</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>8.14</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12">
         <v>5000</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="32">
+      <c r="A16" s="31">
         <v>9.8</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12">
         <v>14000</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="32" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>12</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12">
         <v>4000</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="32" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12">
         <v>4000</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" s="28" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A19" s="35" t="s">
+    <row r="19" s="27" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A19" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34">
         <v>10000</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-    </row>
-    <row r="20" s="28" customFormat="1" ht="38" customHeight="1" spans="1:18">
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+    </row>
+    <row r="20" s="27" customFormat="1" ht="38" customHeight="1" spans="1:18">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="37" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1">
@@ -2039,93 +2030,93 @@
       <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-    </row>
-    <row r="21" s="28" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A21" s="40" t="s">
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+    </row>
+    <row r="21" s="27" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A21" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="39">
         <v>20000</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-    </row>
-    <row r="22" s="28" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A22" s="43" t="s">
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+    </row>
+    <row r="22" s="27" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A22" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42">
         <v>20000</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-    </row>
-    <row r="23" s="28" customFormat="1" customHeight="1" spans="1:18">
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+    </row>
+    <row r="23" s="27" customFormat="1" customHeight="1" spans="1:18">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
     </row>
     <row r="24" customHeight="1" spans="3:3">
-      <c r="C24" s="46">
+      <c r="C24" s="44">
         <f>SUM(C2:C22)</f>
         <v>274000</v>
       </c>
@@ -2184,10 +2175,10 @@
       <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2204,10 +2195,10 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="5:10">
-      <c r="E3" s="13">
+      <c r="E3" s="15">
         <v>180</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="15">
         <v>223.2</v>
       </c>
       <c r="G3" s="1">
@@ -2239,8 +2230,8 @@
       <c r="E5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
@@ -2255,10 +2246,10 @@
       <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -2266,10 +2257,10 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="5:7">
-      <c r="E7" s="13">
+      <c r="E7" s="15">
         <v>50</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="15">
         <v>62</v>
       </c>
       <c r="G7" s="1">
@@ -2519,7 +2510,7 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="2:9">
-      <c r="B2" s="24">
+      <c r="B2" s="23">
         <v>43912</v>
       </c>
       <c r="C2" s="1">
@@ -2531,28 +2522,28 @@
       <c r="E2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <v>43927</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>43957</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="25">
         <v>43988</v>
       </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="6:9">
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <v>48</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="15">
         <v>96</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H3" s="26">
         <v>10099.2</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2571,12 +2562,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B43" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H65" sqref="H65"/>
+      <selection pane="topRight" activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2598,7 +2589,8 @@
     <col min="15" max="15" width="11.75" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" style="1" customWidth="1"/>
     <col min="17" max="17" width="11.25" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="18" max="18" width="9.375" style="2"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="52" customHeight="1" spans="1:2">
@@ -2614,620 +2606,651 @@
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="18"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:9">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="19"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" ht="35" customHeight="1" spans="2:9">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>10000</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" ht="31" customHeight="1" spans="2:9">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>3395.2</v>
       </c>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" customFormat="1" ht="31" customHeight="1" spans="2:9">
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" customFormat="1" ht="31" customHeight="1" spans="2:18">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="19"/>
+      <c r="R7" s="22"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:18">
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="19"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="18"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" ht="37" customHeight="1" spans="2:9">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>30000</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" ht="24" customHeight="1" spans="2:9">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
         <v>324</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <v>372</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>30360</v>
       </c>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" customFormat="1" ht="28" customHeight="1" spans="2:9">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" customFormat="1" ht="28" customHeight="1" spans="2:18">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="19"/>
+      <c r="R11" s="22"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:18">
       <c r="A12" s="1">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="19"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="18"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" ht="24" customHeight="1" spans="2:9">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>20000</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="19"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" ht="72" customHeight="1" spans="2:9">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
         <v>6824</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>6828.19</v>
       </c>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" customFormat="1" ht="45" customHeight="1" spans="2:9">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:9">
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" customFormat="1" ht="45" customHeight="1" spans="2:18">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="19"/>
+      <c r="R15" s="22"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:18">
       <c r="A16" s="1">
         <v>4</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="19"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="18"/>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:9">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>20000</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="19"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" ht="99" customHeight="1" spans="2:9">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="I18" s="21"/>
-    </row>
-    <row r="19" customFormat="1" ht="24" customHeight="1" spans="2:8">
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" customFormat="1" ht="24" customHeight="1" spans="2:18">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="R19" s="22"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:18">
       <c r="A20" s="1">
         <v>5</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="6" t="s">
         <v>86</v>
       </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="2"/>
     </row>
     <row r="21" ht="35" customHeight="1" spans="2:17">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="6">
         <v>20000</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N21" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O21" s="13" t="s">
+      <c r="O21" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="P21" s="13" t="s">
+      <c r="P21" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="Q21" s="23" t="s">
+      <c r="Q21" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" ht="51" customHeight="1" spans="6:17">
-      <c r="F22" s="14" t="s">
+    <row r="22" ht="51" customHeight="1" spans="2:17">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="6">
         <v>1667.67</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="6">
         <v>1819.21</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="6">
         <v>1816.11</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="6">
         <v>1785.28</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="6">
         <v>1667.67</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="6">
         <v>1754.27</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="6">
         <v>1736.87</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="6">
         <v>1721.23</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="6">
         <v>1702.94</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="Q22" s="6">
         <v>1683.19</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="38" customHeight="1" spans="2:8">
+    <row r="23" customFormat="1" ht="38" customHeight="1" spans="2:18">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="R23" s="22"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:18">
       <c r="A24" s="1">
         <v>6</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="18"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="2:13">
-      <c r="B25" s="4" t="s">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="17"/>
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="2:18">
+      <c r="B25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="6">
         <v>11000</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5" t="s">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M25" s="19"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="31" customHeight="1" spans="2:13">
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5">
+      <c r="M25" s="18"/>
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6">
         <v>1883.4</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="6">
         <v>1907.86</v>
       </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6">
         <v>1895.09</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="6">
         <v>1870.74</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="6">
         <v>1883.4</v>
       </c>
-      <c r="M26" s="19"/>
+      <c r="M26" s="18"/>
+      <c r="R26" s="2"/>
     </row>
     <row r="27" ht="36" customHeight="1" spans="2:13">
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="19"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="33" customHeight="1" spans="1:13">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="33" customHeight="1" spans="1:18">
       <c r="A28" s="1">
         <v>7</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="19"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="2:13">
-      <c r="B29" s="4" t="s">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="18"/>
+      <c r="R28" s="2"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="2:18">
+      <c r="B29" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="6">
         <v>20000</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5" t="s">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M29" s="19"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="92" customHeight="1" spans="2:13">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10" t="s">
+      <c r="M29" s="18"/>
+      <c r="R29" s="2"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="92" customHeight="1" spans="2:18">
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="10">
         <v>248</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="10">
         <v>232</v>
       </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9">
+      <c r="I30" s="10"/>
+      <c r="J30" s="10">
         <v>248</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="10">
         <v>240</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="10">
         <v>20248</v>
       </c>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
-      <c r="F31" s="15"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:17">
+      <c r="M30" s="20"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="30" customHeight="1" spans="6:18">
+      <c r="F31" s="13"/>
+      <c r="G31" s="12"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:18">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -3243,38 +3266,41 @@
       <c r="E32" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="J32" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="22" t="s">
+      <c r="L32" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="M32" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N32" s="13" t="s">
+      <c r="N32" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="O32" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="P32" s="13" t="s">
+      <c r="P32" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Q32" s="23" t="s">
+      <c r="Q32" s="15" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
+      <c r="R32" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:18">
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -3285,365 +3311,381 @@
         <v>33</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="16">
+        <v>106</v>
+      </c>
+      <c r="G33" s="14">
         <v>464</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="15">
         <v>464</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="15">
         <v>496</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="21">
         <v>480</v>
       </c>
-      <c r="L33" s="22">
+      <c r="L33" s="21">
         <v>496</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="15">
         <v>480</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="15">
         <v>496</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="15">
         <v>496</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="15">
         <v>480</v>
       </c>
-      <c r="Q33" s="23">
+      <c r="Q33" s="15">
         <v>496</v>
       </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="30" customHeight="1" spans="6:7">
-      <c r="F34" s="15"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="31" customHeight="1" spans="1:16">
+      <c r="R33" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="30" customHeight="1" spans="6:18">
+      <c r="F34" s="13"/>
+      <c r="G34" s="12"/>
+      <c r="R34" s="2"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="31" customHeight="1" spans="1:18">
       <c r="A35" s="1">
         <v>9</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
+      <c r="F35" s="16"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3" t="s">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="18"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
-      <c r="B36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="5">
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="17"/>
+      <c r="R35" s="2"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+      <c r="B36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="6">
         <v>5000</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5">
+      <c r="E36" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6">
         <v>54</v>
       </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5">
+      <c r="I36" s="6"/>
+      <c r="J36" s="6">
         <v>62</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="6">
         <v>5060</v>
       </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="19"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="19"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
-      <c r="B38" s="4" t="s">
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="18"/>
+      <c r="R36" s="2"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="18"/>
+      <c r="R37" s="2"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+      <c r="B38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5" t="s">
+      <c r="F38" s="8"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="P38" s="19"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
-      <c r="B39" s="4" t="s">
+      <c r="P38" s="18"/>
+      <c r="R38" s="2"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+      <c r="B39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="6">
         <v>6000</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5">
+      <c r="E39" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6">
         <v>74</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="6">
         <v>72</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="6">
         <v>74.4</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="6">
         <v>72</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="6">
         <v>74.4</v>
       </c>
-      <c r="O39" s="5">
+      <c r="O39" s="6">
         <v>6074.4</v>
       </c>
-      <c r="P39" s="19"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
-      <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="19"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
-      <c r="B41" s="4" t="s">
+      <c r="P39" s="18"/>
+      <c r="R39" s="2"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="18"/>
+      <c r="R40" s="2"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+      <c r="B41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5" t="s">
+      <c r="E41" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="19"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
-      <c r="B42" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="5">
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="18"/>
+      <c r="R41" s="2"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+      <c r="B42" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="6">
         <v>3000</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5">
+      <c r="E42" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6">
         <v>1029.4</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="6">
         <v>1021</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42" s="7">
         <v>1010.5</v>
       </c>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="19"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
-      <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="19"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
-      <c r="B44" s="4" t="s">
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="18"/>
+      <c r="R42" s="2"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="18"/>
+      <c r="R43" s="2"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+      <c r="B44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5" t="s">
+      <c r="E44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="M44" s="5" t="s">
+      <c r="M44" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="N44" s="5" t="s">
+      <c r="N44" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="O44" s="5"/>
-      <c r="P44" s="19"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="31" customHeight="1" spans="2:16">
-      <c r="B45" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="9">
+      <c r="O44" s="6"/>
+      <c r="P44" s="18"/>
+      <c r="R44" s="2"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+      <c r="B45" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="10">
         <v>10000</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9">
+      <c r="E45" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10">
         <v>120</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M45" s="10">
         <v>120</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N45" s="10">
         <v>10124</v>
       </c>
-      <c r="O45" s="9"/>
-      <c r="P45" s="21"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="30" customHeight="1" spans="6:12">
-      <c r="F46" s="15"/>
-      <c r="G46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
+      <c r="O45" s="10"/>
+      <c r="P45" s="20"/>
+      <c r="R45" s="2"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="30" customHeight="1" spans="6:18">
+      <c r="F46" s="13"/>
+      <c r="G46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="R46" s="2"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="30" customHeight="1" spans="2:18">
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
@@ -3656,30 +3698,33 @@
       <c r="E47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="13" t="s">
+      <c r="F47" s="13"/>
+      <c r="G47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="N47" s="13" t="s">
+      <c r="N47" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="O47" s="13" t="s">
+      <c r="O47" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="P47" s="13" t="s">
+      <c r="P47" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Q47" s="23" t="s">
+      <c r="Q47" s="15" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
+      <c r="R47" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="30" customHeight="1" spans="2:18">
       <c r="B48" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C48" s="1">
         <v>25000</v>
@@ -3688,41 +3733,45 @@
         <v>33</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F48" s="15"/>
-      <c r="G48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="13">
+        <v>117</v>
+      </c>
+      <c r="F48" s="13"/>
+      <c r="G48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="15">
         <v>270</v>
       </c>
-      <c r="N48" s="13">
+      <c r="N48" s="15">
         <v>310</v>
       </c>
-      <c r="O48" s="13">
+      <c r="O48" s="15">
         <v>310</v>
       </c>
-      <c r="P48" s="13">
+      <c r="P48" s="15">
         <v>300</v>
       </c>
-      <c r="Q48" s="23">
+      <c r="Q48" s="15">
         <v>310</v>
       </c>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="30" customHeight="1" spans="6:16">
-      <c r="F49" s="15"/>
-      <c r="G49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
+      <c r="R48" s="2">
+        <v>25300</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="30" customHeight="1" spans="6:18">
+      <c r="F49" s="13"/>
+      <c r="G49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="R49" s="2"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="30" customHeight="1" spans="2:18">
       <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
@@ -3735,24 +3784,27 @@
       <c r="E50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="13" t="s">
+      <c r="F50" s="13"/>
+      <c r="G50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Q50" s="23" t="s">
+      <c r="Q50" s="15" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
+      <c r="R50" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="30" customHeight="1" spans="2:18">
       <c r="B51" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C51" s="1">
         <v>8000</v>
@@ -3761,36 +3813,40 @@
         <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="13">
+        <v>119</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="15">
         <v>2730.55</v>
       </c>
-      <c r="Q51" s="23">
+      <c r="Q51" s="15">
         <v>2730.55</v>
       </c>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="30" customHeight="1" spans="6:17">
-      <c r="F52" s="15"/>
-      <c r="G52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
+      <c r="R51" s="2">
+        <v>2730.56</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="30" customHeight="1" spans="6:18">
+      <c r="F52" s="13"/>
+      <c r="G52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="2"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="30" customHeight="1" spans="2:18">
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
@@ -3803,22 +3859,25 @@
       <c r="E53" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="23" t="s">
+      <c r="F53" s="13"/>
+      <c r="G53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="15" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="30" customHeight="1" spans="2:17">
+      <c r="R53" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="30" customHeight="1" spans="2:18">
       <c r="B54" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" s="1">
         <v>35100</v>
@@ -3827,44 +3886,51 @@
         <v>33</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="23">
+        <v>121</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="15">
         <v>1193.98</v>
       </c>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="30" customHeight="1" spans="6:10">
-      <c r="F55" s="15"/>
-      <c r="G55" s="11"/>
-      <c r="J55" s="11"/>
-    </row>
-    <row r="56" ht="50" customHeight="1" spans="7:17">
-      <c r="G56" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H56" s="16" t="s">
+      <c r="R54" s="2">
+        <v>1193.98</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="30" customHeight="1" spans="6:18">
+      <c r="F55" s="13"/>
+      <c r="G55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="R55" s="2"/>
+    </row>
+    <row r="56" ht="50" customHeight="1" spans="7:18">
+      <c r="G56" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="J56" s="16" t="s">
+      <c r="H56" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="O56" s="13">
+      <c r="J56" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O56" s="15">
         <v>8601.63</v>
       </c>
-      <c r="P56" s="13">
+      <c r="P56" s="15">
         <v>5213.49</v>
       </c>
-      <c r="Q56" s="23">
+      <c r="Q56" s="15">
         <v>6413.72</v>
+      </c>
+      <c r="R56" s="2">
+        <v>29704.54</v>
       </c>
     </row>
     <row r="57" ht="25" customHeight="1"/>

--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Summary-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="招商信用卡(掌上生活)" sheetId="1" r:id="rId1"/>
@@ -15,12 +20,12 @@
     <sheet name="王星" sheetId="10" state="hidden" r:id="rId6"/>
     <sheet name="方召军账单" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="126">
   <si>
     <t xml:space="preserve"> 账单日</t>
   </si>
@@ -405,20 +410,20 @@
   <si>
     <t>2020.04.06
 1816.11+1895.09+248+496+62+74=4591.2</t>
+  </si>
+  <si>
+    <t>2020年前10000,还了2000,还剩下8000,还了1000,剩下7000说是有异议改为7500,最终定为7500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,151 +432,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,7 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,198 +474,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1019,255 +709,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1337,9 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1403,62 +848,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1716,26 +1156,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35.625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1746,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1757,7 +1197,7 @@
         <v>23728.3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1769,21 +1209,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
@@ -1795,7 +1234,7 @@
     <col min="12" max="18" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1806,7 +1245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>2016</v>
       </c>
@@ -1817,7 +1256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
@@ -1828,200 +1267,200 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="28">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="27">
         <v>2019.06</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>10000</v>
       </c>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="31">
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="30">
         <v>7.8</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="12">
         <v>50000</v>
       </c>
-      <c r="D5" s="32"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="31" t="s">
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="12">
         <v>10000</v>
       </c>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="31">
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="30">
         <v>7.9</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="12">
         <v>35000</v>
       </c>
-      <c r="D7" s="32"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="31" t="s">
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="12">
         <v>10000</v>
       </c>
-      <c r="D8" s="32"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="31">
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="30">
         <v>7.27</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="12">
         <v>10000</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="31"/>
-      <c r="B10" s="12"/>
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="30"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="12">
         <v>10000</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="31"/>
-      <c r="B11" s="12"/>
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="30"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="12">
         <v>5000</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="31">
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="30">
         <v>7.28</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="12">
         <v>5000</v>
       </c>
-      <c r="D12" s="32"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="31">
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="30">
         <v>7.31</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="12">
         <v>10000</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="31">
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="30">
         <v>8.5</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="12">
         <v>10000</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="31">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="30">
         <v>8.14</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="12">
         <v>5000</v>
       </c>
-      <c r="D15" s="32"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="31">
-        <v>9.8</v>
-      </c>
-      <c r="B16" s="12"/>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="30">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B16" s="45"/>
       <c r="C16" s="12">
         <v>14000</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="31">
+    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="30">
         <v>12</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="12">
         <v>4000</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="12">
         <v>4000</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" s="27" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A19" s="33" t="s">
+    <row r="19" spans="1:18" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34">
+      <c r="B19" s="46"/>
+      <c r="C19" s="33">
         <v>10000</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-    </row>
-    <row r="20" s="27" customFormat="1" ht="38" customHeight="1" spans="1:18">
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+    </row>
+    <row r="20" spans="1:18" s="26" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="1">
@@ -2030,93 +1469,93 @@
       <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-    </row>
-    <row r="21" s="27" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A21" s="38" t="s">
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+    </row>
+    <row r="21" spans="1:18" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="38">
         <v>20000</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-    </row>
-    <row r="22" s="27" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A22" s="41" t="s">
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+    </row>
+    <row r="22" spans="1:18" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42">
+      <c r="B22" s="48"/>
+      <c r="C22" s="41">
         <v>20000</v>
       </c>
-      <c r="D22" s="43" t="s">
+      <c r="D22" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-    </row>
-    <row r="23" s="27" customFormat="1" customHeight="1" spans="1:18">
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+    </row>
+    <row r="23" spans="1:18" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="36"/>
-    </row>
-    <row r="24" customHeight="1" spans="3:3">
-      <c r="C24" s="44">
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+    </row>
+    <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="43">
         <f>SUM(C2:C22)</f>
         <v>274000</v>
       </c>
@@ -2126,26 +1565,26 @@
     <mergeCell ref="B4:B19"/>
     <mergeCell ref="B21:B22"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="23" customHeight="1" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="14.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="14.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2158,21 +1597,26 @@
       <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="49" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="49">
         <v>18000</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="49" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -2194,7 +1638,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="5:10">
+    <row r="3" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="15">
         <v>180</v>
       </c>
@@ -2214,7 +1662,7 @@
         <v>18216</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2227,23 +1675,26 @@
       <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="49">
         <v>5000</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="49" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -2256,7 +1707,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="5:7">
+    <row r="7" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="15">
         <v>50</v>
       </c>
@@ -2280,28 +1735,28 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D6:D7"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="28" customHeight="1" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="89.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="14.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -2312,7 +1767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -2323,7 +1778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
+    <row r="3" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,7 +1789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
+    <row r="4" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -2345,15 +1800,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
+    <row r="5" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="1">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
+        <v>7500</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -2361,7 +1819,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:3">
+    <row r="7" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -2372,35 +1830,35 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:2">
+    <row r="8" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
         <f>SUM(B2:B7)</f>
-        <v>40000</v>
+        <v>39500</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="25" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
+    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2414,7 +1872,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
+    <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
@@ -2428,7 +1886,7 @@
         <v>3349.09</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:4">
+    <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -2439,7 +1897,7 @@
         <v>18432.25</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+    <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -2450,7 +1908,7 @@
         <v>5031.5</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
+    <row r="5" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2465,21 +1923,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
@@ -2489,8 +1946,8 @@
     <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A1" s="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="49">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2505,43 +1962,60 @@
       <c r="E1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="49" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="2:9">
-      <c r="B2" s="23">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50">
         <v>43912</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="49">
         <v>10000</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <v>43927</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="23">
         <v>43957</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="24">
         <v>43988</v>
       </c>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="6:9">
+    <row r="3" spans="1:17" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="14">
         <v>48</v>
       </c>
       <c r="G3" s="15">
         <v>96</v>
       </c>
-      <c r="H3" s="26">
-        <v>10099.2</v>
+      <c r="H3" s="25">
+        <v>10099.200000000001</v>
       </c>
       <c r="I3" s="12"/>
     </row>
@@ -2554,23 +2028,21 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B31" workbookViewId="0">
+    <sheetView topLeftCell="B31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight" activeCell="S56" sqref="S56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
@@ -2578,10 +2050,10 @@
     <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.6833333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.475" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.9083333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.875" style="1" customWidth="1"/>
@@ -2593,16 +2065,23 @@
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="52" customHeight="1" spans="1:2">
+    <row r="1" spans="1:18" ht="51.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="49" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" ht="30" customHeight="1"/>
-    <row r="3" ht="40" customHeight="1" spans="1:9">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
@@ -2619,8 +2098,8 @@
       <c r="H3" s="4"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" ht="33" customHeight="1" spans="1:9">
-      <c r="A4" s="1">
+    <row r="4" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="49">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2635,24 +2114,25 @@
       <c r="E4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="18"/>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="2:9">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="49"/>
+      <c r="B5" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="51">
         <v>10000</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="51" t="s">
         <v>71</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -2666,11 +2146,12 @@
       </c>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" ht="31" customHeight="1" spans="2:9">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+    <row r="6" spans="1:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="49"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="6" t="s">
         <v>72</v>
       </c>
@@ -2682,7 +2163,7 @@
       </c>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" customFormat="1" ht="31" customHeight="1" spans="2:18">
+    <row r="7" spans="1:18" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2693,8 +2174,8 @@
       <c r="I7" s="19"/>
       <c r="R7" s="22"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:18">
-      <c r="A8" s="1">
+    <row r="8" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="49">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2709,25 +2190,25 @@
       <c r="E8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
       <c r="I8" s="18"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" ht="37" customHeight="1" spans="2:9">
-      <c r="B9" s="5" t="s">
+    </row>
+    <row r="9" spans="1:18" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="49"/>
+      <c r="B9" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="51">
         <v>30000</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="51" t="s">
         <v>75</v>
       </c>
       <c r="F9" s="6" t="s">
@@ -2741,11 +2222,12 @@
       </c>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" ht="24" customHeight="1" spans="2:9">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+    <row r="10" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="49"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="6">
         <v>324</v>
       </c>
@@ -2757,7 +2239,7 @@
       </c>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" customFormat="1" ht="28" customHeight="1" spans="2:18">
+    <row r="11" spans="1:18" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2768,8 +2250,8 @@
       <c r="I11" s="19"/>
       <c r="R11" s="22"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:18">
-      <c r="A12" s="1">
+    <row r="12" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="49">
         <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2784,25 +2266,25 @@
       <c r="E12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
       <c r="I12" s="18"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="2:9">
-      <c r="B13" s="5" t="s">
+    </row>
+    <row r="13" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="49"/>
+      <c r="B13" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="51">
         <v>20000</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="51" t="s">
         <v>78</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -2816,11 +2298,12 @@
       </c>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" ht="72" customHeight="1" spans="2:9">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+    <row r="14" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="49"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="6">
         <v>6824</v>
       </c>
@@ -2832,7 +2315,7 @@
       </c>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" customFormat="1" ht="45" customHeight="1" spans="2:18">
+    <row r="15" spans="1:18" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2843,8 +2326,8 @@
       <c r="I15" s="19"/>
       <c r="R15" s="22"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:18">
-      <c r="A16" s="1">
+    <row r="16" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="49">
         <v>4</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -2859,25 +2342,25 @@
       <c r="E16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
       <c r="I16" s="18"/>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="2:9">
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="17" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="49"/>
+      <c r="B17" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="51">
         <v>20000</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="51" t="s">
         <v>81</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -2891,11 +2374,12 @@
       </c>
       <c r="I17" s="18"/>
     </row>
-    <row r="18" ht="99" customHeight="1" spans="2:9">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+    <row r="18" spans="1:18" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="49"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="11" t="s">
         <v>83</v>
       </c>
@@ -2907,7 +2391,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" customFormat="1" ht="24" customHeight="1" spans="2:18">
+    <row r="19" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2917,8 +2401,8 @@
       <c r="H19" s="1"/>
       <c r="R19" s="22"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:18">
-      <c r="A20" s="1">
+    <row r="20" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="49">
         <v>5</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -2933,33 +2417,33 @@
       <c r="E20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="2"/>
-    </row>
-    <row r="21" ht="35" customHeight="1" spans="2:17">
-      <c r="B21" s="6" t="s">
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+    </row>
+    <row r="21" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="49"/>
+      <c r="B21" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="51">
         <v>20000</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="51" t="s">
         <v>88</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -2999,11 +2483,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" ht="51" customHeight="1" spans="2:17">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+    <row r="22" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="49"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="8" t="s">
         <v>95</v>
       </c>
@@ -3041,7 +2526,7 @@
         <v>1683.19</v>
       </c>
     </row>
-    <row r="23" customFormat="1" ht="38" customHeight="1" spans="2:18">
+    <row r="23" spans="1:18" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3051,8 +2536,8 @@
       <c r="H23" s="1"/>
       <c r="R23" s="22"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:18">
-      <c r="A24" s="1">
+    <row r="24" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="49">
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3067,29 +2552,29 @@
       <c r="E24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="4"/>
       <c r="M24" s="17"/>
-      <c r="R24" s="2"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="35" customHeight="1" spans="2:18">
-      <c r="B25" s="5" t="s">
+    </row>
+    <row r="25" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="49"/>
+      <c r="B25" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="51">
         <v>11000</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="51" t="s">
         <v>98</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -3112,13 +2597,13 @@
         <v>89</v>
       </c>
       <c r="M25" s="18"/>
-      <c r="R25" s="2"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+    </row>
+    <row r="26" spans="1:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="49"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="6">
         <v>1883.4</v>
       </c>
@@ -3139,9 +2624,8 @@
         <v>1883.4</v>
       </c>
       <c r="M26" s="18"/>
-      <c r="R26" s="2"/>
-    </row>
-    <row r="27" ht="36" customHeight="1" spans="2:13">
+    </row>
+    <row r="27" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -3155,8 +2639,8 @@
       <c r="L27" s="6"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="33" customHeight="1" spans="1:18">
-      <c r="A28" s="1">
+    <row r="28" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="49">
         <v>7</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3171,29 +2655,29 @@
       <c r="E28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
       <c r="L28" s="6"/>
       <c r="M28" s="18"/>
-      <c r="R28" s="2"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="35" customHeight="1" spans="2:18">
-      <c r="B29" s="5" t="s">
+    </row>
+    <row r="29" spans="1:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="49"/>
+      <c r="B29" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="51">
         <v>20000</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="51" t="s">
         <v>102</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -3216,13 +2700,13 @@
         <v>89</v>
       </c>
       <c r="M29" s="18"/>
-      <c r="R29" s="2"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="92" customHeight="1" spans="2:18">
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+    </row>
+    <row r="30" spans="1:18" ht="92.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="49"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
       <c r="F30" s="11" t="s">
         <v>103</v>
       </c>
@@ -3243,15 +2727,13 @@
         <v>20248</v>
       </c>
       <c r="M30" s="20"/>
-      <c r="R30" s="2"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="30" customHeight="1" spans="6:18">
+    </row>
+    <row r="31" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="13"/>
       <c r="G31" s="12"/>
-      <c r="R31" s="2"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="30" customHeight="1" spans="1:18">
-      <c r="A32" s="1">
+    </row>
+    <row r="32" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="49">
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3300,7 +2782,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="30" customHeight="1" spans="2:18">
+    <row r="33" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="49"/>
       <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
@@ -3347,13 +2830,12 @@
         <v>480</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="30" customHeight="1" spans="6:18">
+    <row r="34" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F34" s="13"/>
       <c r="G34" s="12"/>
-      <c r="R34" s="2"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="31" customHeight="1" spans="1:18">
-      <c r="A35" s="1">
+    </row>
+    <row r="35" spans="1:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="49">
         <v>9</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -3385,9 +2867,9 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="17"/>
-      <c r="R35" s="2"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+    </row>
+    <row r="36" spans="1:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="49"/>
       <c r="B36" s="5" t="s">
         <v>107</v>
       </c>
@@ -3417,9 +2899,8 @@
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="18"/>
-      <c r="R36" s="2"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+    </row>
+    <row r="37" spans="1:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -3435,9 +2916,8 @@
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="18"/>
-      <c r="R37" s="2"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+    </row>
+    <row r="38" spans="1:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="5" t="s">
         <v>7</v>
       </c>
@@ -3473,9 +2953,8 @@
         <v>92</v>
       </c>
       <c r="P38" s="18"/>
-      <c r="R38" s="2"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+    </row>
+    <row r="39" spans="1:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="5" t="s">
         <v>38</v>
       </c>
@@ -3499,21 +2978,20 @@
         <v>72</v>
       </c>
       <c r="L39" s="6">
-        <v>74.4</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="M39" s="6">
         <v>72</v>
       </c>
       <c r="N39" s="6">
-        <v>74.4</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="O39" s="6">
         <v>6074.4</v>
       </c>
       <c r="P39" s="18"/>
-      <c r="R39" s="2"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+    </row>
+    <row r="40" spans="1:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -3529,9 +3007,8 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="18"/>
-      <c r="R40" s="2"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+    </row>
+    <row r="41" spans="1:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
         <v>7</v>
       </c>
@@ -3561,9 +3038,8 @@
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="18"/>
-      <c r="R41" s="2"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+    </row>
+    <row r="42" spans="1:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="5" t="s">
         <v>111</v>
       </c>
@@ -3582,7 +3058,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6">
-        <v>1029.4</v>
+        <v>1029.4000000000001</v>
       </c>
       <c r="L42" s="6">
         <v>1021</v>
@@ -3593,9 +3069,8 @@
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="18"/>
-      <c r="R42" s="2"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+    </row>
+    <row r="43" spans="1:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -3611,9 +3086,8 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="18"/>
-      <c r="R43" s="2"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+    </row>
+    <row r="44" spans="1:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="5" t="s">
         <v>7</v>
       </c>
@@ -3643,9 +3117,8 @@
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="18"/>
-      <c r="R44" s="2"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="31" customHeight="1" spans="2:18">
+    </row>
+    <row r="45" spans="1:18" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="9" t="s">
         <v>114</v>
       </c>
@@ -3675,17 +3148,15 @@
       </c>
       <c r="O45" s="10"/>
       <c r="P45" s="20"/>
-      <c r="R45" s="2"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="30" customHeight="1" spans="6:18">
+    </row>
+    <row r="46" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F46" s="13"/>
       <c r="G46" s="12"/>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
-      <c r="R46" s="2"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="30" customHeight="1" spans="2:18">
+    </row>
+    <row r="47" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
@@ -3722,7 +3193,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="30" customHeight="1" spans="2:18">
+    <row r="48" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>116</v>
       </c>
@@ -3759,7 +3230,7 @@
         <v>25300</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="30" customHeight="1" spans="6:18">
+    <row r="49" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F49" s="13"/>
       <c r="G49" s="12"/>
       <c r="J49" s="12"/>
@@ -3769,9 +3240,8 @@
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
-      <c r="R49" s="2"/>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="30" customHeight="1" spans="2:18">
+    </row>
+    <row r="50" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
@@ -3802,7 +3272,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="30" customHeight="1" spans="2:18">
+    <row r="51" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>118</v>
       </c>
@@ -3833,7 +3303,7 @@
         <v>2730.56</v>
       </c>
     </row>
-    <row r="52" s="1" customFormat="1" ht="30" customHeight="1" spans="6:18">
+    <row r="52" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F52" s="13"/>
       <c r="G52" s="12"/>
       <c r="J52" s="12"/>
@@ -3844,9 +3314,8 @@
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
-      <c r="R52" s="2"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="30" customHeight="1" spans="2:18">
+    </row>
+    <row r="53" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
@@ -3875,7 +3344,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="30" customHeight="1" spans="2:18">
+    <row r="54" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>120</v>
       </c>
@@ -3904,13 +3373,12 @@
         <v>1193.98</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="30" customHeight="1" spans="6:18">
+    <row r="55" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F55" s="13"/>
       <c r="G55" s="12"/>
       <c r="J55" s="12"/>
-      <c r="R55" s="2"/>
-    </row>
-    <row r="56" ht="50" customHeight="1" spans="7:18">
+    </row>
+    <row r="56" spans="2:18" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G56" s="14" t="s">
         <v>122</v>
       </c>
@@ -3921,7 +3389,7 @@
         <v>124</v>
       </c>
       <c r="O56" s="15">
-        <v>8601.63</v>
+        <v>8601.6299999999992</v>
       </c>
       <c r="P56" s="15">
         <v>5213.49</v>
@@ -3933,8 +3401,8 @@
         <v>29704.54</v>
       </c>
     </row>
-    <row r="57" ht="25" customHeight="1"/>
-    <row r="58" ht="25" customHeight="1" spans="2:3">
+    <row r="57" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="1">
         <v>4.21</v>
       </c>
@@ -3942,30 +3410,43 @@
         <v>600</v>
       </c>
     </row>
-    <row r="59" ht="25" customHeight="1"/>
-    <row r="60" ht="25" customHeight="1"/>
-    <row r="61" ht="25" customHeight="1"/>
-    <row r="62" ht="25" customHeight="1"/>
-    <row r="63" ht="25" customHeight="1"/>
-    <row r="64" ht="25" customHeight="1"/>
-    <row r="65" ht="25" customHeight="1"/>
-    <row r="66" ht="25" customHeight="1"/>
-    <row r="67" ht="25" customHeight="1"/>
-    <row r="68" ht="25" customHeight="1"/>
-    <row r="69" ht="25" customHeight="1"/>
-    <row r="70" ht="25" customHeight="1"/>
-    <row r="71" ht="25" customHeight="1"/>
-    <row r="72" ht="25" customHeight="1"/>
-    <row r="73" ht="25" customHeight="1"/>
-    <row r="74" ht="25" customHeight="1"/>
-    <row r="75" ht="25" customHeight="1"/>
+    <row r="59" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="F20:Q20"/>
     <mergeCell ref="F24:K24"/>
     <mergeCell ref="F28:K28"/>
@@ -3976,38 +3457,25 @@
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E29:E30"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Summary-\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="周高攀" sheetId="4" r:id="rId1"/>
@@ -19,13 +14,14 @@
     <sheet name="王星" sheetId="10" state="hidden" r:id="rId5"/>
     <sheet name="方召军账单" sheetId="3" r:id="rId6"/>
     <sheet name="王星账单" sheetId="11" r:id="rId7"/>
+    <sheet name="中信银行" sheetId="12" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
   <si>
     <t>日期</t>
   </si>
@@ -91,6 +87,9 @@
     <t>2020.06.27</t>
   </si>
   <si>
+    <t>代驾买车和花销</t>
+  </si>
+  <si>
     <t>借款金额</t>
   </si>
   <si>
@@ -148,6 +147,9 @@
     <t>胡小芳</t>
   </si>
   <si>
+    <t>2020年前10000,还了2000,还剩下8000,还了1000,剩下7000说是有异议改为7500,最终定为7500,过年又给500为7000</t>
+  </si>
+  <si>
     <t>王曾凯</t>
   </si>
   <si>
@@ -199,23 +201,17 @@
     <t>欠方总</t>
   </si>
   <si>
-    <t>2020年前10000,还了2000,还剩下8000,还了1000,剩下7000说是有异议改为7500,最终定为7500,过年又给500为7000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>15426.35+5000(给周威还)=20426.35</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -223,16 +219,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>021.1.5-2021.7.6</t>
+      <t>021.2.6</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝(先息后本)</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -240,24 +244,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>021.2.6</t>
+      <t>021.1.5-2021.7.6</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝(先息后本)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支付宝(每月等额)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -265,36 +269,21 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>021.2.10-2021.5.6</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代驾买车和花销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝(先息后本)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -302,27 +291,55 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>021.2.8-2021.5.6</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15426.35+5000(给周威还)=20426.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行圆梦金</t>
+  </si>
+  <si>
+    <t>利息</t>
+  </si>
+  <si>
+    <t>年化利率</t>
+  </si>
+  <si>
+    <t>期数</t>
+  </si>
+  <si>
+    <t>首期</t>
+  </si>
+  <si>
+    <t>后每期</t>
+  </si>
+  <si>
+    <t>总还款金额</t>
+  </si>
+  <si>
+    <t>36期</t>
+  </si>
+  <si>
+    <t>中信银行长期借款</t>
+  </si>
+  <si>
+    <t>总手续费</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,9 +348,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -341,12 +358,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,8 +518,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -516,43 +855,297 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,51 +1203,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -912,356 +1516,356 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.875" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="11" width="9.375"/>
     <col min="12" max="18" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2">
         <v>2016</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>10000</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="2">
         <v>2018</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>4000</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="16">
         <v>2019.06</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="17">
         <v>10000</v>
       </c>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15">
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="19">
         <v>7.8</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6">
         <v>50000</v>
       </c>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="3">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6">
         <v>10000</v>
       </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15">
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="19">
         <v>7.9</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
         <v>35000</v>
       </c>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15" t="s">
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
         <v>10000</v>
       </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15">
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="19">
         <v>7.27</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
         <v>10000</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="3">
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="19"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
         <v>10000</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="3">
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="19"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
         <v>5000</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15">
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="19">
         <v>7.28</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
         <v>5000</v>
       </c>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15">
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="19">
         <v>7.31</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6">
         <v>10000</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15">
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="19">
         <v>8.5</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6">
         <v>10000</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15">
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="19">
         <v>8.14</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6">
         <v>5000</v>
       </c>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="3">
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="19">
+        <v>9.8</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6">
         <v>14000</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15">
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="19">
         <v>12</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="3">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6">
         <v>4000</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="3">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6">
         <v>4000</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+    <row r="19" s="15" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="18">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22">
         <v>10000</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-    </row>
-    <row r="20" spans="1:18" s="11" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+    </row>
+    <row r="20" s="15" customFormat="1" ht="38.1" customHeight="1" spans="1:18">
+      <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>18000</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-    </row>
-    <row r="21" spans="1:18" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="22" t="s">
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+    </row>
+    <row r="21" s="15" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A21" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="27">
         <v>20000</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-    </row>
-    <row r="22" spans="1:18" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="25" t="s">
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+    </row>
+    <row r="22" s="15" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="26">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30">
         <v>20000</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-    </row>
-    <row r="23" spans="1:18" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="1">
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+    </row>
+    <row r="23" s="15" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2">
         <v>4500</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-    </row>
-    <row r="24" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="28">
+      <c r="D23" s="2"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+    </row>
+    <row r="24" ht="27.75" customHeight="1" spans="3:3">
+      <c r="C24" s="32">
         <f>SUM(C2:C23)</f>
         <v>278500</v>
       </c>
@@ -1271,160 +1875,145 @@
     <mergeCell ref="B4:B19"/>
     <mergeCell ref="B21:B22"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="23.1" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="14.625" style="1"/>
+    <col min="1" max="1" width="14.625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="14.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-    </row>
-    <row r="2" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
+      <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="36">
+    </row>
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
         <v>18000</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="5:10">
+      <c r="E3" s="7">
+        <v>180</v>
+      </c>
+      <c r="F3" s="7">
+        <v>223.2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>223.2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>208.8</v>
+      </c>
+      <c r="I3" s="2">
+        <v>223.2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>18216</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="B6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="6">
-        <v>180</v>
-      </c>
-      <c r="F3" s="6">
-        <v>223.2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>223.2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>208.8</v>
-      </c>
-      <c r="I3" s="1">
-        <v>223.2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>18216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="36">
-        <v>5000</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="6">
+    </row>
+    <row r="7" customHeight="1" spans="5:7">
+      <c r="E7" s="7">
         <v>50</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>62</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>5062</v>
       </c>
     </row>
@@ -1441,198 +2030,201 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D6:D7"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="27.95" customHeight="1" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="14.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="97.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="14.625" style="1"/>
+    <col min="1" max="2" width="14.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="97.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="14.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="1">
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2">
         <v>2000</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="1">
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2">
         <v>10000</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="1">
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2">
         <v>7000</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2">
         <v>2000</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="1">
+      <c r="C6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:2">
+      <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
         <v>31000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="15.625" style="1"/>
+    <col min="1" max="3" width="15.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="15.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2">
         <v>10000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>3349.09</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1">
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2">
         <v>20000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>18432.25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
         <v>5000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>5031.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2">
         <v>11000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>11050.05</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="25.125" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
@@ -1642,78 +2234,61 @@
     <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36">
+    <row r="1" s="2" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37">
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="35.1" customHeight="1" spans="2:9">
+      <c r="B2" s="10">
         <v>43912</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="2">
         <v>10000</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="11">
         <v>43927</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="11">
         <v>43957</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="12">
         <v>43988</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="5">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="51" customHeight="1" spans="6:9">
+      <c r="F3" s="13">
         <v>48</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>96</v>
       </c>
-      <c r="H3" s="10">
-        <v>10099.200000000001</v>
-      </c>
-      <c r="I3" s="3"/>
+      <c r="H3" s="14">
+        <v>10099.2</v>
+      </c>
+      <c r="I3" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1724,181 +2299,329 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H12" sqref="H12"/>
+      <selection/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.375" style="2"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="11.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.375" style="4"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="116.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-    </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:18" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="30" t="s">
+    <row r="1" ht="116.25" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" ht="30" customHeight="1"/>
+    <row r="3" customFormat="1" ht="24" customHeight="1" spans="2:18">
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" customFormat="1" ht="38.1" customHeight="1" spans="2:18">
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="30" t="s">
+      <c r="D4" s="2">
+        <v>40000</v>
+      </c>
+      <c r="E4" s="7">
+        <v>512</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="2:7">
+      <c r="B5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="1">
-        <v>40000</v>
-      </c>
-      <c r="E4" s="6">
-        <v>512</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="30" t="s">
+      <c r="C5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>5000</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="6:12">
+      <c r="F6" s="8"/>
+      <c r="G6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" ht="24.95" customHeight="1"/>
+    <row r="8" ht="24.95" customHeight="1"/>
+    <row r="9" ht="24.95" customHeight="1"/>
+    <row r="10" ht="24.95" customHeight="1"/>
+    <row r="11" ht="24.95" customHeight="1"/>
+    <row r="12" ht="24.95" customHeight="1"/>
+    <row r="13" ht="24.95" customHeight="1"/>
+    <row r="14" ht="24.95" customHeight="1"/>
+    <row r="15" ht="24.95" customHeight="1"/>
+    <row r="16" ht="24.95" customHeight="1"/>
+    <row r="17" ht="24.95" customHeight="1"/>
+    <row r="18" ht="24.95" customHeight="1"/>
+    <row r="19" ht="24.95" customHeight="1"/>
+    <row r="20" ht="24.95" customHeight="1"/>
+    <row r="21" ht="24.95" customHeight="1"/>
+    <row r="22" ht="24.95" customHeight="1"/>
+    <row r="23" ht="24.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="9" style="29"/>
-    <col min="3" max="3" width="19.625" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="16.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="19.625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+    <row r="1" ht="31.5" customHeight="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" ht="35.25" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2">
+        <v>30000</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="E2" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="F2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>80000</v>
+      </c>
+      <c r="B3" s="1">
+        <f>H3-A3</f>
+        <v>17280</v>
+      </c>
+      <c r="C3" s="1">
+        <f>B3/3/A3</f>
+        <v>0.072</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2702.3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2702.22</v>
+      </c>
+      <c r="G3" s="1">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1">
+        <f>F3*G3+E3</f>
+        <v>97280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="29">
-        <v>30000</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>70000</v>
+      </c>
+      <c r="B8" s="1">
+        <f>H8-A8</f>
+        <v>13356</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8/3/A8</f>
+        <v>0.0636000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2315.6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2315.44</v>
+      </c>
+      <c r="G8" s="1">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1">
+        <f>F8*G8+E8</f>
+        <v>83356</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>日期</t>
   </si>
@@ -132,12 +132,6 @@
     <t>债权人</t>
   </si>
   <si>
-    <t>张伟</t>
-  </si>
-  <si>
-    <t>2016年底借8000,后边还了一次4000,一次2000</t>
-  </si>
-  <si>
     <t>王宝霞</t>
   </si>
   <si>
@@ -147,10 +141,7 @@
     <t>胡小芳</t>
   </si>
   <si>
-    <t>2020年前10000,还了2000,还剩下8000,还了1000,剩下7000说是有异议改为7500,最终定为7500,过年又给500为7000</t>
-  </si>
-  <si>
-    <t>王曾凯</t>
+    <t>2020年前10000,还了2000,还剩下8000,还了1000,剩下7000说是有异议改为7500,最终定为7500,过年又给500为7000,3.30号又给了2000</t>
   </si>
   <si>
     <t>李芳</t>
@@ -201,7 +192,7 @@
     <t>欠方总</t>
   </si>
   <si>
-    <t>15426.35+5000(给周威还)=20426.35</t>
+    <t>15426.35+5000(给周威还)=30426.35</t>
   </si>
   <si>
     <r>
@@ -333,20 +324,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,9 +346,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,54 +368,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,29 +397,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -477,7 +406,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -493,7 +422,62 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,6 +504,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -532,7 +606,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,163 +666,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,13 +840,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,6 +866,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -906,17 +903,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,24 +937,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -961,165 +945,162 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1530,10 +1511,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.875" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="11" width="9.375"/>
@@ -1541,331 +1522,331 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>2016</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>10000</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2018</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>4000</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="16">
+      <c r="A4" s="15">
         <v>2019.06</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>10000</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>7.8</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
         <v>50000</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
         <v>10000</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="19">
+      <c r="A7" s="18">
         <v>7.9</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
         <v>35000</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
         <v>10000</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <v>7.27</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5">
         <v>10000</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="19"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6">
+      <c r="A10" s="18"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5">
         <v>10000</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="19"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6">
+      <c r="A11" s="18"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5">
         <v>5000</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>7.28</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5">
         <v>5000</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>7.31</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5">
         <v>10000</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>8.5</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5">
         <v>10000</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>8.14</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5">
         <v>5000</v>
       </c>
-      <c r="D15" s="20"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="19">
+      <c r="A16" s="18">
         <v>9.8</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5">
         <v>14000</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>12</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5">
         <v>4000</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
         <v>4000</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" s="15" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A19" s="21" t="s">
+    <row r="19" s="14" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A19" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21">
         <v>10000</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-    </row>
-    <row r="20" s="15" customFormat="1" ht="38.1" customHeight="1" spans="1:18">
-      <c r="A20" s="2" t="s">
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+    </row>
+    <row r="20" s="14" customFormat="1" ht="38.1" customHeight="1" spans="1:18">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>18000</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-    </row>
-    <row r="21" s="15" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A21" s="26" t="s">
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+    </row>
+    <row r="21" s="14" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A21" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <v>20000</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-    </row>
-    <row r="22" s="15" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A22" s="29" t="s">
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+    </row>
+    <row r="22" s="14" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29">
         <v>20000</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-    </row>
-    <row r="23" s="15" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+    </row>
+    <row r="23" s="14" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>4500</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
+      <c r="D23" s="1"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
     </row>
     <row r="24" ht="27.75" customHeight="1" spans="3:3">
-      <c r="C24" s="32">
+      <c r="C24" s="31">
         <f>SUM(C2:C23)</f>
         <v>278500</v>
       </c>
@@ -1891,129 +1872,129 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="23.1" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="14.625" style="2"/>
+    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="14.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>18000</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="5:10">
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>180</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>223.2</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>223.2</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>208.8</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>223.2</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>18216</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>5000</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="5:7">
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>50</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>62</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>5062</v>
       </c>
     </row>
@@ -2038,87 +2019,68 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="27.95" customHeight="1" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="27.95" customHeight="1" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="14.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="97.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="14.625" style="2"/>
+    <col min="1" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="137.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="14.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="2">
-        <v>10000</v>
+      <c r="B3" s="1">
+        <v>5000</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="2">
-        <v>7000</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="2:2">
-      <c r="B7" s="2">
-        <f>SUM(B2:B6)</f>
-        <v>31000</v>
+    <row r="5" customHeight="1" spans="2:2">
+      <c r="B5" s="1">
+        <f>SUM(B2:B4)</f>
+        <v>17000</v>
       </c>
     </row>
   </sheetData>
@@ -2139,73 +2101,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="15.625" style="2"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3349.09</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="C3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>18432.25</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5031.5</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3349.09</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="2">
-        <v>20000</v>
-      </c>
-      <c r="D3" s="2">
-        <v>18432.25</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5000</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5031.5</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>11000</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>11050.05</v>
       </c>
     </row>
@@ -2234,61 +2196,61 @@
     <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A1" s="2">
+    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="35.1" customHeight="1" spans="2:9">
+      <c r="B2" s="9">
+        <v>43912</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="35.1" customHeight="1" spans="2:9">
-      <c r="B2" s="10">
-        <v>43912</v>
-      </c>
-      <c r="C2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>43927</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="10">
         <v>43957</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <v>43988</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="51" customHeight="1" spans="6:9">
-      <c r="F3" s="13">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="6:9">
+      <c r="F3" s="12">
         <v>48</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>96</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>10099.2</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2312,103 +2274,103 @@
     <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:I1"/>
+      <selection pane="topRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="15.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="32.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="2" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.375" style="4"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.375" style="3"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="116.25" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" ht="30" customHeight="1"/>
     <row r="3" customFormat="1" ht="24" customHeight="1" spans="2:18">
-      <c r="B3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" customFormat="1" ht="38.1" customHeight="1" spans="2:18">
+      <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="1">
+        <v>40000</v>
+      </c>
+      <c r="E4" s="6">
+        <v>512</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="2:7">
+      <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="4" customFormat="1" ht="38.1" customHeight="1" spans="2:18">
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="2">
-        <v>40000</v>
-      </c>
-      <c r="E4" s="7">
-        <v>512</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="R4" s="9"/>
-    </row>
-    <row r="5" ht="30" customHeight="1" spans="2:7">
-      <c r="B5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>5000</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="6:12">
-      <c r="F6" s="8"/>
-      <c r="G6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" ht="24.95" customHeight="1"/>
     <row r="8" ht="24.95" customHeight="1"/>
@@ -2447,32 +2409,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="19.625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>54</v>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="35.25" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1">
         <v>30000</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>65</v>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2487,7 +2449,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -2502,7 +2464,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2510,25 +2472,25 @@
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2544,7 +2506,7 @@
         <v>0.072</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1">
         <v>2702.3</v>
@@ -2562,7 +2524,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2570,25 +2532,25 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8">

--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="周高攀" sheetId="4" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="方召军账单" sheetId="3" r:id="rId6"/>
     <sheet name="王星账单" sheetId="11" r:id="rId7"/>
     <sheet name="中信银行" sheetId="12" r:id="rId8"/>
+    <sheet name="中信银行利率计算" sheetId="13" r:id="rId9"/>
+    <sheet name="IRR示例" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="124">
   <si>
     <t>日期</t>
   </si>
@@ -289,48 +291,227 @@
     </r>
   </si>
   <si>
-    <t>中信银行圆梦金</t>
-  </si>
-  <si>
-    <t>利息</t>
+    <t>中信银行长期借款</t>
+  </si>
+  <si>
+    <r>
+      <t>新快现(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分开还钱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>起始截止日期</t>
+  </si>
+  <si>
+    <t>账单日</t>
+  </si>
+  <si>
+    <t>还款日</t>
+  </si>
+  <si>
+    <t>时间间隔</t>
+  </si>
+  <si>
+    <t>总手续费</t>
+  </si>
+  <si>
+    <t>年化利率
+(总利息/总贷款金额/年限)</t>
+  </si>
+  <si>
+    <t>首期</t>
+  </si>
+  <si>
+    <t>后每期</t>
+  </si>
+  <si>
+    <t>期数</t>
+  </si>
+  <si>
+    <t>总还款金额</t>
+  </si>
+  <si>
+    <t>2021.3.21~2024.3.21</t>
+  </si>
+  <si>
+    <t>18号</t>
+  </si>
+  <si>
+    <t>6号</t>
+  </si>
+  <si>
+    <t>当月18号--&gt;下个月18号--&gt;下下个月6号=30+12+6=48天</t>
+  </si>
+  <si>
+    <t>2017.9=323.3(利息)+1694.6(本金)</t>
+  </si>
+  <si>
+    <t>本金</t>
+  </si>
+  <si>
+    <t>总利息</t>
+  </si>
+  <si>
+    <t>年化</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>第1个月</t>
+  </si>
+  <si>
+    <t>第2个月</t>
+  </si>
+  <si>
+    <t>第3个月</t>
+  </si>
+  <si>
+    <t>第4个月</t>
+  </si>
+  <si>
+    <t>第5个月</t>
+  </si>
+  <si>
+    <t>第6个月</t>
+  </si>
+  <si>
+    <t>第7个月</t>
+  </si>
+  <si>
+    <t>第8个月</t>
+  </si>
+  <si>
+    <t>第9个月</t>
+  </si>
+  <si>
+    <t>第10个月</t>
+  </si>
+  <si>
+    <t>第11个月</t>
+  </si>
+  <si>
+    <t>第12个月</t>
+  </si>
+  <si>
+    <t>第13个月</t>
+  </si>
+  <si>
+    <t>第14个月</t>
+  </si>
+  <si>
+    <t>第15个月</t>
+  </si>
+  <si>
+    <t>第16个月</t>
+  </si>
+  <si>
+    <t>第17个月</t>
+  </si>
+  <si>
+    <t>第18个月</t>
+  </si>
+  <si>
+    <t>第19个月</t>
+  </si>
+  <si>
+    <t>第20个月</t>
+  </si>
+  <si>
+    <t>第21个月</t>
+  </si>
+  <si>
+    <t>第22个月</t>
+  </si>
+  <si>
+    <t>第23个月</t>
+  </si>
+  <si>
+    <t>第24个月</t>
+  </si>
+  <si>
+    <t>第25个月</t>
+  </si>
+  <si>
+    <t>第26个月</t>
+  </si>
+  <si>
+    <t>第27个月</t>
+  </si>
+  <si>
+    <t>第28个月</t>
+  </si>
+  <si>
+    <t>第29个月</t>
+  </si>
+  <si>
+    <t>第30个月</t>
+  </si>
+  <si>
+    <t>第31个月</t>
+  </si>
+  <si>
+    <t>第32个月</t>
+  </si>
+  <si>
+    <t>第33个月</t>
+  </si>
+  <si>
+    <t>第34个月</t>
+  </si>
+  <si>
+    <t>第35个月</t>
+  </si>
+  <si>
+    <t>第36个月</t>
+  </si>
+  <si>
+    <t>IRR:考虑金钱的时间成本,也就是俗称的内部收益率,计算比较复杂
+年化利率:利息总额/贷款总额/年限</t>
+  </si>
+  <si>
+    <t>案例:10000,日息万5,12个月还</t>
+  </si>
+  <si>
+    <t>手上可用现金</t>
   </si>
   <si>
     <t>年化利率</t>
-  </si>
-  <si>
-    <t>期数</t>
-  </si>
-  <si>
-    <t>首期</t>
-  </si>
-  <si>
-    <t>后每期</t>
-  </si>
-  <si>
-    <t>总还款金额</t>
-  </si>
-  <si>
-    <t>36期</t>
-  </si>
-  <si>
-    <t>中信银行长期借款</t>
-  </si>
-  <si>
-    <t>总手续费</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,7 +535,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,8 +556,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,16 +595,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,6 +608,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,41 +636,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -510,31 +699,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,37 +741,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,7 +759,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,25 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,25 +795,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,17 +813,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -841,21 +1067,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -866,48 +1077,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,6 +1106,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -945,10 +1171,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,7 +1183,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -966,136 +1192,196 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1127,21 +1413,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1157,21 +1434,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1179,6 +1453,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1505,16 +1788,16 @@
   <sheetPr/>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="20" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="20" customWidth="1"/>
     <col min="5" max="5" width="26.875" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="11" width="9.375"/>
@@ -1522,331 +1805,331 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="20">
         <v>2016</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="20">
         <v>10000</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="20">
         <v>2018</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="20">
         <v>4000</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="15">
+      <c r="A4" s="35">
         <v>2019.06</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="36">
         <v>10000</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="37"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="18">
+      <c r="A5" s="38">
         <v>7.8</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25">
         <v>50000</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="39"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25">
         <v>10000</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="39"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="18">
+      <c r="A7" s="38">
         <v>7.9</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25">
         <v>35000</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="39"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25">
         <v>10000</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="39"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="18">
+      <c r="A9" s="38">
         <v>7.27</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25">
         <v>10000</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="39" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5">
+      <c r="A10" s="38"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25">
         <v>10000</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="39" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5">
+      <c r="A11" s="38"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25">
         <v>5000</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="18">
+      <c r="A12" s="38">
         <v>7.28</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25">
         <v>5000</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="18">
+      <c r="A13" s="38">
         <v>7.31</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25">
         <v>10000</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="18">
+      <c r="A14" s="38">
         <v>8.5</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25">
         <v>10000</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="18">
+      <c r="A15" s="38">
         <v>8.14</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25">
         <v>5000</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="18">
+      <c r="A16" s="38">
         <v>9.8</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25">
         <v>14000</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="39" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="18">
+      <c r="A17" s="38">
         <v>12</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25">
         <v>4000</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="39" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25">
         <v>4000</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" s="14" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A19" s="20" t="s">
+    <row r="19" s="34" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A19" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41">
         <v>10000</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-    </row>
-    <row r="20" s="14" customFormat="1" ht="38.1" customHeight="1" spans="1:18">
-      <c r="A20" s="1" t="s">
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+    </row>
+    <row r="20" s="34" customFormat="1" ht="38.1" customHeight="1" spans="1:18">
+      <c r="A20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="20">
         <v>18000</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-    </row>
-    <row r="21" s="14" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A21" s="25" t="s">
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+    </row>
+    <row r="21" s="34" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A21" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="45">
         <v>20000</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-    </row>
-    <row r="22" s="14" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A22" s="28" t="s">
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+    </row>
+    <row r="22" s="34" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A22" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29">
+      <c r="B22" s="48"/>
+      <c r="C22" s="48">
         <v>20000</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-    </row>
-    <row r="23" s="14" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2" t="s">
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+    </row>
+    <row r="23" s="34" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="20">
         <v>4500</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
+      <c r="D23" s="20"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
     </row>
     <row r="24" ht="27.75" customHeight="1" spans="3:3">
-      <c r="C24" s="31">
+      <c r="C24" s="50">
         <f>SUM(C2:C23)</f>
         <v>278500</v>
       </c>
@@ -1855,6 +2138,230 @@
   <mergeCells count="2">
     <mergeCell ref="B4:B19"/>
     <mergeCell ref="B21:B22"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:6">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" ht="23" customHeight="1" spans="1:5">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="11">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="11">
+        <f>-SUM(B6:B17)-B5</f>
+        <v>1101.6</v>
+      </c>
+      <c r="D5" s="12">
+        <f>IRR(B5:B17)*12</f>
+        <v>0.199086621071269</v>
+      </c>
+      <c r="E5" s="13">
+        <f>(-SUM(B6:B17)-B5)/B5/1</f>
+        <v>0.11016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="11">
+        <v>-1016.8</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:5">
+      <c r="A17" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="15">
+        <v>-916.8</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" ht="14.25"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1872,129 +2379,129 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="23.1" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="14.625" style="1"/>
+    <col min="1" max="1" width="14.625" style="20" customWidth="1"/>
+    <col min="2" max="16384" width="14.625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="20">
         <v>18000</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="5:10">
-      <c r="E3" s="6">
+      <c r="E3" s="26">
         <v>180</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="26">
         <v>223.2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="20">
         <v>223.2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="20">
         <v>208.8</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="20">
         <v>223.2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="20">
         <v>18216</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="20">
         <v>5000</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="5:7">
-      <c r="E7" s="6">
+      <c r="E7" s="26">
         <v>50</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="26">
         <v>62</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="20">
         <v>5062</v>
       </c>
     </row>
@@ -2027,58 +2534,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="27.95" customHeight="1" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="14.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="137.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="14.625" style="1"/>
+    <col min="1" max="2" width="14.625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="137.625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="14.625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="20">
         <v>10000</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="20">
         <v>5000</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="20">
         <v>2000</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:2">
-      <c r="B5" s="1">
+      <c r="B5" s="20">
         <f>SUM(B2:B4)</f>
         <v>17000</v>
       </c>
@@ -2101,73 +2608,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="15.625" style="1"/>
+    <col min="1" max="3" width="15.625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="15.625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="20">
         <v>10000</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="20">
         <v>3349.09</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="20">
         <v>20000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="20">
         <v>18432.25</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="20">
         <v>5000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="20">
         <v>5031.5</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="20">
         <v>11000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="20">
         <v>11050.05</v>
       </c>
     </row>
@@ -2196,61 +2703,61 @@
     <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A1" s="1">
+    <row r="1" s="20" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A1" s="20">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="35.1" customHeight="1" spans="2:9">
-      <c r="B2" s="9">
+    <row r="2" s="20" customFormat="1" ht="35.1" customHeight="1" spans="2:9">
+      <c r="B2" s="29">
         <v>43912</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="20">
         <v>10000</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="30">
         <v>43927</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="30">
         <v>43957</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="31">
         <v>43988</v>
       </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="6:9">
-      <c r="F3" s="12">
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" s="20" customFormat="1" ht="51" customHeight="1" spans="6:9">
+      <c r="F3" s="32">
         <v>48</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="26">
         <v>96</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="33">
         <v>10099.2</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2271,106 +2778,106 @@
   <sheetPr/>
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H16" sqref="H16"/>
+      <selection pane="topRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.75" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.375" style="3"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="20"/>
+    <col min="2" max="2" width="15.375" style="20" customWidth="1"/>
+    <col min="3" max="3" width="21" style="20" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="20" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="20" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="20" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="20" customWidth="1"/>
+    <col min="8" max="8" width="32.5" style="20" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="20" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="20" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="20" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="20" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="20" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="20" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="20" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="20" customWidth="1"/>
+    <col min="17" max="17" width="11.25" style="20" customWidth="1"/>
+    <col min="18" max="18" width="9.375" style="23"/>
+    <col min="19" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="116.25" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" ht="30" customHeight="1"/>
     <row r="3" customFormat="1" ht="24" customHeight="1" spans="2:18">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="R3" s="8"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="R3" s="28"/>
     </row>
     <row r="4" customFormat="1" ht="38.1" customHeight="1" spans="2:18">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="20">
         <v>40000</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="26">
         <v>512</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="R4" s="8"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="R4" s="28"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:7">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="20">
         <v>5000</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="6:12">
-      <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" ht="24.95" customHeight="1"/>
     <row r="8" ht="24.95" customHeight="1"/>
@@ -2409,31 +2916,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="16.875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9" style="20"/>
+    <col min="3" max="3" width="19.625" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" ht="35.25" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="20">
         <v>30000</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="21" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2446,140 +2953,455 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="11.625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="17.375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="20" customWidth="1"/>
+    <col min="3" max="4" width="17.375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="50.125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9" style="20"/>
+    <col min="7" max="7" width="24.25" style="20" customWidth="1"/>
+    <col min="8" max="9" width="9" style="20"/>
+    <col min="10" max="10" width="7.25" style="20" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="20" customWidth="1"/>
+    <col min="12" max="12" width="34.375" style="20" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:3">
+      <c r="A1" s="20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" ht="54" customHeight="1" spans="1:12">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>80000</v>
-      </c>
-      <c r="B3" s="1">
-        <f>H3-A3</f>
-        <v>17280</v>
-      </c>
-      <c r="C3" s="1">
-        <f>B3/3/A3</f>
-        <v>0.072</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="G2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="1">
-        <v>2702.3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2702.22</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="H2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="36" customHeight="1" spans="1:12">
+      <c r="A3" s="20">
+        <v>61000</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="20">
+        <f>K3-A3</f>
+        <v>11644.4</v>
+      </c>
+      <c r="G3" s="20">
+        <f>F3/A3/3</f>
+        <v>0.0636306010928961</v>
+      </c>
+      <c r="H3" s="20">
+        <v>2017.9</v>
+      </c>
+      <c r="I3" s="20">
+        <v>2017.9</v>
+      </c>
+      <c r="J3" s="20">
         <v>35</v>
       </c>
-      <c r="H3" s="1">
-        <f>F3*G3+E3</f>
-        <v>97280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>70000</v>
-      </c>
-      <c r="B8" s="1">
-        <f>H8-A8</f>
-        <v>13356</v>
-      </c>
-      <c r="C8" s="1">
-        <f>B8/3/A8</f>
-        <v>0.0636000000000001</v>
-      </c>
-      <c r="D8" s="1">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2315.6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2315.44</v>
-      </c>
-      <c r="G8" s="1">
-        <v>35</v>
-      </c>
-      <c r="H8" s="1">
-        <f>F8*G8+E8</f>
-        <v>83356</v>
+      <c r="K3" s="20">
+        <f>I3*J3+H3</f>
+        <v>72644.4</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="9.875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="18"/>
+    <col min="5" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14" customHeight="1" spans="2:5">
+      <c r="B1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5">
+      <c r="B2" s="18">
+        <v>61000</v>
+      </c>
+      <c r="C2" s="18">
+        <f>-SUM(B3:B38)-B2</f>
+        <v>11644.4</v>
+      </c>
+      <c r="D2" s="18">
+        <f>C2/B2/3</f>
+        <v>0.0636306010928962</v>
+      </c>
+      <c r="E2" s="19">
+        <f>IRR(B2:B38)*12</f>
+        <v>0.117191453705376</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="18">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="18">
+        <v>-2017.9</v>
       </c>
     </row>
   </sheetData>

--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="周高攀" sheetId="4" r:id="rId1"/>
@@ -15,15 +15,15 @@
     <sheet name="方召军账单" sheetId="3" r:id="rId6"/>
     <sheet name="王星账单" sheetId="11" r:id="rId7"/>
     <sheet name="中信银行" sheetId="12" r:id="rId8"/>
-    <sheet name="中信银行利率计算" sheetId="13" r:id="rId9"/>
-    <sheet name="IRR示例" sheetId="14" r:id="rId10"/>
+    <sheet name="IRR示例" sheetId="14" r:id="rId9"/>
+    <sheet name="小额贷快利率试算" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
   <si>
     <t>日期</t>
   </si>
@@ -295,6 +295,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>新快现(</t>
     </r>
     <r>
@@ -498,18 +505,42 @@
   <si>
     <t>年化利率</t>
   </si>
+  <si>
+    <t>京东利率试算</t>
+  </si>
+  <si>
+    <t>日息</t>
+  </si>
+  <si>
+    <t>万3.5</t>
+  </si>
+  <si>
+    <t>年化利息</t>
+  </si>
+  <si>
+    <t>支付宝利率试算</t>
+  </si>
+  <si>
+    <t>万4</t>
+  </si>
+  <si>
+    <t>微粒贷利率试算</t>
+  </si>
+  <si>
+    <t>万3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -517,27 +548,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,23 +560,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,17 +595,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,14 +621,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,12 +641,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -649,8 +655,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,43 +724,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,7 +760,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,19 +796,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,31 +814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +838,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,19 +862,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,19 +904,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,13 +1112,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,42 +1171,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,10 +1202,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,206 +1214,197 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1413,7 +1435,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1788,16 +1810,16 @@
   <sheetPr/>
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="16" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="16" customWidth="1"/>
     <col min="5" max="5" width="26.875" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="11" width="9.375"/>
@@ -1805,331 +1827,331 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="20">
+      <c r="A2" s="16">
         <v>2016</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>10000</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="20">
+      <c r="A3" s="16">
         <v>2018</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <v>4000</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="35">
+      <c r="A4" s="32">
         <v>2019.06</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="33">
         <v>10000</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="38">
+      <c r="A5" s="35">
         <v>7.8</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22">
         <v>50000</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="36"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22">
         <v>10000</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="36"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="38">
+      <c r="A7" s="35">
         <v>7.9</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22">
         <v>35000</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="36"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22">
         <v>10000</v>
       </c>
-      <c r="D8" s="39"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="38">
+      <c r="A9" s="35">
         <v>7.27</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22">
         <v>10000</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="36" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="38"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22">
         <v>10000</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="36" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22">
         <v>5000</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="38">
+      <c r="A12" s="35">
         <v>7.28</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22">
         <v>5000</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="36"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="38">
+      <c r="A13" s="35">
         <v>7.31</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22">
         <v>10000</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="38">
+      <c r="A14" s="35">
         <v>8.5</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22">
         <v>10000</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="38">
+      <c r="A15" s="35">
         <v>8.14</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22">
         <v>5000</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="36"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="38">
+      <c r="A16" s="35">
         <v>9.8</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22">
         <v>14000</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="38">
+      <c r="A17" s="35">
         <v>12</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22">
         <v>4000</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="36" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22">
         <v>4000</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" s="34" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A19" s="40" t="s">
+    <row r="19" s="31" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A19" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38">
         <v>10000</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-    </row>
-    <row r="20" s="34" customFormat="1" ht="38.1" customHeight="1" spans="1:18">
-      <c r="A20" s="20" t="s">
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+    </row>
+    <row r="20" s="31" customFormat="1" ht="38.1" customHeight="1" spans="1:18">
+      <c r="A20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="16">
         <v>18000</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-    </row>
-    <row r="21" s="34" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A21" s="44" t="s">
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+    </row>
+    <row r="21" s="31" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A21" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="42">
         <v>20000</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-    </row>
-    <row r="22" s="34" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A22" s="47" t="s">
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+    </row>
+    <row r="22" s="31" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A22" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45">
         <v>20000</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-    </row>
-    <row r="23" s="34" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21" t="s">
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+    </row>
+    <row r="23" s="31" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="16">
         <v>4500</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
+      <c r="D23" s="16"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
     </row>
     <row r="24" ht="27.75" customHeight="1" spans="3:3">
-      <c r="C24" s="50">
+      <c r="C24" s="47">
         <f>SUM(C2:C23)</f>
         <v>278500</v>
       </c>
@@ -2147,222 +2169,421 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" ht="36" customHeight="1" spans="1:6">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" ht="33" customHeight="1" spans="1:6">
-      <c r="A3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" ht="23" customHeight="1" spans="1:5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="7" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="9" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="1">
+        <f>-SUM(B4:B15)-B3</f>
+        <v>695.1</v>
+      </c>
+      <c r="D3" s="1">
+        <f>C3/B3/1</f>
+        <v>0.06951</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IRR(B3:B15)*12</f>
+        <v>0.128319335156927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-938.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-932.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-920.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-914.86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-905.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-894.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-887.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-877.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-869.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-860.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-849.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-842.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="E18" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1">
         <v>10000</v>
       </c>
-      <c r="C5" s="11">
-        <f>-SUM(B6:B17)-B5</f>
-        <v>1101.6</v>
-      </c>
-      <c r="D5" s="12">
-        <f>IRR(B5:B17)*12</f>
-        <v>0.199086621071269</v>
-      </c>
-      <c r="E5" s="13">
-        <f>(-SUM(B6:B17)-B5)/B5/1</f>
-        <v>0.11016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="C19" s="1">
+        <f>-SUM(B20:B31)-B19</f>
+        <v>758.960000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <f>C19/B19/1</f>
+        <v>0.0758960000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <f>IRR(B19:B31)*12</f>
+        <v>0.137254761451119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="11">
-        <v>-1016.8</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
+      <c r="B20" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="11">
-        <v>-916.8</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
+      <c r="B21" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="11">
-        <v>-916.8</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
+      <c r="B22" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="11">
-        <v>-916.8</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
+      <c r="B23" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="11">
-        <v>-916.8</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="10" t="s">
+      <c r="B24" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="11">
-        <v>-916.8</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="B25" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="11">
-        <v>-916.8</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
+      <c r="B26" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="11">
-        <v>-916.8</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
+      <c r="B27" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="11">
-        <v>-916.8</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
+      <c r="B28" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="11">
-        <v>-916.8</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
+      <c r="B29" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="11">
-        <v>-916.8</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:5">
-      <c r="A17" s="14" t="s">
+      <c r="B30" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="15">
-        <v>-916.8</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" ht="14.25"/>
+      <c r="B31" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C35" s="1">
+        <f>-SUM(B36:B45)-B35</f>
+        <v>552.9</v>
+      </c>
+      <c r="D35" s="1">
+        <f>C35/B35/(10/12)</f>
+        <v>0.0663479999999999</v>
+      </c>
+      <c r="E35" s="1">
+        <f>IRR(B35:B45)*10</f>
+        <v>0.100800856731296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-1141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-1081</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-1074.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-1065.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="1">
+        <v>-1054</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="1">
+        <v>-1046.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="1">
+        <v>-1036</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="1">
+        <v>-1027.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="1">
+        <v>-1018.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-1008.4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:D3"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2379,129 +2600,129 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="23.1" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="20" customWidth="1"/>
-    <col min="2" max="16384" width="14.625" style="20"/>
+    <col min="1" max="1" width="14.625" style="16" customWidth="1"/>
+    <col min="2" max="16384" width="14.625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="16">
         <v>18000</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="5:10">
-      <c r="E3" s="26">
+      <c r="E3" s="23">
         <v>180</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="23">
         <v>223.2</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="16">
         <v>223.2</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="16">
         <v>208.8</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="16">
         <v>223.2</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="16">
         <v>18216</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="16">
         <v>5000</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="5:7">
-      <c r="E7" s="26">
+      <c r="E7" s="23">
         <v>50</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="23">
         <v>62</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="16">
         <v>5062</v>
       </c>
     </row>
@@ -2534,58 +2755,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="27.95" customHeight="1" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="14.625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="137.625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="14.625" style="20"/>
+    <col min="1" max="2" width="14.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="137.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="14.625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="16">
         <v>10000</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="16">
         <v>5000</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="16">
         <v>2000</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:2">
-      <c r="B5" s="20">
+      <c r="B5" s="16">
         <f>SUM(B2:B4)</f>
         <v>17000</v>
       </c>
@@ -2608,73 +2829,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="15.625" style="20"/>
+    <col min="1" max="3" width="15.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="15.625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>10000</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="16">
         <v>3349.09</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="16">
         <v>20000</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="16">
         <v>18432.25</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="16">
         <v>5000</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="16">
         <v>5031.5</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="16">
         <v>11000</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="16">
         <v>11050.05</v>
       </c>
     </row>
@@ -2703,61 +2924,61 @@
     <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A1" s="20">
+    <row r="1" s="16" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A1" s="16">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" ht="35.1" customHeight="1" spans="2:9">
-      <c r="B2" s="29">
+    <row r="2" s="16" customFormat="1" ht="35.1" customHeight="1" spans="2:9">
+      <c r="B2" s="26">
         <v>43912</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>10000</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="27">
         <v>43927</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="27">
         <v>43957</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="28">
         <v>43988</v>
       </c>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" s="20" customFormat="1" ht="51" customHeight="1" spans="6:9">
-      <c r="F3" s="32">
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" s="16" customFormat="1" ht="51" customHeight="1" spans="6:9">
+      <c r="F3" s="29">
         <v>48</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="23">
         <v>96</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="30">
         <v>10099.2</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2786,98 +3007,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="2" width="15.375" style="20" customWidth="1"/>
-    <col min="3" max="3" width="21" style="20" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="20" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="20" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="32.5" style="20" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="20" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="20" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="20" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="20" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="20" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="20" customWidth="1"/>
-    <col min="15" max="15" width="11.75" style="20" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="20" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="20" customWidth="1"/>
-    <col min="18" max="18" width="9.375" style="23"/>
-    <col min="19" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="15.375" style="16" customWidth="1"/>
+    <col min="3" max="3" width="21" style="16" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="32.5" style="16" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="16" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="16" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="16" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="16" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="16" customWidth="1"/>
+    <col min="17" max="17" width="11.25" style="16" customWidth="1"/>
+    <col min="18" max="18" width="9.375" style="20"/>
+    <col min="19" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="116.25" customHeight="1" spans="1:9">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" ht="30" customHeight="1"/>
     <row r="3" customFormat="1" ht="24" customHeight="1" spans="2:18">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="R3" s="28"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="R3" s="25"/>
     </row>
     <row r="4" customFormat="1" ht="38.1" customHeight="1" spans="2:18">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="16">
         <v>40000</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="23">
         <v>512</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="R4" s="28"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="R4" s="25"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:7">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="16">
         <v>5000</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="25"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="22"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="6:12">
-      <c r="F6" s="27"/>
-      <c r="G6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" ht="24.95" customHeight="1"/>
     <row r="8" ht="24.95" customHeight="1"/>
@@ -2916,31 +3137,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="9" style="20"/>
-    <col min="3" max="3" width="19.625" style="20" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="16.875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="9" style="16"/>
+    <col min="3" max="3" width="19.625" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" spans="1:3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" ht="35.25" customHeight="1" spans="1:3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="16">
         <v>30000</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2953,112 +3174,431 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="20" customWidth="1"/>
-    <col min="3" max="4" width="17.375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="50.125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="9" style="20"/>
-    <col min="7" max="7" width="24.25" style="20" customWidth="1"/>
-    <col min="8" max="9" width="9" style="20"/>
-    <col min="10" max="10" width="7.25" style="20" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="20" customWidth="1"/>
-    <col min="12" max="12" width="34.375" style="20" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="17.375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="16" customWidth="1"/>
+    <col min="3" max="4" width="17.375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="50.125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="9" style="16"/>
+    <col min="7" max="7" width="24.25" style="16" customWidth="1"/>
+    <col min="8" max="9" width="9" style="16"/>
+    <col min="10" max="10" width="7.25" style="16" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="34.375" style="16" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" ht="54" customHeight="1" spans="1:12">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="36" customHeight="1" spans="1:12">
-      <c r="A3" s="20">
+      <c r="A3" s="16">
         <v>61000</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="16">
         <f>K3-A3</f>
         <v>11644.4</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="16">
         <f>F3/A3/3</f>
         <v>0.0636306010928961</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="16">
         <v>2017.9</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="16">
         <v>2017.9</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="16">
         <v>35</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="16">
         <f>I3*J3+H3</f>
         <v>72644.4</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="16" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="16">
+        <v>61000</v>
+      </c>
+      <c r="C6" s="16">
+        <f>-SUM(B7:B42)-B6</f>
+        <v>11644.4</v>
+      </c>
+      <c r="D6" s="16">
+        <f>C6/B6/3</f>
+        <v>0.0636306010928962</v>
+      </c>
+      <c r="E6" s="19">
+        <f>IRR(B6:B42)*12</f>
+        <v>0.117191453705376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="16">
+        <v>-2017.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="16">
+        <v>-2017.9</v>
       </c>
     </row>
   </sheetData>
@@ -3070,341 +3610,222 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="F17" sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="9.875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="18"/>
-    <col min="5" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
+    <col min="2" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" customHeight="1" spans="2:5">
-      <c r="B1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="18" t="s">
+    <row r="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:6">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" ht="23" customHeight="1" spans="1:5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="18" t="s">
+      <c r="D4" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="2:5">
-      <c r="B2" s="18">
-        <v>61000</v>
-      </c>
-      <c r="C2" s="18">
-        <f>-SUM(B3:B38)-B2</f>
-        <v>11644.4</v>
-      </c>
-      <c r="D2" s="18">
-        <f>C2/B2/3</f>
-        <v>0.0636306010928962</v>
-      </c>
-      <c r="E2" s="19">
-        <f>IRR(B2:B38)*12</f>
-        <v>0.117191453705376</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="E4" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="11">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="11">
+        <f>-SUM(B6:B17)-B5</f>
+        <v>1101.6</v>
+      </c>
+      <c r="D5" s="11">
+        <f>IRR(B5:B17)*12</f>
+        <v>0.199086621071269</v>
+      </c>
+      <c r="E5" s="12">
+        <f>(-SUM(B6:B17)-B5)/B5/1</f>
+        <v>0.11016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="B6" s="11">
+        <v>-1016.8</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="B7" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="B8" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="B9" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="18" t="s">
+      <c r="B10" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="18" t="s">
+      <c r="B11" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
+      <c r="B12" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="18" t="s">
+      <c r="B13" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
+      <c r="B14" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="18" t="s">
+      <c r="B15" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="18" t="s">
+      <c r="B16" s="11">
+        <v>-916.8</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:5">
+      <c r="A17" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="18">
-        <v>-2017.9</v>
-      </c>
-    </row>
+      <c r="B17" s="14">
+        <v>-916.8</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" ht="14.25"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="28800" windowHeight="11925" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="周高攀" sheetId="4" r:id="rId1"/>
@@ -13,17 +13,16 @@
     <sheet name="京东金条" sheetId="9" state="hidden" r:id="rId4"/>
     <sheet name="王星" sheetId="10" state="hidden" r:id="rId5"/>
     <sheet name="方召军账单" sheetId="3" r:id="rId6"/>
-    <sheet name="王星账单" sheetId="11" r:id="rId7"/>
-    <sheet name="中信银行" sheetId="12" r:id="rId8"/>
-    <sheet name="IRR示例" sheetId="14" r:id="rId9"/>
-    <sheet name="小额贷快利率试算" sheetId="15" r:id="rId10"/>
+    <sheet name="中信银行" sheetId="12" r:id="rId7"/>
+    <sheet name="IRR示例" sheetId="14" r:id="rId8"/>
+    <sheet name="小额贷快利率试算" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="132">
   <si>
     <t>日期</t>
   </si>
@@ -150,6 +149,9 @@
   </si>
   <si>
     <t>2020.1.21给胡小芳</t>
+  </si>
+  <si>
+    <t>来荣新</t>
   </si>
   <si>
     <t>还款人</t>
@@ -266,28 +268,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>021.2.10-2021.5.6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>021.2.8-2021.5.6</t>
     </r>
   </si>
   <si>
@@ -535,12 +515,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -551,9 +531,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,7 +575,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,35 +590,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -625,31 +612,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,14 +622,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,14 +637,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -712,6 +692,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -724,7 +710,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,7 +746,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,91 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,19 +866,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,43 +884,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,16 +1078,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,15 +1110,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1148,8 +1119,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,28 +1151,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,10 +1182,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1214,133 +1194,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1363,9 +1343,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,31 +1385,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1816,10 +1796,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="23.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="15" customWidth="1"/>
     <col min="5" max="5" width="26.875" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="11" width="9.375"/>
@@ -1827,35 +1807,35 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="16">
+      <c r="A2" s="15">
         <v>2016</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>10000</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>2018</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>4000</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2049,16 +2029,16 @@
       <c r="R19" s="40"/>
     </row>
     <row r="20" s="31" customFormat="1" ht="38.1" customHeight="1" spans="1:18">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>18000</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="40"/>
@@ -2128,14 +2108,14 @@
       <c r="R22" s="40"/>
     </row>
     <row r="23" s="31" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>4500</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="15"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
@@ -2166,472 +2146,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C3" s="1">
-        <f>-SUM(B4:B15)-B3</f>
-        <v>695.1</v>
-      </c>
-      <c r="D3" s="1">
-        <f>C3/B3/1</f>
-        <v>0.06951</v>
-      </c>
-      <c r="E3" s="1">
-        <f>IRR(B3:B15)*12</f>
-        <v>0.128319335156927</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-938.37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-932.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-920.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-914.86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-905.87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-894.83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-887.58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-877.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-869.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-860.61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="1">
-        <v>-849.85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="1">
-        <v>-842.63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C19" s="1">
-        <f>-SUM(B20:B31)-B19</f>
-        <v>758.960000000001</v>
-      </c>
-      <c r="D19" s="1">
-        <f>C19/B19/1</f>
-        <v>0.0758960000000001</v>
-      </c>
-      <c r="E19" s="1">
-        <f>IRR(B19:B31)*12</f>
-        <v>0.137254761451119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B27" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C35" s="1">
-        <f>-SUM(B36:B45)-B35</f>
-        <v>552.9</v>
-      </c>
-      <c r="D35" s="1">
-        <f>C35/B35/(10/12)</f>
-        <v>0.0663479999999999</v>
-      </c>
-      <c r="E35" s="1">
-        <f>IRR(B35:B45)*10</f>
-        <v>0.100800856731296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="1">
-        <v>-1141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="1">
-        <v>-1081</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="1">
-        <v>-1074.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B39" s="1">
-        <v>-1065.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B40" s="1">
-        <v>-1054</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="1">
-        <v>-1046.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="1">
-        <v>-1036</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="1">
-        <v>-1027.9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="1">
-        <v>-1018.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="1">
-        <v>-1008.4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="23.1" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="16" customWidth="1"/>
-    <col min="2" max="16384" width="14.625" style="16"/>
+    <col min="1" max="1" width="14.625" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="14.625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>18000</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="23" t="s">
@@ -2640,16 +2197,16 @@
       <c r="F2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2660,49 +2217,49 @@
       <c r="F3" s="23">
         <v>223.2</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <v>223.2</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>208.8</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>223.2</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>18216</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>5000</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="23" t="s">
@@ -2711,7 +2268,7 @@
       <c r="F6" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2722,7 +2279,7 @@
       <c r="F7" s="23">
         <v>62</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>5062</v>
       </c>
     </row>
@@ -2747,68 +2304,76 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="27.95" customHeight="1" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="27.95" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="14.625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="137.625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="14.625" style="16"/>
+    <col min="1" max="2" width="14.625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="137.625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="14.625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>10000</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="15">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="15">
         <v>5000</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="16">
-        <v>2000</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="2:2">
-      <c r="B5" s="16">
-        <f>SUM(B2:B4)</f>
-        <v>17000</v>
+    </row>
+    <row r="6" customHeight="1" spans="2:2">
+      <c r="B6" s="15">
+        <f>SUM(B2:B5)</f>
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
@@ -2829,73 +2394,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="15.625" style="16"/>
+    <col min="1" max="3" width="15.625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="15" customWidth="1"/>
+    <col min="6" max="16384" width="15.625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>43</v>
+      <c r="D1" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="16">
+      <c r="B2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="15">
         <v>10000</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>3349.09</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="A3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="15">
         <v>20000</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>18432.25</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="16">
+      <c r="A4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="15">
         <v>5000</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>5031.5</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="16">
+      <c r="B5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="15">
         <v>11000</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>11050.05</v>
       </c>
     </row>
@@ -2924,38 +2489,38 @@
     <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A1" s="16">
+    <row r="1" s="15" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A1" s="15">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" s="16" customFormat="1" ht="35.1" customHeight="1" spans="2:9">
+      <c r="F1" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" s="15" customFormat="1" ht="35.1" customHeight="1" spans="2:9">
       <c r="B2" s="26">
         <v>43912</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>10000</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>54</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="F2" s="27">
         <v>43927</v>
@@ -2968,7 +2533,7 @@
       </c>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" s="16" customFormat="1" ht="51" customHeight="1" spans="6:9">
+    <row r="3" s="15" customFormat="1" ht="51" customHeight="1" spans="6:9">
       <c r="F3" s="29">
         <v>48</v>
       </c>
@@ -3002,92 +2567,92 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E24" sqref="E24"/>
+      <selection pane="topRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="15.375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="21" style="16" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="16" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="16" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="16" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="32.5" style="16" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="16" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="16" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="16" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="16" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="16" customWidth="1"/>
-    <col min="15" max="15" width="11.75" style="16" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="16" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="15.375" style="15" customWidth="1"/>
+    <col min="3" max="3" width="21" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="15" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="15" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="32.5" style="15" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="15" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="15" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="15" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="15" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="15" customWidth="1"/>
+    <col min="17" max="17" width="11.25" style="15" customWidth="1"/>
     <col min="18" max="18" width="9.375" style="20"/>
-    <col min="19" max="16384" width="9" style="16"/>
+    <col min="19" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="116.25" customHeight="1" spans="1:9">
-      <c r="A1" s="16" t="s">
-        <v>55</v>
+      <c r="A1" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="C1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" ht="30" customHeight="1"/>
     <row r="3" customFormat="1" ht="24" customHeight="1" spans="2:18">
-      <c r="B3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>57</v>
+      <c r="E3" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="F3" s="22"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
       <c r="R3" s="25"/>
     </row>
     <row r="4" customFormat="1" ht="38.1" customHeight="1" spans="2:18">
-      <c r="B4" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="16">
+      <c r="C4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="15">
         <v>40000</v>
       </c>
       <c r="E4" s="23">
         <v>512</v>
       </c>
       <c r="F4" s="22"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
       <c r="R4" s="25"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:7">
-      <c r="B5" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="16">
+      <c r="C5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="15">
         <v>5000</v>
       </c>
       <c r="F5" s="24"/>
@@ -3129,475 +2694,430 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="16.875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="19.625" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="31.5" customHeight="1" spans="1:3">
-      <c r="A1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" ht="35.25" customHeight="1" spans="1:3">
-      <c r="A2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="16">
-        <v>30000</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="16" customWidth="1"/>
-    <col min="3" max="4" width="17.375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="50.125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="9" style="16"/>
-    <col min="7" max="7" width="24.25" style="16" customWidth="1"/>
-    <col min="8" max="9" width="9" style="16"/>
-    <col min="10" max="10" width="7.25" style="16" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="34.375" style="16" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="17.375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="15" customWidth="1"/>
+    <col min="3" max="4" width="17.375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="50.125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9" style="15"/>
+    <col min="7" max="7" width="24.25" style="15" customWidth="1"/>
+    <col min="8" max="9" width="9" style="15"/>
+    <col min="10" max="10" width="7.25" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="34.375" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" ht="54" customHeight="1" spans="1:12">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="36" customHeight="1" spans="1:12">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>61000</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <f>K3-A3</f>
         <v>11644.4</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="15">
         <f>F3/A3/3</f>
         <v>0.0636306010928961</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>2017.9</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>2017.9</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>35</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="15">
         <f>I3*J3+H3</f>
         <v>72644.4</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>61000</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <f>-SUM(B7:B42)-B6</f>
         <v>11644.4</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f>C6/B6/3</f>
         <v>0.0636306010928962</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <f>IRR(B6:B42)*12</f>
         <v>0.117191453705376</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="19">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="19">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="19">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="19">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="15">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="15">
         <v>-2017.9</v>
       </c>
     </row>
@@ -3607,7 +3127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F18"/>
@@ -3636,189 +3156,189 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" ht="36" customHeight="1" spans="1:6">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" ht="23" customHeight="1" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>10000</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <f>-SUM(B6:B17)-B5</f>
         <v>1101.6</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <f>IRR(B5:B17)*12</f>
         <v>0.199086621071269</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <f>(-SUM(B6:B17)-B5)/B5/1</f>
         <v>0.11016</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>-1016.8</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>-916.8</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>-916.8</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>-916.8</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>-916.8</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>-916.8</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>-916.8</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>-916.8</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>-916.8</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>-916.8</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>-916.8</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" ht="14.25" spans="1:5">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>-916.8</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" ht="14.25"/>
   </sheetData>
@@ -3829,4 +3349,427 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="1">
+        <f>-SUM(B4:B15)-B3</f>
+        <v>695.1</v>
+      </c>
+      <c r="D3" s="1">
+        <f>C3/B3/1</f>
+        <v>0.06951</v>
+      </c>
+      <c r="E3" s="1">
+        <f>IRR(B3:B15)*12</f>
+        <v>0.128319335156927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-938.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-932.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-920.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-914.86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-905.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-894.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-887.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-877.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-869.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-860.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-849.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-842.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C19" s="1">
+        <f>-SUM(B20:B31)-B19</f>
+        <v>758.960000000001</v>
+      </c>
+      <c r="D19" s="1">
+        <f>C19/B19/1</f>
+        <v>0.0758960000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <f>IRR(B19:B31)*12</f>
+        <v>0.137254761451119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C35" s="1">
+        <f>-SUM(B36:B45)-B35</f>
+        <v>552.9</v>
+      </c>
+      <c r="D35" s="1">
+        <f>C35/B35/(10/12)</f>
+        <v>0.0663479999999999</v>
+      </c>
+      <c r="E35" s="1">
+        <f>IRR(B35:B45)*10</f>
+        <v>0.100800856731296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-1141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-1081</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-1074.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-1065.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="1">
+        <v>-1054</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="1">
+        <v>-1046.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="1">
+        <v>-1036</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="1">
+        <v>-1027.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="1">
+        <v>-1018.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-1008.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11925" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="11925"/>
   </bookViews>
   <sheets>
     <sheet name="周高攀" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="133">
   <si>
     <t>日期</t>
   </si>
@@ -91,6 +91,12 @@
     <t>代驾买车和花销</t>
   </si>
   <si>
+    <t>退房</t>
+  </si>
+  <si>
+    <t>179089-13000-1000-3000=45089</t>
+  </si>
+  <si>
     <t>借款金额</t>
   </si>
   <si>
@@ -142,16 +148,13 @@
     <t>胡小芳</t>
   </si>
   <si>
-    <t>2020年前10000,还了2000,还剩下8000,还了1000,剩下7000说是有异议改为7500,最终定为7500,过年又给500为7000,3.30号又给了2000</t>
+    <t>2020年前10000,还了2000,还剩下8000,还了1000,剩下7000说是有异议改为7500,最终定为7500,过年又给500为7000,3.30号又给了2000,8.18又给2000,剩下3000</t>
   </si>
   <si>
     <t>李芳</t>
   </si>
   <si>
     <t>2020.1.21给胡小芳</t>
-  </si>
-  <si>
-    <t>来荣新</t>
   </si>
   <si>
     <t>还款人</t>
@@ -515,11 +518,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -532,50 +535,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,30 +558,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -622,30 +588,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,18 +602,79 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -710,7 +713,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,19 +785,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,13 +803,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,7 +827,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,73 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,37 +881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,6 +1081,63 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1109,24 +1169,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1135,45 +1177,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1182,10 +1185,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1194,133 +1197,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1788,17 +1791,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.75" style="15" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="23.125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="15" customWidth="1"/>
     <col min="4" max="4" width="22.625" style="15" customWidth="1"/>
     <col min="5" max="5" width="26.875" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
@@ -2134,6 +2137,14 @@
       <c r="C24" s="47">
         <f>SUM(C2:C23)</f>
         <v>278500</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:3">
+      <c r="B25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2166,48 +2177,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="15">
         <v>18000</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="5:10">
@@ -2235,41 +2246,41 @@
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="15">
         <v>5000</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="5:7">
@@ -2304,13 +2315,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="27.95" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="27.95" customHeight="1" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="14.625" style="15" customWidth="1"/>
     <col min="3" max="3" width="137.625" style="15" customWidth="1"/>
@@ -2320,7 +2331,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
@@ -2331,49 +2342,41 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="15">
         <v>10000</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="15">
         <v>3000</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="15">
         <v>2000</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="15" t="s">
-        <v>42</v>
-      </c>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:2">
       <c r="B5" s="15">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="2:2">
-      <c r="B6" s="15">
-        <f>SUM(B2:B5)</f>
-        <v>20000</v>
+        <f>SUM(B2:B4)</f>
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
@@ -2405,21 +2408,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="15">
         <v>10000</v>
@@ -2430,7 +2433,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="15">
         <v>20000</v>
@@ -2441,7 +2444,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="15">
         <v>5000</v>
@@ -2452,10 +2455,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="15">
         <v>11000</v>
@@ -2497,16 +2500,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" ht="35.1" customHeight="1" spans="2:9">
@@ -2517,10 +2520,10 @@
         <v>10000</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="27">
         <v>43927</v>
@@ -2595,11 +2598,11 @@
   <sheetData>
     <row r="1" ht="116.25" customHeight="1" spans="1:9">
       <c r="A1" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -2611,16 +2614,16 @@
     <row r="2" ht="30" customHeight="1"/>
     <row r="3" customFormat="1" ht="24" customHeight="1" spans="2:18">
       <c r="B3" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="15"/>
@@ -2629,10 +2632,10 @@
     </row>
     <row r="4" customFormat="1" ht="38.1" customHeight="1" spans="2:18">
       <c r="B4" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="15">
         <v>40000</v>
@@ -2647,10 +2650,10 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:7">
       <c r="B5" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5" s="15">
         <v>5000</v>
@@ -2717,45 +2720,45 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:3">
       <c r="A1" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" ht="54" customHeight="1" spans="1:12">
       <c r="A2" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>2</v>
@@ -2766,16 +2769,16 @@
         <v>61000</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" s="15">
         <f>K3-A3</f>
@@ -2799,21 +2802,21 @@
         <v>72644.4</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2835,7 +2838,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" s="19">
         <v>-2017.9</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="19">
         <v>-2017.9</v>
@@ -2851,7 +2854,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9" s="19">
         <v>-2017.9</v>
@@ -2859,7 +2862,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10" s="19">
         <v>-2017.9</v>
@@ -2867,7 +2870,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B11" s="15">
         <v>-2017.9</v>
@@ -2875,7 +2878,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" s="15">
         <v>-2017.9</v>
@@ -2883,7 +2886,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B13" s="15">
         <v>-2017.9</v>
@@ -2891,7 +2894,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" s="15">
         <v>-2017.9</v>
@@ -2899,7 +2902,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" s="15">
         <v>-2017.9</v>
@@ -2907,7 +2910,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B16" s="15">
         <v>-2017.9</v>
@@ -2915,7 +2918,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B17" s="15">
         <v>-2017.9</v>
@@ -2923,7 +2926,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18" s="15">
         <v>-2017.9</v>
@@ -2931,7 +2934,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19" s="15">
         <v>-2017.9</v>
@@ -2939,7 +2942,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B20" s="15">
         <v>-2017.9</v>
@@ -2947,7 +2950,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B21" s="15">
         <v>-2017.9</v>
@@ -2955,7 +2958,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B22" s="15">
         <v>-2017.9</v>
@@ -2963,7 +2966,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B23" s="15">
         <v>-2017.9</v>
@@ -2971,7 +2974,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B24" s="15">
         <v>-2017.9</v>
@@ -2979,7 +2982,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" s="15">
         <v>-2017.9</v>
@@ -2987,7 +2990,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B26" s="15">
         <v>-2017.9</v>
@@ -2995,7 +2998,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B27" s="15">
         <v>-2017.9</v>
@@ -3003,7 +3006,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B28" s="15">
         <v>-2017.9</v>
@@ -3011,7 +3014,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B29" s="15">
         <v>-2017.9</v>
@@ -3019,7 +3022,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B30" s="15">
         <v>-2017.9</v>
@@ -3027,7 +3030,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B31" s="15">
         <v>-2017.9</v>
@@ -3035,7 +3038,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B32" s="15">
         <v>-2017.9</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B33" s="15">
         <v>-2017.9</v>
@@ -3051,7 +3054,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B34" s="15">
         <v>-2017.9</v>
@@ -3059,7 +3062,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B35" s="15">
         <v>-2017.9</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B36" s="15">
         <v>-2017.9</v>
@@ -3075,7 +3078,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B37" s="15">
         <v>-2017.9</v>
@@ -3083,7 +3086,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B38" s="15">
         <v>-2017.9</v>
@@ -3091,7 +3094,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B39" s="15">
         <v>-2017.9</v>
@@ -3099,7 +3102,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B40" s="15">
         <v>-2017.9</v>
@@ -3107,7 +3110,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B41" s="15">
         <v>-2017.9</v>
@@ -3115,7 +3118,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B42" s="15">
         <v>-2017.9</v>
@@ -3147,7 +3150,7 @@
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3165,7 +3168,7 @@
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3176,21 +3179,21 @@
     <row r="4" ht="23" customHeight="1" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="10">
         <v>10000</v>
@@ -3210,7 +3213,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B6" s="10">
         <v>-1016.8</v>
@@ -3221,7 +3224,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" s="10">
         <v>-916.8</v>
@@ -3232,7 +3235,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" s="10">
         <v>-916.8</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B9" s="10">
         <v>-916.8</v>
@@ -3254,7 +3257,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B10" s="10">
         <v>-916.8</v>
@@ -3265,7 +3268,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B11" s="10">
         <v>-916.8</v>
@@ -3276,7 +3279,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" s="10">
         <v>-916.8</v>
@@ -3287,7 +3290,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B13" s="10">
         <v>-916.8</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B14" s="10">
         <v>-916.8</v>
@@ -3309,7 +3312,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15" s="10">
         <v>-916.8</v>
@@ -3320,7 +3323,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="10">
         <v>-916.8</v>
@@ -3331,7 +3334,7 @@
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B17" s="13">
         <v>-916.8</v>
@@ -3372,29 +3375,29 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1">
         <v>10000</v>
@@ -3414,7 +3417,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1">
         <v>-938.37</v>
@@ -3422,7 +3425,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1">
         <v>-932.84</v>
@@ -3430,7 +3433,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1">
         <v>-920.93</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1">
         <v>-914.86</v>
@@ -3446,7 +3449,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1">
         <v>-905.87</v>
@@ -3454,7 +3457,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1">
         <v>-894.83</v>
@@ -3462,7 +3465,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1">
         <v>-887.58</v>
@@ -3470,7 +3473,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1">
         <v>-877.13</v>
@@ -3478,7 +3481,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1">
         <v>-869.6</v>
@@ -3486,7 +3489,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1">
         <v>-860.61</v>
@@ -3494,7 +3497,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1">
         <v>-849.85</v>
@@ -3502,7 +3505,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1">
         <v>-842.63</v>
@@ -3510,29 +3513,29 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B19" s="1">
         <v>10000</v>
@@ -3552,7 +3555,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20" s="1">
         <v>-896.58</v>
@@ -3560,7 +3563,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" s="1">
         <v>-896.58</v>
@@ -3568,7 +3571,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1">
         <v>-896.58</v>
@@ -3576,7 +3579,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1">
         <v>-896.58</v>
@@ -3584,7 +3587,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B24" s="1">
         <v>-896.58</v>
@@ -3592,7 +3595,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B25" s="1">
         <v>-896.58</v>
@@ -3600,7 +3603,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="1">
         <v>-896.58</v>
@@ -3608,7 +3611,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B27" s="1">
         <v>-896.58</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B28" s="1">
         <v>-896.58</v>
@@ -3624,7 +3627,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B29" s="1">
         <v>-896.58</v>
@@ -3632,7 +3635,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B30" s="1">
         <v>-896.58</v>
@@ -3640,7 +3643,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B31" s="1">
         <v>-896.58</v>
@@ -3648,29 +3651,29 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1">
         <v>10000</v>
@@ -3690,7 +3693,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1">
         <v>-1141</v>
@@ -3698,7 +3701,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" s="1">
         <v>-1081</v>
@@ -3706,7 +3709,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1">
         <v>-1074.4</v>
@@ -3714,7 +3717,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B39" s="1">
         <v>-1065.1</v>
@@ -3722,7 +3725,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" s="1">
         <v>-1054</v>
@@ -3730,7 +3733,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B41" s="1">
         <v>-1046.5</v>
@@ -3738,7 +3741,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B42" s="1">
         <v>-1036</v>
@@ -3746,7 +3749,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" s="1">
         <v>-1027.9</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B44" s="1">
         <v>-1018.6</v>
@@ -3762,7 +3765,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B45" s="1">
         <v>-1008.4</v>

--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="136">
   <si>
     <t>日期</t>
   </si>
@@ -91,10 +91,19 @@
     <t>代驾买车和花销</t>
   </si>
   <si>
-    <t>退房</t>
-  </si>
-  <si>
-    <t>179089-13000-1000-3000=45089</t>
+    <t>2021.12.1</t>
+  </si>
+  <si>
+    <t>阑尾炎手术</t>
+  </si>
+  <si>
+    <t>2021.8.18</t>
+  </si>
+  <si>
+    <t>房子退款</t>
+  </si>
+  <si>
+    <t>退房:179089-13000-1000-3000=45089</t>
   </si>
   <si>
     <t>借款金额</t>
@@ -518,12 +527,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -534,16 +543,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,15 +589,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,11 +627,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -617,49 +657,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -678,6 +680,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -686,7 +695,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -713,43 +722,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -767,7 +758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,13 +782,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,31 +878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -839,7 +890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,43 +902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1080,21 +1095,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1104,11 +1104,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,21 +1155,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1169,11 +1171,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1185,10 +1200,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1197,180 +1212,180 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1418,10 +1433,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1468,6 +1486,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1791,10 +1818,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1803,7 +1830,7 @@
     <col min="2" max="2" width="19.375" style="15" customWidth="1"/>
     <col min="3" max="3" width="38.5" style="15" customWidth="1"/>
     <col min="4" max="4" width="22.625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="50.75" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="11" width="9.375"/>
     <col min="12" max="18" width="10.375"/>
@@ -1843,193 +1870,193 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="32">
+      <c r="A4" s="33">
         <v>2019.06</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="34">
         <v>10000</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="35"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="35">
+      <c r="A5" s="36">
         <v>7.8</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22">
         <v>50000</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22">
         <v>10000</v>
       </c>
-      <c r="D6" s="36"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="35">
+      <c r="A7" s="36">
         <v>7.9</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22">
         <v>35000</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="37"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22">
         <v>10000</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="37"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="35">
+      <c r="A9" s="36">
         <v>7.27</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22">
         <v>10000</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22">
         <v>10000</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22">
         <v>5000</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="35">
+      <c r="A12" s="36">
         <v>7.28</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22">
         <v>5000</v>
       </c>
-      <c r="D12" s="36"/>
+      <c r="D12" s="37"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="35">
+      <c r="A13" s="36">
         <v>7.31</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22">
         <v>10000</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="35">
+      <c r="A14" s="36">
         <v>8.5</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22">
         <v>10000</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="37" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="35">
+      <c r="A15" s="36">
         <v>8.14</v>
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="22">
         <v>5000</v>
       </c>
-      <c r="D15" s="36"/>
+      <c r="D15" s="37"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="35">
+      <c r="A16" s="36">
         <v>9.8</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22">
         <v>14000</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="37" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="35">
+      <c r="A17" s="36">
         <v>12</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22">
         <v>4000</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="37" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="36" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22">
         <v>4000</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="37" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" s="31" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38">
+      <c r="B19" s="39"/>
+      <c r="C19" s="39">
         <v>10000</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
     </row>
     <row r="20" s="31" customFormat="1" ht="38.1" customHeight="1" spans="1:18">
       <c r="A20" s="15" t="s">
@@ -2044,71 +2071,71 @@
       <c r="D20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
     </row>
     <row r="21" s="31" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="43">
         <v>20000</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
     </row>
     <row r="22" s="31" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46">
         <v>20000</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
     </row>
     <row r="23" s="31" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
       <c r="A23" s="15"/>
@@ -2119,32 +2146,77 @@
         <v>4500</v>
       </c>
       <c r="D23" s="15"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-    </row>
-    <row r="24" ht="27.75" customHeight="1" spans="3:3">
-      <c r="C24" s="47">
-        <f>SUM(C2:C23)</f>
-        <v>278500</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="2:3">
-      <c r="B25" s="15" t="s">
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+    </row>
+    <row r="24" s="31" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
+      <c r="A24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="B24" s="16" t="s">
         <v>23</v>
+      </c>
+      <c r="C24" s="15">
+        <v>15000</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+    </row>
+    <row r="25" s="32" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
+      <c r="A25" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="20">
+        <v>-45000</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+    </row>
+    <row r="26" ht="27.75" customHeight="1" spans="3:3">
+      <c r="C26" s="51">
+        <f>SUM(C2:C25)</f>
+        <v>248500</v>
       </c>
     </row>
   </sheetData>
@@ -2177,48 +2249,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B2" s="15">
         <v>18000</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="5:10">
@@ -2246,41 +2318,41 @@
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" s="15">
         <v>5000</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="5:7">
@@ -2331,7 +2403,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
@@ -2342,35 +2414,35 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="15">
         <v>10000</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="15">
         <v>3000</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
       <c r="A4" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4" s="15">
         <v>2000</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:2">
@@ -2408,21 +2480,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" s="15">
         <v>10000</v>
@@ -2433,7 +2505,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" s="15">
         <v>20000</v>
@@ -2444,7 +2516,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C4" s="15">
         <v>5000</v>
@@ -2455,10 +2527,10 @@
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5" s="15">
         <v>11000</v>
@@ -2500,16 +2572,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" s="15" customFormat="1" ht="35.1" customHeight="1" spans="2:9">
@@ -2520,10 +2592,10 @@
         <v>10000</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2" s="27">
         <v>43927</v>
@@ -2598,11 +2670,11 @@
   <sheetData>
     <row r="1" ht="116.25" customHeight="1" spans="1:9">
       <c r="A1" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -2614,16 +2686,16 @@
     <row r="2" ht="30" customHeight="1"/>
     <row r="3" customFormat="1" ht="24" customHeight="1" spans="2:18">
       <c r="B3" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="15"/>
@@ -2632,10 +2704,10 @@
     </row>
     <row r="4" customFormat="1" ht="38.1" customHeight="1" spans="2:18">
       <c r="B4" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D4" s="15">
         <v>40000</v>
@@ -2650,10 +2722,10 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:7">
       <c r="B5" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D5" s="15">
         <v>5000</v>
@@ -2720,45 +2792,45 @@
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:3">
       <c r="A1" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" ht="54" customHeight="1" spans="1:12">
       <c r="A2" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>2</v>
@@ -2769,16 +2841,16 @@
         <v>61000</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F3" s="15">
         <f>K3-A3</f>
@@ -2802,21 +2874,21 @@
         <v>72644.4</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -2838,7 +2910,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B7" s="19">
         <v>-2017.9</v>
@@ -2846,7 +2918,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B8" s="19">
         <v>-2017.9</v>
@@ -2854,7 +2926,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B9" s="19">
         <v>-2017.9</v>
@@ -2862,7 +2934,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B10" s="19">
         <v>-2017.9</v>
@@ -2870,7 +2942,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B11" s="15">
         <v>-2017.9</v>
@@ -2878,7 +2950,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B12" s="15">
         <v>-2017.9</v>
@@ -2886,7 +2958,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B13" s="15">
         <v>-2017.9</v>
@@ -2894,7 +2966,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B14" s="15">
         <v>-2017.9</v>
@@ -2902,7 +2974,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B15" s="15">
         <v>-2017.9</v>
@@ -2910,7 +2982,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B16" s="15">
         <v>-2017.9</v>
@@ -2918,7 +2990,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B17" s="15">
         <v>-2017.9</v>
@@ -2926,7 +2998,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B18" s="15">
         <v>-2017.9</v>
@@ -2934,7 +3006,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B19" s="15">
         <v>-2017.9</v>
@@ -2942,7 +3014,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B20" s="15">
         <v>-2017.9</v>
@@ -2950,7 +3022,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B21" s="15">
         <v>-2017.9</v>
@@ -2958,7 +3030,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B22" s="15">
         <v>-2017.9</v>
@@ -2966,7 +3038,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B23" s="15">
         <v>-2017.9</v>
@@ -2974,7 +3046,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B24" s="15">
         <v>-2017.9</v>
@@ -2982,7 +3054,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B25" s="15">
         <v>-2017.9</v>
@@ -2990,7 +3062,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B26" s="15">
         <v>-2017.9</v>
@@ -2998,7 +3070,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B27" s="15">
         <v>-2017.9</v>
@@ -3006,7 +3078,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B28" s="15">
         <v>-2017.9</v>
@@ -3014,7 +3086,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B29" s="15">
         <v>-2017.9</v>
@@ -3022,7 +3094,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B30" s="15">
         <v>-2017.9</v>
@@ -3030,7 +3102,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B31" s="15">
         <v>-2017.9</v>
@@ -3038,7 +3110,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B32" s="15">
         <v>-2017.9</v>
@@ -3046,7 +3118,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B33" s="15">
         <v>-2017.9</v>
@@ -3054,7 +3126,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B34" s="15">
         <v>-2017.9</v>
@@ -3062,7 +3134,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B35" s="15">
         <v>-2017.9</v>
@@ -3070,7 +3142,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B36" s="15">
         <v>-2017.9</v>
@@ -3078,7 +3150,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B37" s="15">
         <v>-2017.9</v>
@@ -3086,7 +3158,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B38" s="15">
         <v>-2017.9</v>
@@ -3094,7 +3166,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B39" s="15">
         <v>-2017.9</v>
@@ -3102,7 +3174,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B40" s="15">
         <v>-2017.9</v>
@@ -3110,7 +3182,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B41" s="15">
         <v>-2017.9</v>
@@ -3118,7 +3190,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B42" s="15">
         <v>-2017.9</v>
@@ -3150,7 +3222,7 @@
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3168,7 +3240,7 @@
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3179,21 +3251,21 @@
     <row r="4" ht="23" customHeight="1" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" s="10">
         <v>10000</v>
@@ -3213,7 +3285,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B6" s="10">
         <v>-1016.8</v>
@@ -3224,7 +3296,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B7" s="10">
         <v>-916.8</v>
@@ -3235,7 +3307,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B8" s="10">
         <v>-916.8</v>
@@ -3246,7 +3318,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B9" s="10">
         <v>-916.8</v>
@@ -3257,7 +3329,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B10" s="10">
         <v>-916.8</v>
@@ -3268,7 +3340,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B11" s="10">
         <v>-916.8</v>
@@ -3279,7 +3351,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B12" s="10">
         <v>-916.8</v>
@@ -3290,7 +3362,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B13" s="10">
         <v>-916.8</v>
@@ -3301,7 +3373,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B14" s="10">
         <v>-916.8</v>
@@ -3312,7 +3384,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B15" s="10">
         <v>-916.8</v>
@@ -3323,7 +3395,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B16" s="10">
         <v>-916.8</v>
@@ -3334,7 +3406,7 @@
     </row>
     <row r="17" ht="14.25" spans="1:5">
       <c r="A17" s="12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B17" s="13">
         <v>-916.8</v>
@@ -3375,29 +3447,29 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1">
         <v>10000</v>
@@ -3417,7 +3489,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1">
         <v>-938.37</v>
@@ -3425,7 +3497,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1">
         <v>-932.84</v>
@@ -3433,7 +3505,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1">
         <v>-920.93</v>
@@ -3441,7 +3513,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1">
         <v>-914.86</v>
@@ -3449,7 +3521,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1">
         <v>-905.87</v>
@@ -3457,7 +3529,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1">
         <v>-894.83</v>
@@ -3465,7 +3537,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1">
         <v>-887.58</v>
@@ -3473,7 +3545,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1">
         <v>-877.13</v>
@@ -3481,7 +3553,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B12" s="1">
         <v>-869.6</v>
@@ -3489,7 +3561,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B13" s="1">
         <v>-860.61</v>
@@ -3497,7 +3569,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1">
         <v>-849.85</v>
@@ -3505,7 +3577,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1">
         <v>-842.63</v>
@@ -3513,29 +3585,29 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B19" s="1">
         <v>10000</v>
@@ -3555,7 +3627,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B20" s="1">
         <v>-896.58</v>
@@ -3563,7 +3635,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1">
         <v>-896.58</v>
@@ -3571,7 +3643,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1">
         <v>-896.58</v>
@@ -3579,7 +3651,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1">
         <v>-896.58</v>
@@ -3587,7 +3659,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1">
         <v>-896.58</v>
@@ -3595,7 +3667,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1">
         <v>-896.58</v>
@@ -3603,7 +3675,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B26" s="1">
         <v>-896.58</v>
@@ -3611,7 +3683,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1">
         <v>-896.58</v>
@@ -3619,7 +3691,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B28" s="1">
         <v>-896.58</v>
@@ -3627,7 +3699,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B29" s="1">
         <v>-896.58</v>
@@ -3635,7 +3707,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B30" s="1">
         <v>-896.58</v>
@@ -3643,7 +3715,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B31" s="1">
         <v>-896.58</v>
@@ -3651,29 +3723,29 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1">
         <v>10000</v>
@@ -3693,7 +3765,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B36" s="1">
         <v>-1141</v>
@@ -3701,7 +3773,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B37" s="1">
         <v>-1081</v>
@@ -3709,7 +3781,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B38" s="1">
         <v>-1074.4</v>
@@ -3717,7 +3789,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B39" s="1">
         <v>-1065.1</v>
@@ -3725,7 +3797,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B40" s="1">
         <v>-1054</v>
@@ -3733,7 +3805,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B41" s="1">
         <v>-1046.5</v>
@@ -3741,7 +3813,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B42" s="1">
         <v>-1036</v>
@@ -3749,7 +3821,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B43" s="1">
         <v>-1027.9</v>
@@ -3757,7 +3829,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B44" s="1">
         <v>-1018.6</v>
@@ -3765,7 +3837,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B45" s="1">
         <v>-1008.4</v>

--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11925"/>
+    <workbookView windowWidth="28800" windowHeight="11925" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="周高攀" sheetId="4" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="中信银行" sheetId="12" r:id="rId7"/>
     <sheet name="IRR示例" sheetId="14" r:id="rId8"/>
     <sheet name="小额贷快利率试算" sheetId="15" r:id="rId9"/>
+    <sheet name="中软工资明细" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="141">
   <si>
     <t>日期</t>
   </si>
@@ -104,6 +105,12 @@
   </si>
   <si>
     <t>退房:179089-13000-1000-3000=45089</t>
+  </si>
+  <si>
+    <t>2021.1.20</t>
+  </si>
+  <si>
+    <t>请王哥丽萍姐吃饭</t>
   </si>
   <si>
     <t>借款金额</t>
@@ -521,18 +528,27 @@
   <si>
     <t>万3</t>
   </si>
+  <si>
+    <t>月份</t>
+  </si>
+  <si>
+    <t>实发</t>
+  </si>
+  <si>
+    <t>详细</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -543,11 +559,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -562,6 +645,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,59 +674,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,37 +683,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,18 +697,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -716,13 +738,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,25 +780,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,19 +810,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,79 +888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,31 +900,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1098,6 +1108,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1115,6 +1134,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,39 +1188,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1200,10 +1210,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1212,139 +1222,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1400,100 +1419,109 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1818,18 +1846,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="15" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="15" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="18" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="18" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="18" customWidth="1"/>
     <col min="5" max="5" width="50.75" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="11" width="9.375"/>
@@ -1837,386 +1865,412 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="15">
+      <c r="A2" s="18">
         <v>2016</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="18">
         <v>10000</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="15">
+      <c r="A3" s="18">
         <v>2018</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="18">
         <v>4000</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="33">
+      <c r="A4" s="37">
         <v>2019.06</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="38">
         <v>10000</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="36">
+      <c r="A5" s="40">
         <v>7.8</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25">
         <v>50000</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="41"/>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25">
         <v>10000</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="41"/>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="36">
+      <c r="A7" s="40">
         <v>7.9</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25">
         <v>35000</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="41"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25">
         <v>10000</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="36">
+      <c r="A9" s="40">
         <v>7.27</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25">
         <v>10000</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="36"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22">
+      <c r="A10" s="40"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25">
         <v>10000</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="36"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22">
+      <c r="A11" s="40"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25">
         <v>5000</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="36">
+      <c r="A12" s="40">
         <v>7.28</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25">
         <v>5000</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="41"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="36">
+      <c r="A13" s="40">
         <v>7.31</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25">
         <v>10000</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="36">
+      <c r="A14" s="40">
         <v>8.5</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25">
         <v>10000</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="36">
+      <c r="A15" s="40">
         <v>8.14</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25">
         <v>5000</v>
       </c>
-      <c r="D15" s="37"/>
+      <c r="D15" s="41"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="36">
+      <c r="A16" s="40">
         <v>9.8</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25">
         <v>14000</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="41" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="36">
+      <c r="A17" s="40">
         <v>12</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25">
         <v>4000</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25">
         <v>4000</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" s="31" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A19" s="38" t="s">
+    <row r="19" s="34" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A19" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39">
+      <c r="B19" s="43"/>
+      <c r="C19" s="43">
         <v>10000</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-    </row>
-    <row r="20" s="31" customFormat="1" ht="38.1" customHeight="1" spans="1:18">
-      <c r="A20" s="15" t="s">
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+    </row>
+    <row r="20" s="34" customFormat="1" ht="38.1" customHeight="1" spans="1:18">
+      <c r="A20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="18">
         <v>18000</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-    </row>
-    <row r="21" s="31" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A21" s="42" t="s">
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+    </row>
+    <row r="21" s="34" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A21" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="47">
         <v>20000</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-    </row>
-    <row r="22" s="31" customFormat="1" customHeight="1" spans="1:18">
-      <c r="A22" s="45" t="s">
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+    </row>
+    <row r="22" s="34" customFormat="1" customHeight="1" spans="1:18">
+      <c r="A22" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50">
         <v>20000</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-    </row>
-    <row r="23" s="31" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+    </row>
+    <row r="23" s="34" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="18">
         <v>4500</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-    </row>
-    <row r="24" s="31" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
-      <c r="A24" s="15" t="s">
+      <c r="D23" s="18"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+    </row>
+    <row r="24" s="34" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
+      <c r="A24" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="18">
         <v>15000</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-    </row>
-    <row r="25" s="32" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
-      <c r="A25" s="20" t="s">
+      <c r="D24" s="18"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+    </row>
+    <row r="25" s="35" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
+      <c r="A25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="23">
         <v>-45000</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="49" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-    </row>
-    <row r="26" ht="27.75" customHeight="1" spans="3:3">
-      <c r="C26" s="51">
-        <f>SUM(C2:C25)</f>
-        <v>248500</v>
+      <c r="F25" s="23"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="53"/>
+    </row>
+    <row r="26" s="36" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
+      <c r="A26" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="54">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+    </row>
+    <row r="27" ht="27.75" customHeight="1" spans="3:3">
+      <c r="C27" s="57">
+        <f>SUM(C2:C26)</f>
+        <v>249500</v>
       </c>
     </row>
   </sheetData>
@@ -2224,6 +2278,123 @@
     <mergeCell ref="B4:B19"/>
     <mergeCell ref="B21:B22"/>
   </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>44392</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2509.09</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>44423</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18206.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>44454</v>
+      </c>
+      <c r="B4" s="1">
+        <v>17557.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>44484</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17977.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>44515</v>
+      </c>
+      <c r="B6" s="1">
+        <v>21055.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>44545</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>44576</v>
+      </c>
+      <c r="B8" s="1">
+        <v>28341.74</v>
+      </c>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="1:2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3">
+        <f>SUM(B2:B8)</f>
+        <v>126411.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2240,129 +2411,129 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="23.1" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="14.625" style="15"/>
+    <col min="1" max="1" width="14.625" style="18" customWidth="1"/>
+    <col min="2" max="16384" width="14.625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>30</v>
       </c>
+      <c r="D1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="18">
+        <v>18000</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="5:10">
+      <c r="E3" s="26">
+        <v>180</v>
+      </c>
+      <c r="F3" s="26">
+        <v>223.2</v>
+      </c>
+      <c r="G3" s="18">
+        <v>223.2</v>
+      </c>
+      <c r="H3" s="18">
+        <v>208.8</v>
+      </c>
+      <c r="I3" s="18">
+        <v>223.2</v>
+      </c>
+      <c r="J3" s="18">
+        <v>18216</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="15">
-        <v>18000</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="E5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="B6" s="18">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="D6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="E6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="F6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="G6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="5:10">
-      <c r="E3" s="23">
-        <v>180</v>
-      </c>
-      <c r="F3" s="23">
-        <v>223.2</v>
-      </c>
-      <c r="G3" s="15">
-        <v>223.2</v>
-      </c>
-      <c r="H3" s="15">
-        <v>208.8</v>
-      </c>
-      <c r="I3" s="15">
-        <v>223.2</v>
-      </c>
-      <c r="J3" s="15">
-        <v>18216</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="15">
-        <v>5000</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="7" customHeight="1" spans="5:7">
-      <c r="E7" s="23">
+      <c r="E7" s="26">
         <v>50</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="26">
         <v>62</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="18">
         <v>5062</v>
       </c>
     </row>
@@ -2395,58 +2566,58 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="27.95" customHeight="1" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="14.625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="137.625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="14.625" style="15"/>
+    <col min="1" max="2" width="14.625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="137.625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="18" customWidth="1"/>
+    <col min="5" max="16384" width="14.625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="A2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="18">
         <v>10000</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>42</v>
+      <c r="C2" s="18" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="15">
+      <c r="A3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="18">
         <v>3000</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>44</v>
+      <c r="C3" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="15">
+      <c r="A4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="18">
         <v>2000</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>46</v>
+      <c r="C4" s="18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:2">
-      <c r="B5" s="15">
+      <c r="B5" s="18">
         <f>SUM(B2:B4)</f>
         <v>15000</v>
       </c>
@@ -2469,73 +2640,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="15.625" style="15"/>
+    <col min="1" max="3" width="15.625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="15.625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>48</v>
+      <c r="D1" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="A2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="18">
         <v>10000</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="18">
         <v>3349.09</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="A3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="18">
         <v>20000</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="18">
         <v>18432.25</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="A4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="18">
         <v>5000</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="18">
         <v>5031.5</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="A5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="18">
         <v>11000</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="18">
         <v>11050.05</v>
       </c>
     </row>
@@ -2564,61 +2735,61 @@
     <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A1" s="15">
+    <row r="1" s="18" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A1" s="18">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" s="15" customFormat="1" ht="35.1" customHeight="1" spans="2:9">
-      <c r="B2" s="26">
+      <c r="E1" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" s="18" customFormat="1" ht="35.1" customHeight="1" spans="2:9">
+      <c r="B2" s="29">
         <v>43912</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="18">
         <v>10000</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="27">
+      <c r="D2" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="30">
         <v>43927</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="30">
         <v>43957</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="31">
         <v>43988</v>
       </c>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" s="15" customFormat="1" ht="51" customHeight="1" spans="6:9">
-      <c r="F3" s="29">
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" s="18" customFormat="1" ht="51" customHeight="1" spans="6:9">
+      <c r="F3" s="32">
         <v>48</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="26">
         <v>96</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="33">
         <v>10099.2</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2647,98 +2818,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="15.375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="21" style="15" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="15" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="15" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="32.5" style="15" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="15" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="15" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="15" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="15" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="15" customWidth="1"/>
-    <col min="15" max="15" width="11.75" style="15" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="15" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="15" customWidth="1"/>
-    <col min="18" max="18" width="9.375" style="20"/>
-    <col min="19" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="15.375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="21" style="18" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="18" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="18" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="32.5" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="18" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="18" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="18" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="18" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="18" customWidth="1"/>
+    <col min="17" max="17" width="11.25" style="18" customWidth="1"/>
+    <col min="18" max="18" width="9.375" style="23"/>
+    <col min="19" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="116.25" customHeight="1" spans="1:9">
-      <c r="A1" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" ht="30" customHeight="1"/>
     <row r="3" customFormat="1" ht="24" customHeight="1" spans="2:18">
-      <c r="B3" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="R3" s="25"/>
+      <c r="E3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="R3" s="28"/>
     </row>
     <row r="4" customFormat="1" ht="38.1" customHeight="1" spans="2:18">
-      <c r="B4" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="15">
+      <c r="B4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="18">
         <v>40000</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="26">
         <v>512</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="R4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="R4" s="28"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:7">
-      <c r="B5" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="B5" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="18">
         <v>5000</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="6:12">
-      <c r="F6" s="24"/>
-      <c r="G6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" ht="24.95" customHeight="1"/>
     <row r="8" ht="24.95" customHeight="1"/>
@@ -2777,422 +2948,422 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="15" customWidth="1"/>
-    <col min="3" max="4" width="17.375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="50.125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9" style="15"/>
-    <col min="7" max="7" width="24.25" style="15" customWidth="1"/>
-    <col min="8" max="9" width="9" style="15"/>
-    <col min="10" max="10" width="7.25" style="15" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="34.375" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="17.375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="18" customWidth="1"/>
+    <col min="3" max="4" width="17.375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="50.125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9" style="18"/>
+    <col min="7" max="7" width="24.25" style="18" customWidth="1"/>
+    <col min="8" max="9" width="9" style="18"/>
+    <col min="10" max="10" width="7.25" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="34.375" style="18" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>68</v>
+      <c r="A1" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" ht="54" customHeight="1" spans="1:12">
-      <c r="A2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="G2" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="H2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="I2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="J2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="36" customHeight="1" spans="1:12">
-      <c r="A3" s="15">
+      <c r="A3" s="18">
         <v>61000</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="15">
+      <c r="D3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="18">
         <f>K3-A3</f>
         <v>11644.4</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="18">
         <f>F3/A3/3</f>
         <v>0.0636306010928961</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="18">
         <v>2017.9</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="18">
         <v>2017.9</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="18">
         <v>35</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="18">
         <f>I3*J3+H3</f>
         <v>72644.4</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>83</v>
+      <c r="L3" s="18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="B5" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="C5" s="18" t="s">
         <v>87</v>
       </c>
+      <c r="D5" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="15">
+      <c r="B6" s="18">
         <v>61000</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="18">
         <f>-SUM(B7:B42)-B6</f>
         <v>11644.4</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="18">
         <f>C6/B6/3</f>
         <v>0.0636306010928962</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="21">
         <f>IRR(B6:B42)*12</f>
         <v>0.117191453705376</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="19">
+      <c r="A7" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="22">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="19">
+      <c r="A8" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="22">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="A9" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="22">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="19">
+      <c r="A10" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="22">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="15">
+      <c r="A11" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="15">
+      <c r="A12" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="15">
+      <c r="A13" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="A14" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="15">
+      <c r="A15" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="15">
+      <c r="A16" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="15">
+      <c r="A17" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="15">
+      <c r="A18" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="15">
+      <c r="A19" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="15">
+      <c r="A20" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="15">
+      <c r="A21" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="15">
+      <c r="A22" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="15">
+      <c r="A23" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="15">
+      <c r="A24" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B25" s="15">
+      <c r="A25" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="15">
+      <c r="A26" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="15">
+      <c r="A27" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="15">
+      <c r="A28" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="15">
+      <c r="A29" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="15">
+      <c r="A30" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="15">
+      <c r="A31" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="15">
+      <c r="A32" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="15">
+      <c r="A33" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" s="15">
+      <c r="A34" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="15">
+      <c r="A35" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="15">
+      <c r="A36" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="15">
+      <c r="A37" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="15">
+      <c r="A38" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="15">
+      <c r="A39" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B40" s="15">
+      <c r="A40" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="15">
+      <c r="A41" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" s="18">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" s="15">
+      <c r="A42" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" s="18">
         <v>-2017.9</v>
       </c>
     </row>
@@ -3213,207 +3384,207 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
-    <col min="2" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="16.75" style="5" customWidth="1"/>
+    <col min="2" max="3" width="14" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="11.875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" ht="36" customHeight="1" spans="1:6">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" ht="23" customHeight="1" spans="1:5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>127</v>
+      <c r="D4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="A5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="13">
         <v>10000</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="13">
         <f>-SUM(B6:B17)-B5</f>
         <v>1101.6</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="13">
         <f>IRR(B5:B17)*12</f>
         <v>0.199086621071269</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="14">
         <f>(-SUM(B6:B17)-B5)/B5/1</f>
         <v>0.11016</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="A6" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="13">
         <v>-1016.8</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="A7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="13">
         <v>-916.8</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="A8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="13">
         <v>-916.8</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="10">
+      <c r="A9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="13">
         <v>-916.8</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="10">
+      <c r="A10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="13">
         <v>-916.8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="10">
+      <c r="A11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="13">
         <v>-916.8</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="10">
+      <c r="A12" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="13">
         <v>-916.8</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="10">
+      <c r="A13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="13">
         <v>-916.8</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="10">
+      <c r="A14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="13">
         <v>-916.8</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="10">
+      <c r="A15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="13">
         <v>-916.8</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="10">
+      <c r="A16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="13">
         <v>-916.8</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" ht="14.25" spans="1:5">
-      <c r="A17" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="13">
+      <c r="A17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="16">
         <v>-916.8</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
     </row>
     <row r="18" ht="14.25"/>
   </sheetData>
@@ -3437,409 +3608,409 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="16.25" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>128</v>
+      <c r="A1" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="4">
         <v>10000</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <f>-SUM(B4:B15)-B3</f>
         <v>695.1</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <f>C3/B3/1</f>
         <v>0.06951</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <f>IRR(B3:B15)*12</f>
         <v>0.128319335156927</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="4">
         <v>-938.37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-932.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-920.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-914.86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-905.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-894.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-887.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-877.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-869.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-860.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="4">
+        <v>-849.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="4">
+        <v>-842.63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="1">
-        <v>-932.84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-920.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-914.86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-905.87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-894.83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-887.58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="1">
-        <v>-877.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-869.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="1">
-        <v>-860.61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="1">
-        <v>-849.85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="1">
-        <v>-842.63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="A19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="4">
         <v>10000</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <f>-SUM(B20:B31)-B19</f>
         <v>758.960000000001</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <f>C19/B19/1</f>
         <v>0.0758960000000001</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <f>IRR(B19:B31)*12</f>
         <v>0.137254761451119</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="A20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="4">
         <v>-896.58</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="4">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="4">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="4">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="4">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="4">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="4">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="4">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="4">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="4">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="4">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="4">
+        <v>-896.58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="1">
-        <v>-896.58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="1">
+      <c r="A35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="4">
         <v>10000</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="4">
         <f>-SUM(B36:B45)-B35</f>
         <v>552.9</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="4">
         <f>C35/B35/(10/12)</f>
         <v>0.0663479999999999</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="4">
         <f>IRR(B35:B45)*10</f>
         <v>0.100800856731296</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="A36" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="4">
         <v>-1141</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="1">
+      <c r="A37" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="4">
         <v>-1081</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="A38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="4">
         <v>-1074.4</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="A39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="4">
         <v>-1065.1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="1">
+      <c r="A40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="4">
         <v>-1054</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="A41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="4">
         <v>-1046.5</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="1">
+      <c r="A42" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="4">
         <v>-1036</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="1">
+      <c r="A43" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="4">
         <v>-1027.9</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="1">
+      <c r="A44" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" s="4">
         <v>-1018.6</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="1">
+      <c r="A45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="4">
         <v>-1008.4</v>
       </c>
     </row>

--- a/z我的账单.xlsx
+++ b/z我的账单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11925" activeTab="9"/>
+    <workbookView windowWidth="27195" windowHeight="13140" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="周高攀" sheetId="4" r:id="rId1"/>
@@ -215,7 +215,7 @@
     <t>欠方总</t>
   </si>
   <si>
-    <t>15426.35+5000(给周威还)=30426.35</t>
+    <t>15426.35+5000(给周威还)=20426.35</t>
   </si>
   <si>
     <r>
@@ -543,19 +543,48 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,8 +595,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,93 +690,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,24 +704,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,43 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,7 +764,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,31 +854,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,79 +908,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,20 +1113,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,17 +1143,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,13 +1161,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,17 +1191,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,10 +1218,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,137 +1230,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1407,9 +1415,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1431,9 +1436,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1455,6 +1457,12 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1514,9 +1522,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1854,10 +1859,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="18" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="18" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="50.75" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="11" width="9.375"/>
@@ -1865,35 +1870,35 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="18">
+      <c r="A2" s="1">
         <v>2016</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="1">
         <v>10000</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="18">
+      <c r="A3" s="1">
         <v>2018</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="1">
         <v>4000</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1913,8 +1918,8 @@
       <c r="A5" s="40">
         <v>7.8</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24">
         <v>50000</v>
       </c>
       <c r="D5" s="41"/>
@@ -1923,8 +1928,8 @@
       <c r="A6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24">
         <v>10000</v>
       </c>
       <c r="D6" s="41"/>
@@ -1933,8 +1938,8 @@
       <c r="A7" s="40">
         <v>7.9</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24">
         <v>35000</v>
       </c>
       <c r="D7" s="41"/>
@@ -1943,8 +1948,8 @@
       <c r="A8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24">
         <v>10000</v>
       </c>
       <c r="D8" s="41"/>
@@ -1953,8 +1958,8 @@
       <c r="A9" s="40">
         <v>7.27</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24">
         <v>10000</v>
       </c>
       <c r="D9" s="41" t="s">
@@ -1963,8 +1968,8 @@
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="40"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24">
         <v>10000</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -1973,8 +1978,8 @@
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="40"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24">
         <v>5000</v>
       </c>
       <c r="D11" s="41" t="s">
@@ -1985,8 +1990,8 @@
       <c r="A12" s="40">
         <v>7.28</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25">
+      <c r="B12" s="24"/>
+      <c r="C12" s="24">
         <v>5000</v>
       </c>
       <c r="D12" s="41"/>
@@ -1995,8 +2000,8 @@
       <c r="A13" s="40">
         <v>7.31</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24">
         <v>10000</v>
       </c>
       <c r="D13" s="41" t="s">
@@ -2007,8 +2012,8 @@
       <c r="A14" s="40">
         <v>8.5</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24">
         <v>10000</v>
       </c>
       <c r="D14" s="41" t="s">
@@ -2019,8 +2024,8 @@
       <c r="A15" s="40">
         <v>8.14</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24">
         <v>5000</v>
       </c>
       <c r="D15" s="41"/>
@@ -2029,8 +2034,8 @@
       <c r="A16" s="40">
         <v>9.8</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24">
         <v>14000</v>
       </c>
       <c r="D16" s="41" t="s">
@@ -2041,8 +2046,8 @@
       <c r="A17" s="40">
         <v>12</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24">
         <v>4000</v>
       </c>
       <c r="D17" s="41" t="s">
@@ -2053,8 +2058,8 @@
       <c r="A18" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24">
         <v>4000</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -2087,16 +2092,16 @@
       <c r="R19" s="45"/>
     </row>
     <row r="20" s="34" customFormat="1" ht="38.1" customHeight="1" spans="1:18">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="1">
         <v>18000</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="45"/>
@@ -2166,14 +2171,14 @@
       <c r="R22" s="45"/>
     </row>
     <row r="23" s="34" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="1">
         <v>4500</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="1"/>
       <c r="F23" s="45"/>
       <c r="G23" s="45"/>
       <c r="H23" s="45"/>
@@ -2189,16 +2194,16 @@
       <c r="R23" s="45"/>
     </row>
     <row r="24" s="34" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="1">
         <v>15000</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="1"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
@@ -2214,20 +2219,20 @@
       <c r="R24" s="45"/>
     </row>
     <row r="25" s="35" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <v>-45000</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="23"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="53"/>
       <c r="H25" s="53"/>
       <c r="I25" s="53"/>
@@ -2242,33 +2247,33 @@
       <c r="R25" s="53"/>
     </row>
     <row r="26" s="36" customFormat="1" ht="19.5" customHeight="1" spans="1:18">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="24">
         <v>1000</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
     </row>
     <row r="27" ht="27.75" customHeight="1" spans="3:3">
-      <c r="C27" s="57">
+      <c r="C27" s="56">
         <f>SUM(C2:C26)</f>
         <v>249500</v>
       </c>
@@ -2288,7 +2293,7 @@
   <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -2411,129 +2416,129 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="23.1" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="18" customWidth="1"/>
-    <col min="2" max="16384" width="14.625" style="18"/>
+    <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="14.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="1">
         <v>18000</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="5:10">
-      <c r="E3" s="26">
+      <c r="E3" s="3">
         <v>180</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="3">
         <v>223.2</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="1">
         <v>223.2</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="1">
         <v>208.8</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="1">
         <v>223.2</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="1">
         <v>18216</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="1">
         <v>5000</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="5:7">
-      <c r="E7" s="26">
+      <c r="E7" s="3">
         <v>50</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="3">
         <v>62</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="1">
         <v>5062</v>
       </c>
     </row>
@@ -2561,63 +2566,63 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.625" defaultRowHeight="27.95" customHeight="1" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="14.625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="137.625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="18" customWidth="1"/>
-    <col min="5" max="16384" width="14.625" style="18"/>
+    <col min="1" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="137.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="14.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="18" t="s">
+    <row r="2" s="32" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A2" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="32">
         <v>10000</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="18" t="s">
+    <row r="3" s="32" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="32">
         <v>3000</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="18" t="s">
+    <row r="4" s="32" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A4" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="32">
         <v>2000</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:2">
-      <c r="B5" s="18">
+      <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
         <v>15000</v>
       </c>
@@ -2640,73 +2645,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24.95" customHeight="1" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="3" width="15.625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="18" customWidth="1"/>
-    <col min="6" max="16384" width="15.625" style="18"/>
+    <col min="1" max="3" width="15.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="1">
         <v>10000</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="1">
         <v>3349.09</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="1">
         <v>20000</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="1">
         <v>18432.25</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="1">
         <v>5000</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="1">
         <v>5031.5</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="1">
         <v>11000</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="1">
         <v>11050.05</v>
       </c>
     </row>
@@ -2735,61 +2740,61 @@
     <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A1" s="18">
+    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" s="18" customFormat="1" ht="35.1" customHeight="1" spans="2:9">
-      <c r="B2" s="29">
+    <row r="2" s="1" customFormat="1" ht="35.1" customHeight="1" spans="2:9">
+      <c r="B2" s="27">
         <v>43912</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="1">
         <v>10000</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="28">
         <v>43927</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="28">
         <v>43957</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="29">
         <v>43988</v>
       </c>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" s="18" customFormat="1" ht="51" customHeight="1" spans="6:9">
-      <c r="F3" s="32">
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="51" customHeight="1" spans="6:9">
+      <c r="F3" s="30">
         <v>48</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="3">
         <v>96</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="31">
         <v>10099.2</v>
       </c>
-      <c r="I3" s="25"/>
+      <c r="I3" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2810,106 +2815,106 @@
   <sheetPr/>
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D11" sqref="D11"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="15.375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="21" style="18" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="18" customWidth="1"/>
-    <col min="8" max="8" width="32.5" style="18" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="18" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="18" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="18" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="18" customWidth="1"/>
-    <col min="14" max="14" width="11.625" style="18" customWidth="1"/>
-    <col min="15" max="15" width="11.75" style="18" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="18" customWidth="1"/>
-    <col min="17" max="17" width="11.25" style="18" customWidth="1"/>
-    <col min="18" max="18" width="9.375" style="23"/>
-    <col min="19" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.375" style="22"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="116.25" customHeight="1" spans="1:9">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" ht="30" customHeight="1"/>
     <row r="3" customFormat="1" ht="24" customHeight="1" spans="2:18">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="R3" s="28"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="R3" s="26"/>
     </row>
     <row r="4" customFormat="1" ht="38.1" customHeight="1" spans="2:18">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="1">
         <v>40000</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="3">
         <v>512</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="R4" s="28"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="R4" s="26"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:7">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="1">
         <v>5000</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="6:12">
-      <c r="F6" s="27"/>
-      <c r="G6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" ht="24.95" customHeight="1"/>
     <row r="8" ht="24.95" customHeight="1"/>
@@ -2948,422 +2953,422 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="20.125" style="18" customWidth="1"/>
-    <col min="3" max="4" width="17.375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="50.125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9" style="18"/>
-    <col min="7" max="7" width="24.25" style="18" customWidth="1"/>
-    <col min="8" max="9" width="9" style="18"/>
-    <col min="10" max="10" width="7.25" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="18" customWidth="1"/>
-    <col min="12" max="12" width="34.375" style="18" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="17.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="50.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="24.25" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="7.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" ht="54" customHeight="1" spans="1:12">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="36" customHeight="1" spans="1:12">
-      <c r="A3" s="18">
+      <c r="A3" s="1">
         <v>61000</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="1">
         <f>K3-A3</f>
         <v>11644.4</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="1">
         <f>F3/A3/3</f>
         <v>0.0636306010928961</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="1">
         <v>2017.9</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="1">
         <v>2017.9</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="1">
         <v>35</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="1">
         <f>I3*J3+H3</f>
         <v>72644.4</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="18">
+      <c r="B6" s="1">
         <v>61000</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="1">
         <f>-SUM(B7:B42)-B6</f>
         <v>11644.4</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="1">
         <f>C6/B6/3</f>
         <v>0.0636306010928962</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <f>IRR(B6:B42)*12</f>
         <v>0.117191453705376</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="1">
         <v>-2017.9</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="1">
         <v>-2017.9</v>
       </c>
     </row>
